--- a/inst/shiny/WPROACM/XLSX/Data Entry Template - monthly.xlsx
+++ b/inst/shiny/WPROACM/XLSX/Data Entry Template - monthly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikko\Desktop\Desktop Stuff\WPRO\ACM WG\Data entry form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handcock/Build/WPRO-all-cause-of-mortality-and-excess-death-calculator/inst/shiny/WPROACM/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D34C87-E330-482E-AF34-90373D975C3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1DB2BE-46C0-6840-94F8-4CAA8038D702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9D1B51D1-1264-418D-B2D2-93940FC92664}"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9D1B51D1-1264-418D-B2D2-93940FC92664}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="31">
   <si>
     <t>AGE GROUP</t>
   </si>
@@ -163,6 +163,9 @@
      - For countries using non-ISO week number format, indicate number of days for specific weeks.</t>
     </r>
   </si>
+  <si>
+    <t>2022</t>
+  </si>
 </sst>
 </file>
 
@@ -237,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +298,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +452,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -545,39 +554,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -601,6 +577,54 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -927,58 +951,58 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="118.28515625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="46" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="118.33203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="35" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" thickBot="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:1" ht="19" thickBot="1">
+      <c r="A1" s="38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18" thickBot="1">
-      <c r="A2" s="50"/>
+      <c r="A2" s="39"/>
     </row>
-    <row r="3" spans="1:1" ht="18" thickBot="1">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:1" ht="19" thickBot="1">
+      <c r="A3" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="69.75" thickBot="1">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:1" ht="55" thickBot="1">
+      <c r="A4" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" thickBot="1">
-      <c r="A5" s="53"/>
+      <c r="A5" s="42"/>
     </row>
-    <row r="6" spans="1:1" ht="18" thickBot="1">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:1" ht="19" thickBot="1">
+      <c r="A6" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="363" thickBot="1">
-      <c r="A7" s="55" t="s">
+    <row r="7" spans="1:1" ht="378" thickBot="1">
+      <c r="A7" s="44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="36"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="47"/>
+      <c r="A9" s="36"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="47"/>
+      <c r="A10" s="36"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="36"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="47"/>
+      <c r="A12" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -988,126 +1012,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BF3A75-C147-4C9C-A881-0B2DDB9D5037}">
-  <dimension ref="A1:CH62"/>
+  <dimension ref="A1:CT62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="BX1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="CI2" sqref="CI1:CT1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86">
+    <row r="1" spans="1:98">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="43" t="s">
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="44" t="s">
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="38" t="s">
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="39" t="s">
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="39"/>
-      <c r="BM1" s="39"/>
-      <c r="BN1" s="39"/>
-      <c r="BO1" s="39"/>
-      <c r="BP1" s="39"/>
-      <c r="BQ1" s="39"/>
-      <c r="BR1" s="39"/>
-      <c r="BS1" s="39"/>
-      <c r="BT1" s="39"/>
-      <c r="BU1" s="39"/>
-      <c r="BV1" s="39"/>
-      <c r="BW1" s="40" t="s">
+      <c r="BL1" s="50"/>
+      <c r="BM1" s="50"/>
+      <c r="BN1" s="50"/>
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="50"/>
+      <c r="BQ1" s="50"/>
+      <c r="BR1" s="50"/>
+      <c r="BS1" s="50"/>
+      <c r="BT1" s="50"/>
+      <c r="BU1" s="50"/>
+      <c r="BV1" s="50"/>
+      <c r="BW1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="BX1" s="40"/>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
-      <c r="CD1" s="40"/>
-      <c r="CE1" s="40"/>
-      <c r="CF1" s="40"/>
-      <c r="CG1" s="40"/>
-      <c r="CH1" s="40"/>
+      <c r="BX1" s="51"/>
+      <c r="BY1" s="51"/>
+      <c r="BZ1" s="51"/>
+      <c r="CA1" s="51"/>
+      <c r="CB1" s="51"/>
+      <c r="CC1" s="51"/>
+      <c r="CD1" s="51"/>
+      <c r="CE1" s="51"/>
+      <c r="CF1" s="51"/>
+      <c r="CG1" s="51"/>
+      <c r="CH1" s="51"/>
+      <c r="CI1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ1" s="56"/>
+      <c r="CK1" s="56"/>
+      <c r="CL1" s="56"/>
+      <c r="CM1" s="56"/>
+      <c r="CN1" s="56"/>
+      <c r="CO1" s="56"/>
+      <c r="CP1" s="56"/>
+      <c r="CQ1" s="56"/>
+      <c r="CR1" s="56"/>
+      <c r="CS1" s="56"/>
+      <c r="CT1" s="56"/>
     </row>
-    <row r="2" spans="1:86">
+    <row r="2" spans="1:98">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="34">
@@ -1362,110 +1400,160 @@
       <c r="CH2" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="CI2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CJ2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CK2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CL2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CM2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CO2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CQ2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CR2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CS2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CT2" s="57" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:86" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:98" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="43" t="s">
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="44" t="s">
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="38" t="s">
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-      <c r="BB3" s="38"/>
-      <c r="BC3" s="38"/>
-      <c r="BD3" s="38"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="38"/>
-      <c r="BH3" s="38"/>
-      <c r="BI3" s="38"/>
-      <c r="BJ3" s="38"/>
-      <c r="BK3" s="39" t="s">
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="BL3" s="39"/>
-      <c r="BM3" s="39"/>
-      <c r="BN3" s="39"/>
-      <c r="BO3" s="39"/>
-      <c r="BP3" s="39"/>
-      <c r="BQ3" s="39"/>
-      <c r="BR3" s="39"/>
-      <c r="BS3" s="39"/>
-      <c r="BT3" s="39"/>
-      <c r="BU3" s="39"/>
-      <c r="BV3" s="39"/>
-      <c r="BW3" s="40" t="s">
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="50"/>
+      <c r="BO3" s="50"/>
+      <c r="BP3" s="50"/>
+      <c r="BQ3" s="50"/>
+      <c r="BR3" s="50"/>
+      <c r="BS3" s="50"/>
+      <c r="BT3" s="50"/>
+      <c r="BU3" s="50"/>
+      <c r="BV3" s="50"/>
+      <c r="BW3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="BX3" s="40"/>
-      <c r="BY3" s="40"/>
-      <c r="BZ3" s="40"/>
-      <c r="CA3" s="40"/>
-      <c r="CB3" s="40"/>
-      <c r="CC3" s="40"/>
-      <c r="CD3" s="40"/>
-      <c r="CE3" s="40"/>
-      <c r="CF3" s="40"/>
-      <c r="CG3" s="40"/>
-      <c r="CH3" s="40"/>
+      <c r="BX3" s="51"/>
+      <c r="BY3" s="51"/>
+      <c r="BZ3" s="51"/>
+      <c r="CA3" s="51"/>
+      <c r="CB3" s="51"/>
+      <c r="CC3" s="51"/>
+      <c r="CD3" s="51"/>
+      <c r="CE3" s="51"/>
+      <c r="CF3" s="51"/>
+      <c r="CG3" s="51"/>
+      <c r="CH3" s="51"/>
+      <c r="CI3" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ3" s="56"/>
+      <c r="CK3" s="56"/>
+      <c r="CL3" s="56"/>
+      <c r="CM3" s="56"/>
+      <c r="CN3" s="56"/>
+      <c r="CO3" s="56"/>
+      <c r="CP3" s="56"/>
+      <c r="CQ3" s="56"/>
+      <c r="CR3" s="56"/>
+      <c r="CS3" s="56"/>
+      <c r="CT3" s="56"/>
     </row>
-    <row r="4" spans="1:86" s="9" customFormat="1">
+    <row r="4" spans="1:98" s="9" customFormat="1">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="2">
@@ -1720,8 +1808,44 @@
       <c r="CH4" s="16">
         <v>12</v>
       </c>
+      <c r="CI4" s="57">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="58">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="58">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="58">
+        <v>4</v>
+      </c>
+      <c r="CM4" s="58">
+        <v>5</v>
+      </c>
+      <c r="CN4" s="58">
+        <v>6</v>
+      </c>
+      <c r="CO4" s="58">
+        <v>7</v>
+      </c>
+      <c r="CP4" s="58">
+        <v>8</v>
+      </c>
+      <c r="CQ4" s="58">
+        <v>9</v>
+      </c>
+      <c r="CR4" s="58">
+        <v>10</v>
+      </c>
+      <c r="CS4" s="58">
+        <v>11</v>
+      </c>
+      <c r="CT4" s="58">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:86" s="9" customFormat="1">
+    <row r="5" spans="1:98" s="9" customFormat="1">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="17" t="s">
@@ -1976,9 +2100,45 @@
       <c r="CH5" s="30" t="s">
         <v>21</v>
       </c>
+      <c r="CI5" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ5" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="CL5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM5" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN5" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="CO5" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="CP5" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="CQ5" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="CR5" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="CS5" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="CT5" s="60" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:86" ht="15.75">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:98">
+      <c r="A6" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -2068,9 +2228,21 @@
       <c r="CF6" s="33"/>
       <c r="CG6" s="33"/>
       <c r="CH6" s="33"/>
+      <c r="CI6" s="33"/>
+      <c r="CJ6" s="33"/>
+      <c r="CK6" s="33"/>
+      <c r="CL6" s="33"/>
+      <c r="CM6" s="33"/>
+      <c r="CN6" s="33"/>
+      <c r="CO6" s="33"/>
+      <c r="CP6" s="33"/>
+      <c r="CQ6" s="33"/>
+      <c r="CR6" s="33"/>
+      <c r="CS6" s="33"/>
+      <c r="CT6" s="33"/>
     </row>
-    <row r="7" spans="1:86" ht="15.75">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:98">
+      <c r="A7" s="54"/>
       <c r="B7" s="31" t="s">
         <v>23</v>
       </c>
@@ -2158,9 +2330,21 @@
       <c r="CF7" s="33"/>
       <c r="CG7" s="33"/>
       <c r="CH7" s="33"/>
+      <c r="CI7" s="33"/>
+      <c r="CJ7" s="33"/>
+      <c r="CK7" s="33"/>
+      <c r="CL7" s="33"/>
+      <c r="CM7" s="33"/>
+      <c r="CN7" s="33"/>
+      <c r="CO7" s="33"/>
+      <c r="CP7" s="33"/>
+      <c r="CQ7" s="33"/>
+      <c r="CR7" s="33"/>
+      <c r="CS7" s="33"/>
+      <c r="CT7" s="33"/>
     </row>
-    <row r="8" spans="1:86" ht="15.75">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:98">
+      <c r="A8" s="55"/>
       <c r="B8" s="31" t="s">
         <v>24</v>
       </c>
@@ -2248,9 +2432,21 @@
       <c r="CF8" s="33"/>
       <c r="CG8" s="33"/>
       <c r="CH8" s="33"/>
+      <c r="CI8" s="33"/>
+      <c r="CJ8" s="33"/>
+      <c r="CK8" s="33"/>
+      <c r="CL8" s="33"/>
+      <c r="CM8" s="33"/>
+      <c r="CN8" s="33"/>
+      <c r="CO8" s="33"/>
+      <c r="CP8" s="33"/>
+      <c r="CQ8" s="33"/>
+      <c r="CR8" s="33"/>
+      <c r="CS8" s="33"/>
+      <c r="CT8" s="33"/>
     </row>
-    <row r="9" spans="1:86" ht="15.75">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:98">
+      <c r="A9" s="53"/>
       <c r="B9" s="31" t="s">
         <v>22</v>
       </c>
@@ -2338,9 +2534,21 @@
       <c r="CF9" s="33"/>
       <c r="CG9" s="33"/>
       <c r="CH9" s="33"/>
+      <c r="CI9" s="33"/>
+      <c r="CJ9" s="33"/>
+      <c r="CK9" s="33"/>
+      <c r="CL9" s="33"/>
+      <c r="CM9" s="33"/>
+      <c r="CN9" s="33"/>
+      <c r="CO9" s="33"/>
+      <c r="CP9" s="33"/>
+      <c r="CQ9" s="33"/>
+      <c r="CR9" s="33"/>
+      <c r="CS9" s="33"/>
+      <c r="CT9" s="33"/>
     </row>
-    <row r="10" spans="1:86" ht="15.75">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:98">
+      <c r="A10" s="54"/>
       <c r="B10" s="31" t="s">
         <v>23</v>
       </c>
@@ -2428,9 +2636,21 @@
       <c r="CF10" s="33"/>
       <c r="CG10" s="33"/>
       <c r="CH10" s="33"/>
+      <c r="CI10" s="33"/>
+      <c r="CJ10" s="33"/>
+      <c r="CK10" s="33"/>
+      <c r="CL10" s="33"/>
+      <c r="CM10" s="33"/>
+      <c r="CN10" s="33"/>
+      <c r="CO10" s="33"/>
+      <c r="CP10" s="33"/>
+      <c r="CQ10" s="33"/>
+      <c r="CR10" s="33"/>
+      <c r="CS10" s="33"/>
+      <c r="CT10" s="33"/>
     </row>
-    <row r="11" spans="1:86" ht="15.75">
-      <c r="A11" s="37"/>
+    <row r="11" spans="1:98">
+      <c r="A11" s="55"/>
       <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
@@ -2518,9 +2738,21 @@
       <c r="CF11" s="33"/>
       <c r="CG11" s="33"/>
       <c r="CH11" s="33"/>
+      <c r="CI11" s="33"/>
+      <c r="CJ11" s="33"/>
+      <c r="CK11" s="33"/>
+      <c r="CL11" s="33"/>
+      <c r="CM11" s="33"/>
+      <c r="CN11" s="33"/>
+      <c r="CO11" s="33"/>
+      <c r="CP11" s="33"/>
+      <c r="CQ11" s="33"/>
+      <c r="CR11" s="33"/>
+      <c r="CS11" s="33"/>
+      <c r="CT11" s="33"/>
     </row>
-    <row r="12" spans="1:86" ht="15.75">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:98">
+      <c r="A12" s="53"/>
       <c r="B12" s="31" t="s">
         <v>22</v>
       </c>
@@ -2608,9 +2840,21 @@
       <c r="CF12" s="33"/>
       <c r="CG12" s="33"/>
       <c r="CH12" s="33"/>
+      <c r="CI12" s="33"/>
+      <c r="CJ12" s="33"/>
+      <c r="CK12" s="33"/>
+      <c r="CL12" s="33"/>
+      <c r="CM12" s="33"/>
+      <c r="CN12" s="33"/>
+      <c r="CO12" s="33"/>
+      <c r="CP12" s="33"/>
+      <c r="CQ12" s="33"/>
+      <c r="CR12" s="33"/>
+      <c r="CS12" s="33"/>
+      <c r="CT12" s="33"/>
     </row>
-    <row r="13" spans="1:86" ht="15.75">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:98">
+      <c r="A13" s="54"/>
       <c r="B13" s="31" t="s">
         <v>23</v>
       </c>
@@ -2698,9 +2942,21 @@
       <c r="CF13" s="33"/>
       <c r="CG13" s="33"/>
       <c r="CH13" s="33"/>
+      <c r="CI13" s="33"/>
+      <c r="CJ13" s="33"/>
+      <c r="CK13" s="33"/>
+      <c r="CL13" s="33"/>
+      <c r="CM13" s="33"/>
+      <c r="CN13" s="33"/>
+      <c r="CO13" s="33"/>
+      <c r="CP13" s="33"/>
+      <c r="CQ13" s="33"/>
+      <c r="CR13" s="33"/>
+      <c r="CS13" s="33"/>
+      <c r="CT13" s="33"/>
     </row>
-    <row r="14" spans="1:86" ht="15.75">
-      <c r="A14" s="37"/>
+    <row r="14" spans="1:98">
+      <c r="A14" s="55"/>
       <c r="B14" s="31" t="s">
         <v>24</v>
       </c>
@@ -2788,9 +3044,21 @@
       <c r="CF14" s="33"/>
       <c r="CG14" s="33"/>
       <c r="CH14" s="33"/>
+      <c r="CI14" s="33"/>
+      <c r="CJ14" s="33"/>
+      <c r="CK14" s="33"/>
+      <c r="CL14" s="33"/>
+      <c r="CM14" s="33"/>
+      <c r="CN14" s="33"/>
+      <c r="CO14" s="33"/>
+      <c r="CP14" s="33"/>
+      <c r="CQ14" s="33"/>
+      <c r="CR14" s="33"/>
+      <c r="CS14" s="33"/>
+      <c r="CT14" s="33"/>
     </row>
-    <row r="15" spans="1:86" ht="15.75">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:98">
+      <c r="A15" s="53"/>
       <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
@@ -2878,9 +3146,21 @@
       <c r="CF15" s="33"/>
       <c r="CG15" s="33"/>
       <c r="CH15" s="33"/>
+      <c r="CI15" s="33"/>
+      <c r="CJ15" s="33"/>
+      <c r="CK15" s="33"/>
+      <c r="CL15" s="33"/>
+      <c r="CM15" s="33"/>
+      <c r="CN15" s="33"/>
+      <c r="CO15" s="33"/>
+      <c r="CP15" s="33"/>
+      <c r="CQ15" s="33"/>
+      <c r="CR15" s="33"/>
+      <c r="CS15" s="33"/>
+      <c r="CT15" s="33"/>
     </row>
-    <row r="16" spans="1:86" ht="15.75">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:98">
+      <c r="A16" s="54"/>
       <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
@@ -2968,9 +3248,21 @@
       <c r="CF16" s="33"/>
       <c r="CG16" s="33"/>
       <c r="CH16" s="33"/>
+      <c r="CI16" s="33"/>
+      <c r="CJ16" s="33"/>
+      <c r="CK16" s="33"/>
+      <c r="CL16" s="33"/>
+      <c r="CM16" s="33"/>
+      <c r="CN16" s="33"/>
+      <c r="CO16" s="33"/>
+      <c r="CP16" s="33"/>
+      <c r="CQ16" s="33"/>
+      <c r="CR16" s="33"/>
+      <c r="CS16" s="33"/>
+      <c r="CT16" s="33"/>
     </row>
-    <row r="17" spans="1:86" ht="15.75">
-      <c r="A17" s="37"/>
+    <row r="17" spans="1:98">
+      <c r="A17" s="55"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
       </c>
@@ -3058,9 +3350,21 @@
       <c r="CF17" s="33"/>
       <c r="CG17" s="33"/>
       <c r="CH17" s="33"/>
+      <c r="CI17" s="33"/>
+      <c r="CJ17" s="33"/>
+      <c r="CK17" s="33"/>
+      <c r="CL17" s="33"/>
+      <c r="CM17" s="33"/>
+      <c r="CN17" s="33"/>
+      <c r="CO17" s="33"/>
+      <c r="CP17" s="33"/>
+      <c r="CQ17" s="33"/>
+      <c r="CR17" s="33"/>
+      <c r="CS17" s="33"/>
+      <c r="CT17" s="33"/>
     </row>
-    <row r="18" spans="1:86">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:98">
+      <c r="A18" s="53"/>
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
@@ -3148,9 +3452,21 @@
       <c r="CF18" s="33"/>
       <c r="CG18" s="33"/>
       <c r="CH18" s="33"/>
+      <c r="CI18" s="33"/>
+      <c r="CJ18" s="33"/>
+      <c r="CK18" s="33"/>
+      <c r="CL18" s="33"/>
+      <c r="CM18" s="33"/>
+      <c r="CN18" s="33"/>
+      <c r="CO18" s="33"/>
+      <c r="CP18" s="33"/>
+      <c r="CQ18" s="33"/>
+      <c r="CR18" s="33"/>
+      <c r="CS18" s="33"/>
+      <c r="CT18" s="33"/>
     </row>
-    <row r="19" spans="1:86">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:98">
+      <c r="A19" s="54"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
@@ -3238,9 +3554,21 @@
       <c r="CF19" s="33"/>
       <c r="CG19" s="33"/>
       <c r="CH19" s="33"/>
+      <c r="CI19" s="33"/>
+      <c r="CJ19" s="33"/>
+      <c r="CK19" s="33"/>
+      <c r="CL19" s="33"/>
+      <c r="CM19" s="33"/>
+      <c r="CN19" s="33"/>
+      <c r="CO19" s="33"/>
+      <c r="CP19" s="33"/>
+      <c r="CQ19" s="33"/>
+      <c r="CR19" s="33"/>
+      <c r="CS19" s="33"/>
+      <c r="CT19" s="33"/>
     </row>
-    <row r="20" spans="1:86">
-      <c r="A20" s="37"/>
+    <row r="20" spans="1:98">
+      <c r="A20" s="55"/>
       <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
@@ -3328,9 +3656,21 @@
       <c r="CF20" s="33"/>
       <c r="CG20" s="33"/>
       <c r="CH20" s="33"/>
+      <c r="CI20" s="33"/>
+      <c r="CJ20" s="33"/>
+      <c r="CK20" s="33"/>
+      <c r="CL20" s="33"/>
+      <c r="CM20" s="33"/>
+      <c r="CN20" s="33"/>
+      <c r="CO20" s="33"/>
+      <c r="CP20" s="33"/>
+      <c r="CQ20" s="33"/>
+      <c r="CR20" s="33"/>
+      <c r="CS20" s="33"/>
+      <c r="CT20" s="33"/>
     </row>
-    <row r="21" spans="1:86">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:98">
+      <c r="A21" s="53"/>
       <c r="B21" s="31" t="s">
         <v>22</v>
       </c>
@@ -3418,9 +3758,21 @@
       <c r="CF21" s="33"/>
       <c r="CG21" s="33"/>
       <c r="CH21" s="33"/>
+      <c r="CI21" s="33"/>
+      <c r="CJ21" s="33"/>
+      <c r="CK21" s="33"/>
+      <c r="CL21" s="33"/>
+      <c r="CM21" s="33"/>
+      <c r="CN21" s="33"/>
+      <c r="CO21" s="33"/>
+      <c r="CP21" s="33"/>
+      <c r="CQ21" s="33"/>
+      <c r="CR21" s="33"/>
+      <c r="CS21" s="33"/>
+      <c r="CT21" s="33"/>
     </row>
-    <row r="22" spans="1:86">
-      <c r="A22" s="36"/>
+    <row r="22" spans="1:98">
+      <c r="A22" s="54"/>
       <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
@@ -3508,9 +3860,21 @@
       <c r="CF22" s="33"/>
       <c r="CG22" s="33"/>
       <c r="CH22" s="33"/>
+      <c r="CI22" s="33"/>
+      <c r="CJ22" s="33"/>
+      <c r="CK22" s="33"/>
+      <c r="CL22" s="33"/>
+      <c r="CM22" s="33"/>
+      <c r="CN22" s="33"/>
+      <c r="CO22" s="33"/>
+      <c r="CP22" s="33"/>
+      <c r="CQ22" s="33"/>
+      <c r="CR22" s="33"/>
+      <c r="CS22" s="33"/>
+      <c r="CT22" s="33"/>
     </row>
-    <row r="23" spans="1:86">
-      <c r="A23" s="37"/>
+    <row r="23" spans="1:98">
+      <c r="A23" s="55"/>
       <c r="B23" s="31" t="s">
         <v>24</v>
       </c>
@@ -3598,9 +3962,21 @@
       <c r="CF23" s="33"/>
       <c r="CG23" s="33"/>
       <c r="CH23" s="33"/>
+      <c r="CI23" s="33"/>
+      <c r="CJ23" s="33"/>
+      <c r="CK23" s="33"/>
+      <c r="CL23" s="33"/>
+      <c r="CM23" s="33"/>
+      <c r="CN23" s="33"/>
+      <c r="CO23" s="33"/>
+      <c r="CP23" s="33"/>
+      <c r="CQ23" s="33"/>
+      <c r="CR23" s="33"/>
+      <c r="CS23" s="33"/>
+      <c r="CT23" s="33"/>
     </row>
-    <row r="24" spans="1:86">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:98">
+      <c r="A24" s="53"/>
       <c r="B24" s="31" t="s">
         <v>22</v>
       </c>
@@ -3688,9 +4064,21 @@
       <c r="CF24" s="33"/>
       <c r="CG24" s="33"/>
       <c r="CH24" s="33"/>
+      <c r="CI24" s="33"/>
+      <c r="CJ24" s="33"/>
+      <c r="CK24" s="33"/>
+      <c r="CL24" s="33"/>
+      <c r="CM24" s="33"/>
+      <c r="CN24" s="33"/>
+      <c r="CO24" s="33"/>
+      <c r="CP24" s="33"/>
+      <c r="CQ24" s="33"/>
+      <c r="CR24" s="33"/>
+      <c r="CS24" s="33"/>
+      <c r="CT24" s="33"/>
     </row>
-    <row r="25" spans="1:86">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:98">
+      <c r="A25" s="54"/>
       <c r="B25" s="31" t="s">
         <v>23</v>
       </c>
@@ -3778,9 +4166,21 @@
       <c r="CF25" s="33"/>
       <c r="CG25" s="33"/>
       <c r="CH25" s="33"/>
+      <c r="CI25" s="33"/>
+      <c r="CJ25" s="33"/>
+      <c r="CK25" s="33"/>
+      <c r="CL25" s="33"/>
+      <c r="CM25" s="33"/>
+      <c r="CN25" s="33"/>
+      <c r="CO25" s="33"/>
+      <c r="CP25" s="33"/>
+      <c r="CQ25" s="33"/>
+      <c r="CR25" s="33"/>
+      <c r="CS25" s="33"/>
+      <c r="CT25" s="33"/>
     </row>
-    <row r="26" spans="1:86">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:98">
+      <c r="A26" s="55"/>
       <c r="B26" s="31" t="s">
         <v>24</v>
       </c>
@@ -3868,9 +4268,21 @@
       <c r="CF26" s="33"/>
       <c r="CG26" s="33"/>
       <c r="CH26" s="33"/>
+      <c r="CI26" s="33"/>
+      <c r="CJ26" s="33"/>
+      <c r="CK26" s="33"/>
+      <c r="CL26" s="33"/>
+      <c r="CM26" s="33"/>
+      <c r="CN26" s="33"/>
+      <c r="CO26" s="33"/>
+      <c r="CP26" s="33"/>
+      <c r="CQ26" s="33"/>
+      <c r="CR26" s="33"/>
+      <c r="CS26" s="33"/>
+      <c r="CT26" s="33"/>
     </row>
-    <row r="27" spans="1:86">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:98">
+      <c r="A27" s="53"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
       </c>
@@ -3958,9 +4370,21 @@
       <c r="CF27" s="33"/>
       <c r="CG27" s="33"/>
       <c r="CH27" s="33"/>
+      <c r="CI27" s="33"/>
+      <c r="CJ27" s="33"/>
+      <c r="CK27" s="33"/>
+      <c r="CL27" s="33"/>
+      <c r="CM27" s="33"/>
+      <c r="CN27" s="33"/>
+      <c r="CO27" s="33"/>
+      <c r="CP27" s="33"/>
+      <c r="CQ27" s="33"/>
+      <c r="CR27" s="33"/>
+      <c r="CS27" s="33"/>
+      <c r="CT27" s="33"/>
     </row>
-    <row r="28" spans="1:86">
-      <c r="A28" s="36"/>
+    <row r="28" spans="1:98">
+      <c r="A28" s="54"/>
       <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
@@ -4048,9 +4472,21 @@
       <c r="CF28" s="33"/>
       <c r="CG28" s="33"/>
       <c r="CH28" s="33"/>
+      <c r="CI28" s="33"/>
+      <c r="CJ28" s="33"/>
+      <c r="CK28" s="33"/>
+      <c r="CL28" s="33"/>
+      <c r="CM28" s="33"/>
+      <c r="CN28" s="33"/>
+      <c r="CO28" s="33"/>
+      <c r="CP28" s="33"/>
+      <c r="CQ28" s="33"/>
+      <c r="CR28" s="33"/>
+      <c r="CS28" s="33"/>
+      <c r="CT28" s="33"/>
     </row>
-    <row r="29" spans="1:86">
-      <c r="A29" s="37"/>
+    <row r="29" spans="1:98">
+      <c r="A29" s="55"/>
       <c r="B29" s="31" t="s">
         <v>24</v>
       </c>
@@ -4138,9 +4574,21 @@
       <c r="CF29" s="33"/>
       <c r="CG29" s="33"/>
       <c r="CH29" s="33"/>
+      <c r="CI29" s="33"/>
+      <c r="CJ29" s="33"/>
+      <c r="CK29" s="33"/>
+      <c r="CL29" s="33"/>
+      <c r="CM29" s="33"/>
+      <c r="CN29" s="33"/>
+      <c r="CO29" s="33"/>
+      <c r="CP29" s="33"/>
+      <c r="CQ29" s="33"/>
+      <c r="CR29" s="33"/>
+      <c r="CS29" s="33"/>
+      <c r="CT29" s="33"/>
     </row>
-    <row r="30" spans="1:86">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:98">
+      <c r="A30" s="53"/>
       <c r="B30" s="31" t="s">
         <v>22</v>
       </c>
@@ -4228,9 +4676,21 @@
       <c r="CF30" s="33"/>
       <c r="CG30" s="33"/>
       <c r="CH30" s="33"/>
+      <c r="CI30" s="33"/>
+      <c r="CJ30" s="33"/>
+      <c r="CK30" s="33"/>
+      <c r="CL30" s="33"/>
+      <c r="CM30" s="33"/>
+      <c r="CN30" s="33"/>
+      <c r="CO30" s="33"/>
+      <c r="CP30" s="33"/>
+      <c r="CQ30" s="33"/>
+      <c r="CR30" s="33"/>
+      <c r="CS30" s="33"/>
+      <c r="CT30" s="33"/>
     </row>
-    <row r="31" spans="1:86">
-      <c r="A31" s="36"/>
+    <row r="31" spans="1:98">
+      <c r="A31" s="54"/>
       <c r="B31" s="31" t="s">
         <v>23</v>
       </c>
@@ -4318,9 +4778,21 @@
       <c r="CF31" s="33"/>
       <c r="CG31" s="33"/>
       <c r="CH31" s="33"/>
+      <c r="CI31" s="33"/>
+      <c r="CJ31" s="33"/>
+      <c r="CK31" s="33"/>
+      <c r="CL31" s="33"/>
+      <c r="CM31" s="33"/>
+      <c r="CN31" s="33"/>
+      <c r="CO31" s="33"/>
+      <c r="CP31" s="33"/>
+      <c r="CQ31" s="33"/>
+      <c r="CR31" s="33"/>
+      <c r="CS31" s="33"/>
+      <c r="CT31" s="33"/>
     </row>
-    <row r="32" spans="1:86">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:98">
+      <c r="A32" s="55"/>
       <c r="B32" s="31" t="s">
         <v>24</v>
       </c>
@@ -4408,9 +4880,21 @@
       <c r="CF32" s="33"/>
       <c r="CG32" s="33"/>
       <c r="CH32" s="33"/>
+      <c r="CI32" s="33"/>
+      <c r="CJ32" s="33"/>
+      <c r="CK32" s="33"/>
+      <c r="CL32" s="33"/>
+      <c r="CM32" s="33"/>
+      <c r="CN32" s="33"/>
+      <c r="CO32" s="33"/>
+      <c r="CP32" s="33"/>
+      <c r="CQ32" s="33"/>
+      <c r="CR32" s="33"/>
+      <c r="CS32" s="33"/>
+      <c r="CT32" s="33"/>
     </row>
-    <row r="33" spans="1:86">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:98">
+      <c r="A33" s="53"/>
       <c r="B33" s="31" t="s">
         <v>22</v>
       </c>
@@ -4498,9 +4982,21 @@
       <c r="CF33" s="33"/>
       <c r="CG33" s="33"/>
       <c r="CH33" s="33"/>
+      <c r="CI33" s="33"/>
+      <c r="CJ33" s="33"/>
+      <c r="CK33" s="33"/>
+      <c r="CL33" s="33"/>
+      <c r="CM33" s="33"/>
+      <c r="CN33" s="33"/>
+      <c r="CO33" s="33"/>
+      <c r="CP33" s="33"/>
+      <c r="CQ33" s="33"/>
+      <c r="CR33" s="33"/>
+      <c r="CS33" s="33"/>
+      <c r="CT33" s="33"/>
     </row>
-    <row r="34" spans="1:86">
-      <c r="A34" s="36"/>
+    <row r="34" spans="1:98">
+      <c r="A34" s="54"/>
       <c r="B34" s="31" t="s">
         <v>23</v>
       </c>
@@ -4588,9 +5084,21 @@
       <c r="CF34" s="33"/>
       <c r="CG34" s="33"/>
       <c r="CH34" s="33"/>
+      <c r="CI34" s="33"/>
+      <c r="CJ34" s="33"/>
+      <c r="CK34" s="33"/>
+      <c r="CL34" s="33"/>
+      <c r="CM34" s="33"/>
+      <c r="CN34" s="33"/>
+      <c r="CO34" s="33"/>
+      <c r="CP34" s="33"/>
+      <c r="CQ34" s="33"/>
+      <c r="CR34" s="33"/>
+      <c r="CS34" s="33"/>
+      <c r="CT34" s="33"/>
     </row>
-    <row r="35" spans="1:86">
-      <c r="A35" s="37"/>
+    <row r="35" spans="1:98">
+      <c r="A35" s="55"/>
       <c r="B35" s="31" t="s">
         <v>24</v>
       </c>
@@ -4678,9 +5186,21 @@
       <c r="CF35" s="33"/>
       <c r="CG35" s="33"/>
       <c r="CH35" s="33"/>
+      <c r="CI35" s="33"/>
+      <c r="CJ35" s="33"/>
+      <c r="CK35" s="33"/>
+      <c r="CL35" s="33"/>
+      <c r="CM35" s="33"/>
+      <c r="CN35" s="33"/>
+      <c r="CO35" s="33"/>
+      <c r="CP35" s="33"/>
+      <c r="CQ35" s="33"/>
+      <c r="CR35" s="33"/>
+      <c r="CS35" s="33"/>
+      <c r="CT35" s="33"/>
     </row>
-    <row r="36" spans="1:86">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:98">
+      <c r="A36" s="53"/>
       <c r="B36" s="31" t="s">
         <v>22</v>
       </c>
@@ -4768,9 +5288,21 @@
       <c r="CF36" s="33"/>
       <c r="CG36" s="33"/>
       <c r="CH36" s="33"/>
+      <c r="CI36" s="33"/>
+      <c r="CJ36" s="33"/>
+      <c r="CK36" s="33"/>
+      <c r="CL36" s="33"/>
+      <c r="CM36" s="33"/>
+      <c r="CN36" s="33"/>
+      <c r="CO36" s="33"/>
+      <c r="CP36" s="33"/>
+      <c r="CQ36" s="33"/>
+      <c r="CR36" s="33"/>
+      <c r="CS36" s="33"/>
+      <c r="CT36" s="33"/>
     </row>
-    <row r="37" spans="1:86">
-      <c r="A37" s="36"/>
+    <row r="37" spans="1:98">
+      <c r="A37" s="54"/>
       <c r="B37" s="31" t="s">
         <v>23</v>
       </c>
@@ -4858,9 +5390,21 @@
       <c r="CF37" s="33"/>
       <c r="CG37" s="33"/>
       <c r="CH37" s="33"/>
+      <c r="CI37" s="33"/>
+      <c r="CJ37" s="33"/>
+      <c r="CK37" s="33"/>
+      <c r="CL37" s="33"/>
+      <c r="CM37" s="33"/>
+      <c r="CN37" s="33"/>
+      <c r="CO37" s="33"/>
+      <c r="CP37" s="33"/>
+      <c r="CQ37" s="33"/>
+      <c r="CR37" s="33"/>
+      <c r="CS37" s="33"/>
+      <c r="CT37" s="33"/>
     </row>
-    <row r="38" spans="1:86">
-      <c r="A38" s="37"/>
+    <row r="38" spans="1:98">
+      <c r="A38" s="55"/>
       <c r="B38" s="31" t="s">
         <v>24</v>
       </c>
@@ -4948,9 +5492,21 @@
       <c r="CF38" s="33"/>
       <c r="CG38" s="33"/>
       <c r="CH38" s="33"/>
+      <c r="CI38" s="33"/>
+      <c r="CJ38" s="33"/>
+      <c r="CK38" s="33"/>
+      <c r="CL38" s="33"/>
+      <c r="CM38" s="33"/>
+      <c r="CN38" s="33"/>
+      <c r="CO38" s="33"/>
+      <c r="CP38" s="33"/>
+      <c r="CQ38" s="33"/>
+      <c r="CR38" s="33"/>
+      <c r="CS38" s="33"/>
+      <c r="CT38" s="33"/>
     </row>
-    <row r="39" spans="1:86">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:98">
+      <c r="A39" s="53"/>
       <c r="B39" s="31" t="s">
         <v>22</v>
       </c>
@@ -5038,9 +5594,21 @@
       <c r="CF39" s="33"/>
       <c r="CG39" s="33"/>
       <c r="CH39" s="33"/>
+      <c r="CI39" s="33"/>
+      <c r="CJ39" s="33"/>
+      <c r="CK39" s="33"/>
+      <c r="CL39" s="33"/>
+      <c r="CM39" s="33"/>
+      <c r="CN39" s="33"/>
+      <c r="CO39" s="33"/>
+      <c r="CP39" s="33"/>
+      <c r="CQ39" s="33"/>
+      <c r="CR39" s="33"/>
+      <c r="CS39" s="33"/>
+      <c r="CT39" s="33"/>
     </row>
-    <row r="40" spans="1:86">
-      <c r="A40" s="36"/>
+    <row r="40" spans="1:98">
+      <c r="A40" s="54"/>
       <c r="B40" s="31" t="s">
         <v>23</v>
       </c>
@@ -5128,9 +5696,21 @@
       <c r="CF40" s="33"/>
       <c r="CG40" s="33"/>
       <c r="CH40" s="33"/>
+      <c r="CI40" s="33"/>
+      <c r="CJ40" s="33"/>
+      <c r="CK40" s="33"/>
+      <c r="CL40" s="33"/>
+      <c r="CM40" s="33"/>
+      <c r="CN40" s="33"/>
+      <c r="CO40" s="33"/>
+      <c r="CP40" s="33"/>
+      <c r="CQ40" s="33"/>
+      <c r="CR40" s="33"/>
+      <c r="CS40" s="33"/>
+      <c r="CT40" s="33"/>
     </row>
-    <row r="41" spans="1:86">
-      <c r="A41" s="37"/>
+    <row r="41" spans="1:98">
+      <c r="A41" s="55"/>
       <c r="B41" s="31" t="s">
         <v>24</v>
       </c>
@@ -5218,9 +5798,21 @@
       <c r="CF41" s="33"/>
       <c r="CG41" s="33"/>
       <c r="CH41" s="33"/>
+      <c r="CI41" s="33"/>
+      <c r="CJ41" s="33"/>
+      <c r="CK41" s="33"/>
+      <c r="CL41" s="33"/>
+      <c r="CM41" s="33"/>
+      <c r="CN41" s="33"/>
+      <c r="CO41" s="33"/>
+      <c r="CP41" s="33"/>
+      <c r="CQ41" s="33"/>
+      <c r="CR41" s="33"/>
+      <c r="CS41" s="33"/>
+      <c r="CT41" s="33"/>
     </row>
-    <row r="42" spans="1:86">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:98">
+      <c r="A42" s="53"/>
       <c r="B42" s="31" t="s">
         <v>22</v>
       </c>
@@ -5308,9 +5900,21 @@
       <c r="CF42" s="33"/>
       <c r="CG42" s="33"/>
       <c r="CH42" s="33"/>
+      <c r="CI42" s="33"/>
+      <c r="CJ42" s="33"/>
+      <c r="CK42" s="33"/>
+      <c r="CL42" s="33"/>
+      <c r="CM42" s="33"/>
+      <c r="CN42" s="33"/>
+      <c r="CO42" s="33"/>
+      <c r="CP42" s="33"/>
+      <c r="CQ42" s="33"/>
+      <c r="CR42" s="33"/>
+      <c r="CS42" s="33"/>
+      <c r="CT42" s="33"/>
     </row>
-    <row r="43" spans="1:86">
-      <c r="A43" s="36"/>
+    <row r="43" spans="1:98">
+      <c r="A43" s="54"/>
       <c r="B43" s="31" t="s">
         <v>23</v>
       </c>
@@ -5398,9 +6002,21 @@
       <c r="CF43" s="33"/>
       <c r="CG43" s="33"/>
       <c r="CH43" s="33"/>
+      <c r="CI43" s="33"/>
+      <c r="CJ43" s="33"/>
+      <c r="CK43" s="33"/>
+      <c r="CL43" s="33"/>
+      <c r="CM43" s="33"/>
+      <c r="CN43" s="33"/>
+      <c r="CO43" s="33"/>
+      <c r="CP43" s="33"/>
+      <c r="CQ43" s="33"/>
+      <c r="CR43" s="33"/>
+      <c r="CS43" s="33"/>
+      <c r="CT43" s="33"/>
     </row>
-    <row r="44" spans="1:86">
-      <c r="A44" s="37"/>
+    <row r="44" spans="1:98">
+      <c r="A44" s="55"/>
       <c r="B44" s="31" t="s">
         <v>24</v>
       </c>
@@ -5488,9 +6104,21 @@
       <c r="CF44" s="33"/>
       <c r="CG44" s="33"/>
       <c r="CH44" s="33"/>
+      <c r="CI44" s="33"/>
+      <c r="CJ44" s="33"/>
+      <c r="CK44" s="33"/>
+      <c r="CL44" s="33"/>
+      <c r="CM44" s="33"/>
+      <c r="CN44" s="33"/>
+      <c r="CO44" s="33"/>
+      <c r="CP44" s="33"/>
+      <c r="CQ44" s="33"/>
+      <c r="CR44" s="33"/>
+      <c r="CS44" s="33"/>
+      <c r="CT44" s="33"/>
     </row>
-    <row r="45" spans="1:86">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:98">
+      <c r="A45" s="53"/>
       <c r="B45" s="31" t="s">
         <v>22</v>
       </c>
@@ -5578,9 +6206,21 @@
       <c r="CF45" s="33"/>
       <c r="CG45" s="33"/>
       <c r="CH45" s="33"/>
+      <c r="CI45" s="33"/>
+      <c r="CJ45" s="33"/>
+      <c r="CK45" s="33"/>
+      <c r="CL45" s="33"/>
+      <c r="CM45" s="33"/>
+      <c r="CN45" s="33"/>
+      <c r="CO45" s="33"/>
+      <c r="CP45" s="33"/>
+      <c r="CQ45" s="33"/>
+      <c r="CR45" s="33"/>
+      <c r="CS45" s="33"/>
+      <c r="CT45" s="33"/>
     </row>
-    <row r="46" spans="1:86">
-      <c r="A46" s="36"/>
+    <row r="46" spans="1:98">
+      <c r="A46" s="54"/>
       <c r="B46" s="31" t="s">
         <v>23</v>
       </c>
@@ -5668,9 +6308,21 @@
       <c r="CF46" s="33"/>
       <c r="CG46" s="33"/>
       <c r="CH46" s="33"/>
+      <c r="CI46" s="33"/>
+      <c r="CJ46" s="33"/>
+      <c r="CK46" s="33"/>
+      <c r="CL46" s="33"/>
+      <c r="CM46" s="33"/>
+      <c r="CN46" s="33"/>
+      <c r="CO46" s="33"/>
+      <c r="CP46" s="33"/>
+      <c r="CQ46" s="33"/>
+      <c r="CR46" s="33"/>
+      <c r="CS46" s="33"/>
+      <c r="CT46" s="33"/>
     </row>
-    <row r="47" spans="1:86">
-      <c r="A47" s="37"/>
+    <row r="47" spans="1:98">
+      <c r="A47" s="55"/>
       <c r="B47" s="31" t="s">
         <v>24</v>
       </c>
@@ -5758,9 +6410,21 @@
       <c r="CF47" s="33"/>
       <c r="CG47" s="33"/>
       <c r="CH47" s="33"/>
+      <c r="CI47" s="33"/>
+      <c r="CJ47" s="33"/>
+      <c r="CK47" s="33"/>
+      <c r="CL47" s="33"/>
+      <c r="CM47" s="33"/>
+      <c r="CN47" s="33"/>
+      <c r="CO47" s="33"/>
+      <c r="CP47" s="33"/>
+      <c r="CQ47" s="33"/>
+      <c r="CR47" s="33"/>
+      <c r="CS47" s="33"/>
+      <c r="CT47" s="33"/>
     </row>
-    <row r="48" spans="1:86">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:98">
+      <c r="A48" s="53"/>
       <c r="B48" s="31" t="s">
         <v>22</v>
       </c>
@@ -5848,9 +6512,21 @@
       <c r="CF48" s="33"/>
       <c r="CG48" s="33"/>
       <c r="CH48" s="33"/>
+      <c r="CI48" s="33"/>
+      <c r="CJ48" s="33"/>
+      <c r="CK48" s="33"/>
+      <c r="CL48" s="33"/>
+      <c r="CM48" s="33"/>
+      <c r="CN48" s="33"/>
+      <c r="CO48" s="33"/>
+      <c r="CP48" s="33"/>
+      <c r="CQ48" s="33"/>
+      <c r="CR48" s="33"/>
+      <c r="CS48" s="33"/>
+      <c r="CT48" s="33"/>
     </row>
-    <row r="49" spans="1:86">
-      <c r="A49" s="36"/>
+    <row r="49" spans="1:98">
+      <c r="A49" s="54"/>
       <c r="B49" s="31" t="s">
         <v>23</v>
       </c>
@@ -5938,9 +6614,21 @@
       <c r="CF49" s="33"/>
       <c r="CG49" s="33"/>
       <c r="CH49" s="33"/>
+      <c r="CI49" s="33"/>
+      <c r="CJ49" s="33"/>
+      <c r="CK49" s="33"/>
+      <c r="CL49" s="33"/>
+      <c r="CM49" s="33"/>
+      <c r="CN49" s="33"/>
+      <c r="CO49" s="33"/>
+      <c r="CP49" s="33"/>
+      <c r="CQ49" s="33"/>
+      <c r="CR49" s="33"/>
+      <c r="CS49" s="33"/>
+      <c r="CT49" s="33"/>
     </row>
-    <row r="50" spans="1:86">
-      <c r="A50" s="37"/>
+    <row r="50" spans="1:98">
+      <c r="A50" s="55"/>
       <c r="B50" s="31" t="s">
         <v>24</v>
       </c>
@@ -6028,9 +6716,21 @@
       <c r="CF50" s="33"/>
       <c r="CG50" s="33"/>
       <c r="CH50" s="33"/>
+      <c r="CI50" s="33"/>
+      <c r="CJ50" s="33"/>
+      <c r="CK50" s="33"/>
+      <c r="CL50" s="33"/>
+      <c r="CM50" s="33"/>
+      <c r="CN50" s="33"/>
+      <c r="CO50" s="33"/>
+      <c r="CP50" s="33"/>
+      <c r="CQ50" s="33"/>
+      <c r="CR50" s="33"/>
+      <c r="CS50" s="33"/>
+      <c r="CT50" s="33"/>
     </row>
-    <row r="51" spans="1:86">
-      <c r="A51" s="35"/>
+    <row r="51" spans="1:98">
+      <c r="A51" s="53"/>
       <c r="B51" s="31" t="s">
         <v>22</v>
       </c>
@@ -6118,9 +6818,21 @@
       <c r="CF51" s="33"/>
       <c r="CG51" s="33"/>
       <c r="CH51" s="33"/>
+      <c r="CI51" s="33"/>
+      <c r="CJ51" s="33"/>
+      <c r="CK51" s="33"/>
+      <c r="CL51" s="33"/>
+      <c r="CM51" s="33"/>
+      <c r="CN51" s="33"/>
+      <c r="CO51" s="33"/>
+      <c r="CP51" s="33"/>
+      <c r="CQ51" s="33"/>
+      <c r="CR51" s="33"/>
+      <c r="CS51" s="33"/>
+      <c r="CT51" s="33"/>
     </row>
-    <row r="52" spans="1:86">
-      <c r="A52" s="36"/>
+    <row r="52" spans="1:98">
+      <c r="A52" s="54"/>
       <c r="B52" s="31" t="s">
         <v>23</v>
       </c>
@@ -6208,9 +6920,21 @@
       <c r="CF52" s="33"/>
       <c r="CG52" s="33"/>
       <c r="CH52" s="33"/>
+      <c r="CI52" s="33"/>
+      <c r="CJ52" s="33"/>
+      <c r="CK52" s="33"/>
+      <c r="CL52" s="33"/>
+      <c r="CM52" s="33"/>
+      <c r="CN52" s="33"/>
+      <c r="CO52" s="33"/>
+      <c r="CP52" s="33"/>
+      <c r="CQ52" s="33"/>
+      <c r="CR52" s="33"/>
+      <c r="CS52" s="33"/>
+      <c r="CT52" s="33"/>
     </row>
-    <row r="53" spans="1:86">
-      <c r="A53" s="37"/>
+    <row r="53" spans="1:98">
+      <c r="A53" s="55"/>
       <c r="B53" s="31" t="s">
         <v>24</v>
       </c>
@@ -6298,9 +7022,21 @@
       <c r="CF53" s="33"/>
       <c r="CG53" s="33"/>
       <c r="CH53" s="33"/>
+      <c r="CI53" s="33"/>
+      <c r="CJ53" s="33"/>
+      <c r="CK53" s="33"/>
+      <c r="CL53" s="33"/>
+      <c r="CM53" s="33"/>
+      <c r="CN53" s="33"/>
+      <c r="CO53" s="33"/>
+      <c r="CP53" s="33"/>
+      <c r="CQ53" s="33"/>
+      <c r="CR53" s="33"/>
+      <c r="CS53" s="33"/>
+      <c r="CT53" s="33"/>
     </row>
-    <row r="54" spans="1:86">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:98">
+      <c r="A54" s="53"/>
       <c r="B54" s="31" t="s">
         <v>22</v>
       </c>
@@ -6388,9 +7124,21 @@
       <c r="CF54" s="33"/>
       <c r="CG54" s="33"/>
       <c r="CH54" s="33"/>
+      <c r="CI54" s="33"/>
+      <c r="CJ54" s="33"/>
+      <c r="CK54" s="33"/>
+      <c r="CL54" s="33"/>
+      <c r="CM54" s="33"/>
+      <c r="CN54" s="33"/>
+      <c r="CO54" s="33"/>
+      <c r="CP54" s="33"/>
+      <c r="CQ54" s="33"/>
+      <c r="CR54" s="33"/>
+      <c r="CS54" s="33"/>
+      <c r="CT54" s="33"/>
     </row>
-    <row r="55" spans="1:86">
-      <c r="A55" s="36"/>
+    <row r="55" spans="1:98">
+      <c r="A55" s="54"/>
       <c r="B55" s="31" t="s">
         <v>23</v>
       </c>
@@ -6478,9 +7226,21 @@
       <c r="CF55" s="33"/>
       <c r="CG55" s="33"/>
       <c r="CH55" s="33"/>
+      <c r="CI55" s="33"/>
+      <c r="CJ55" s="33"/>
+      <c r="CK55" s="33"/>
+      <c r="CL55" s="33"/>
+      <c r="CM55" s="33"/>
+      <c r="CN55" s="33"/>
+      <c r="CO55" s="33"/>
+      <c r="CP55" s="33"/>
+      <c r="CQ55" s="33"/>
+      <c r="CR55" s="33"/>
+      <c r="CS55" s="33"/>
+      <c r="CT55" s="33"/>
     </row>
-    <row r="56" spans="1:86">
-      <c r="A56" s="37"/>
+    <row r="56" spans="1:98">
+      <c r="A56" s="55"/>
       <c r="B56" s="31" t="s">
         <v>24</v>
       </c>
@@ -6568,9 +7328,21 @@
       <c r="CF56" s="33"/>
       <c r="CG56" s="33"/>
       <c r="CH56" s="33"/>
+      <c r="CI56" s="33"/>
+      <c r="CJ56" s="33"/>
+      <c r="CK56" s="33"/>
+      <c r="CL56" s="33"/>
+      <c r="CM56" s="33"/>
+      <c r="CN56" s="33"/>
+      <c r="CO56" s="33"/>
+      <c r="CP56" s="33"/>
+      <c r="CQ56" s="33"/>
+      <c r="CR56" s="33"/>
+      <c r="CS56" s="33"/>
+      <c r="CT56" s="33"/>
     </row>
-    <row r="57" spans="1:86">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:98">
+      <c r="A57" s="53"/>
       <c r="B57" s="31" t="s">
         <v>22</v>
       </c>
@@ -6658,9 +7430,21 @@
       <c r="CF57" s="33"/>
       <c r="CG57" s="33"/>
       <c r="CH57" s="33"/>
+      <c r="CI57" s="33"/>
+      <c r="CJ57" s="33"/>
+      <c r="CK57" s="33"/>
+      <c r="CL57" s="33"/>
+      <c r="CM57" s="33"/>
+      <c r="CN57" s="33"/>
+      <c r="CO57" s="33"/>
+      <c r="CP57" s="33"/>
+      <c r="CQ57" s="33"/>
+      <c r="CR57" s="33"/>
+      <c r="CS57" s="33"/>
+      <c r="CT57" s="33"/>
     </row>
-    <row r="58" spans="1:86">
-      <c r="A58" s="36"/>
+    <row r="58" spans="1:98">
+      <c r="A58" s="54"/>
       <c r="B58" s="31" t="s">
         <v>23</v>
       </c>
@@ -6748,9 +7532,21 @@
       <c r="CF58" s="33"/>
       <c r="CG58" s="33"/>
       <c r="CH58" s="33"/>
+      <c r="CI58" s="33"/>
+      <c r="CJ58" s="33"/>
+      <c r="CK58" s="33"/>
+      <c r="CL58" s="33"/>
+      <c r="CM58" s="33"/>
+      <c r="CN58" s="33"/>
+      <c r="CO58" s="33"/>
+      <c r="CP58" s="33"/>
+      <c r="CQ58" s="33"/>
+      <c r="CR58" s="33"/>
+      <c r="CS58" s="33"/>
+      <c r="CT58" s="33"/>
     </row>
-    <row r="59" spans="1:86">
-      <c r="A59" s="37"/>
+    <row r="59" spans="1:98">
+      <c r="A59" s="55"/>
       <c r="B59" s="31" t="s">
         <v>24</v>
       </c>
@@ -6838,9 +7634,21 @@
       <c r="CF59" s="33"/>
       <c r="CG59" s="33"/>
       <c r="CH59" s="33"/>
+      <c r="CI59" s="33"/>
+      <c r="CJ59" s="33"/>
+      <c r="CK59" s="33"/>
+      <c r="CL59" s="33"/>
+      <c r="CM59" s="33"/>
+      <c r="CN59" s="33"/>
+      <c r="CO59" s="33"/>
+      <c r="CP59" s="33"/>
+      <c r="CQ59" s="33"/>
+      <c r="CR59" s="33"/>
+      <c r="CS59" s="33"/>
+      <c r="CT59" s="33"/>
     </row>
-    <row r="60" spans="1:86">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:98">
+      <c r="A60" s="53"/>
       <c r="B60" s="31" t="s">
         <v>22</v>
       </c>
@@ -6928,9 +7736,21 @@
       <c r="CF60" s="33"/>
       <c r="CG60" s="33"/>
       <c r="CH60" s="33"/>
+      <c r="CI60" s="33"/>
+      <c r="CJ60" s="33"/>
+      <c r="CK60" s="33"/>
+      <c r="CL60" s="33"/>
+      <c r="CM60" s="33"/>
+      <c r="CN60" s="33"/>
+      <c r="CO60" s="33"/>
+      <c r="CP60" s="33"/>
+      <c r="CQ60" s="33"/>
+      <c r="CR60" s="33"/>
+      <c r="CS60" s="33"/>
+      <c r="CT60" s="33"/>
     </row>
-    <row r="61" spans="1:86">
-      <c r="A61" s="36"/>
+    <row r="61" spans="1:98">
+      <c r="A61" s="54"/>
       <c r="B61" s="31" t="s">
         <v>23</v>
       </c>
@@ -7018,9 +7838,21 @@
       <c r="CF61" s="33"/>
       <c r="CG61" s="33"/>
       <c r="CH61" s="33"/>
+      <c r="CI61" s="33"/>
+      <c r="CJ61" s="33"/>
+      <c r="CK61" s="33"/>
+      <c r="CL61" s="33"/>
+      <c r="CM61" s="33"/>
+      <c r="CN61" s="33"/>
+      <c r="CO61" s="33"/>
+      <c r="CP61" s="33"/>
+      <c r="CQ61" s="33"/>
+      <c r="CR61" s="33"/>
+      <c r="CS61" s="33"/>
+      <c r="CT61" s="33"/>
     </row>
-    <row r="62" spans="1:86">
-      <c r="A62" s="37"/>
+    <row r="62" spans="1:98">
+      <c r="A62" s="55"/>
       <c r="B62" s="31" t="s">
         <v>24</v>
       </c>
@@ -7108,25 +7940,30 @@
       <c r="CF62" s="33"/>
       <c r="CG62" s="33"/>
       <c r="CH62" s="33"/>
+      <c r="CI62" s="33"/>
+      <c r="CJ62" s="33"/>
+      <c r="CK62" s="33"/>
+      <c r="CL62" s="33"/>
+      <c r="CM62" s="33"/>
+      <c r="CN62" s="33"/>
+      <c r="CO62" s="33"/>
+      <c r="CP62" s="33"/>
+      <c r="CQ62" s="33"/>
+      <c r="CR62" s="33"/>
+      <c r="CS62" s="33"/>
+      <c r="CT62" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="AA1:AL1"/>
-    <mergeCell ref="AY1:BJ1"/>
-    <mergeCell ref="BK1:BV1"/>
-    <mergeCell ref="BW1:CH1"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="O3:Z3"/>
-    <mergeCell ref="AA3:AL3"/>
-    <mergeCell ref="AM3:AX3"/>
-    <mergeCell ref="AY3:BJ3"/>
-    <mergeCell ref="BK3:BV3"/>
-    <mergeCell ref="BW3:CH3"/>
-    <mergeCell ref="AM1:AX1"/>
+  <mergeCells count="37">
+    <mergeCell ref="CI1:CT1"/>
+    <mergeCell ref="CI3:CT3"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -7139,13 +7976,22 @@
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="AY1:BJ1"/>
+    <mergeCell ref="BK1:BV1"/>
+    <mergeCell ref="BW1:CH1"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="O3:Z3"/>
+    <mergeCell ref="AA3:AL3"/>
+    <mergeCell ref="AM3:AX3"/>
+    <mergeCell ref="AY3:BJ3"/>
+    <mergeCell ref="BK3:BV3"/>
+    <mergeCell ref="BW3:CH3"/>
+    <mergeCell ref="AM1:AX1"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="AA1:AL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7153,126 +7999,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69324FB2-87F3-4E13-878E-249A70AA2992}">
-  <dimension ref="A1:CH62"/>
+  <dimension ref="A1:CT62"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A14"/>
+    <sheetView topLeftCell="BL1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CI1" sqref="CI1:CT1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86">
+    <row r="1" spans="1:98">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="43" t="s">
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="44" t="s">
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="38" t="s">
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="39" t="s">
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="39"/>
-      <c r="BM1" s="39"/>
-      <c r="BN1" s="39"/>
-      <c r="BO1" s="39"/>
-      <c r="BP1" s="39"/>
-      <c r="BQ1" s="39"/>
-      <c r="BR1" s="39"/>
-      <c r="BS1" s="39"/>
-      <c r="BT1" s="39"/>
-      <c r="BU1" s="39"/>
-      <c r="BV1" s="39"/>
-      <c r="BW1" s="40" t="s">
+      <c r="BL1" s="50"/>
+      <c r="BM1" s="50"/>
+      <c r="BN1" s="50"/>
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="50"/>
+      <c r="BQ1" s="50"/>
+      <c r="BR1" s="50"/>
+      <c r="BS1" s="50"/>
+      <c r="BT1" s="50"/>
+      <c r="BU1" s="50"/>
+      <c r="BV1" s="50"/>
+      <c r="BW1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="BX1" s="40"/>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
-      <c r="CD1" s="40"/>
-      <c r="CE1" s="40"/>
-      <c r="CF1" s="40"/>
-      <c r="CG1" s="40"/>
-      <c r="CH1" s="40"/>
+      <c r="BX1" s="51"/>
+      <c r="BY1" s="51"/>
+      <c r="BZ1" s="51"/>
+      <c r="CA1" s="51"/>
+      <c r="CB1" s="51"/>
+      <c r="CC1" s="51"/>
+      <c r="CD1" s="51"/>
+      <c r="CE1" s="51"/>
+      <c r="CF1" s="51"/>
+      <c r="CG1" s="51"/>
+      <c r="CH1" s="51"/>
+      <c r="CI1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ1" s="56"/>
+      <c r="CK1" s="56"/>
+      <c r="CL1" s="56"/>
+      <c r="CM1" s="56"/>
+      <c r="CN1" s="56"/>
+      <c r="CO1" s="56"/>
+      <c r="CP1" s="56"/>
+      <c r="CQ1" s="56"/>
+      <c r="CR1" s="56"/>
+      <c r="CS1" s="56"/>
+      <c r="CT1" s="56"/>
     </row>
-    <row r="2" spans="1:86">
+    <row r="2" spans="1:98">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="34">
@@ -7527,110 +8387,160 @@
       <c r="CH2" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="CI2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CJ2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CK2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CL2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CM2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CO2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CQ2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CR2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CS2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CT2" s="57" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:86" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:98" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="43" t="s">
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="44" t="s">
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="38" t="s">
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-      <c r="BB3" s="38"/>
-      <c r="BC3" s="38"/>
-      <c r="BD3" s="38"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="38"/>
-      <c r="BH3" s="38"/>
-      <c r="BI3" s="38"/>
-      <c r="BJ3" s="38"/>
-      <c r="BK3" s="39" t="s">
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="BL3" s="39"/>
-      <c r="BM3" s="39"/>
-      <c r="BN3" s="39"/>
-      <c r="BO3" s="39"/>
-      <c r="BP3" s="39"/>
-      <c r="BQ3" s="39"/>
-      <c r="BR3" s="39"/>
-      <c r="BS3" s="39"/>
-      <c r="BT3" s="39"/>
-      <c r="BU3" s="39"/>
-      <c r="BV3" s="39"/>
-      <c r="BW3" s="40" t="s">
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="50"/>
+      <c r="BO3" s="50"/>
+      <c r="BP3" s="50"/>
+      <c r="BQ3" s="50"/>
+      <c r="BR3" s="50"/>
+      <c r="BS3" s="50"/>
+      <c r="BT3" s="50"/>
+      <c r="BU3" s="50"/>
+      <c r="BV3" s="50"/>
+      <c r="BW3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="BX3" s="40"/>
-      <c r="BY3" s="40"/>
-      <c r="BZ3" s="40"/>
-      <c r="CA3" s="40"/>
-      <c r="CB3" s="40"/>
-      <c r="CC3" s="40"/>
-      <c r="CD3" s="40"/>
-      <c r="CE3" s="40"/>
-      <c r="CF3" s="40"/>
-      <c r="CG3" s="40"/>
-      <c r="CH3" s="40"/>
+      <c r="BX3" s="51"/>
+      <c r="BY3" s="51"/>
+      <c r="BZ3" s="51"/>
+      <c r="CA3" s="51"/>
+      <c r="CB3" s="51"/>
+      <c r="CC3" s="51"/>
+      <c r="CD3" s="51"/>
+      <c r="CE3" s="51"/>
+      <c r="CF3" s="51"/>
+      <c r="CG3" s="51"/>
+      <c r="CH3" s="51"/>
+      <c r="CI3" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ3" s="56"/>
+      <c r="CK3" s="56"/>
+      <c r="CL3" s="56"/>
+      <c r="CM3" s="56"/>
+      <c r="CN3" s="56"/>
+      <c r="CO3" s="56"/>
+      <c r="CP3" s="56"/>
+      <c r="CQ3" s="56"/>
+      <c r="CR3" s="56"/>
+      <c r="CS3" s="56"/>
+      <c r="CT3" s="56"/>
     </row>
-    <row r="4" spans="1:86" s="9" customFormat="1">
+    <row r="4" spans="1:98" s="9" customFormat="1">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="2">
@@ -7885,8 +8795,44 @@
       <c r="CH4" s="16">
         <v>12</v>
       </c>
+      <c r="CI4" s="57">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="58">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="58">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="58">
+        <v>4</v>
+      </c>
+      <c r="CM4" s="58">
+        <v>5</v>
+      </c>
+      <c r="CN4" s="58">
+        <v>6</v>
+      </c>
+      <c r="CO4" s="58">
+        <v>7</v>
+      </c>
+      <c r="CP4" s="58">
+        <v>8</v>
+      </c>
+      <c r="CQ4" s="58">
+        <v>9</v>
+      </c>
+      <c r="CR4" s="58">
+        <v>10</v>
+      </c>
+      <c r="CS4" s="58">
+        <v>11</v>
+      </c>
+      <c r="CT4" s="58">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:86" s="9" customFormat="1">
+    <row r="5" spans="1:98" s="9" customFormat="1">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="17" t="s">
@@ -8141,9 +9087,45 @@
       <c r="CH5" s="30" t="s">
         <v>21</v>
       </c>
+      <c r="CI5" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ5" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="CL5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM5" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN5" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="CO5" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="CP5" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="CQ5" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="CR5" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="CS5" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="CT5" s="60" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:86" ht="15.75">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:98">
+      <c r="A6" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -8233,9 +9215,21 @@
       <c r="CF6" s="33"/>
       <c r="CG6" s="33"/>
       <c r="CH6" s="33"/>
+      <c r="CI6" s="33"/>
+      <c r="CJ6" s="33"/>
+      <c r="CK6" s="33"/>
+      <c r="CL6" s="33"/>
+      <c r="CM6" s="33"/>
+      <c r="CN6" s="33"/>
+      <c r="CO6" s="33"/>
+      <c r="CP6" s="33"/>
+      <c r="CQ6" s="33"/>
+      <c r="CR6" s="33"/>
+      <c r="CS6" s="33"/>
+      <c r="CT6" s="33"/>
     </row>
-    <row r="7" spans="1:86" ht="15.75">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:98">
+      <c r="A7" s="54"/>
       <c r="B7" s="31" t="s">
         <v>23</v>
       </c>
@@ -8323,9 +9317,21 @@
       <c r="CF7" s="33"/>
       <c r="CG7" s="33"/>
       <c r="CH7" s="33"/>
+      <c r="CI7" s="33"/>
+      <c r="CJ7" s="33"/>
+      <c r="CK7" s="33"/>
+      <c r="CL7" s="33"/>
+      <c r="CM7" s="33"/>
+      <c r="CN7" s="33"/>
+      <c r="CO7" s="33"/>
+      <c r="CP7" s="33"/>
+      <c r="CQ7" s="33"/>
+      <c r="CR7" s="33"/>
+      <c r="CS7" s="33"/>
+      <c r="CT7" s="33"/>
     </row>
-    <row r="8" spans="1:86" ht="15.75">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:98">
+      <c r="A8" s="55"/>
       <c r="B8" s="31" t="s">
         <v>24</v>
       </c>
@@ -8413,9 +9419,21 @@
       <c r="CF8" s="33"/>
       <c r="CG8" s="33"/>
       <c r="CH8" s="33"/>
+      <c r="CI8" s="33"/>
+      <c r="CJ8" s="33"/>
+      <c r="CK8" s="33"/>
+      <c r="CL8" s="33"/>
+      <c r="CM8" s="33"/>
+      <c r="CN8" s="33"/>
+      <c r="CO8" s="33"/>
+      <c r="CP8" s="33"/>
+      <c r="CQ8" s="33"/>
+      <c r="CR8" s="33"/>
+      <c r="CS8" s="33"/>
+      <c r="CT8" s="33"/>
     </row>
-    <row r="9" spans="1:86" ht="15.75">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:98">
+      <c r="A9" s="53"/>
       <c r="B9" s="31" t="s">
         <v>22</v>
       </c>
@@ -8503,9 +9521,21 @@
       <c r="CF9" s="33"/>
       <c r="CG9" s="33"/>
       <c r="CH9" s="33"/>
+      <c r="CI9" s="33"/>
+      <c r="CJ9" s="33"/>
+      <c r="CK9" s="33"/>
+      <c r="CL9" s="33"/>
+      <c r="CM9" s="33"/>
+      <c r="CN9" s="33"/>
+      <c r="CO9" s="33"/>
+      <c r="CP9" s="33"/>
+      <c r="CQ9" s="33"/>
+      <c r="CR9" s="33"/>
+      <c r="CS9" s="33"/>
+      <c r="CT9" s="33"/>
     </row>
-    <row r="10" spans="1:86" ht="15.75">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:98">
+      <c r="A10" s="54"/>
       <c r="B10" s="31" t="s">
         <v>23</v>
       </c>
@@ -8593,9 +9623,21 @@
       <c r="CF10" s="33"/>
       <c r="CG10" s="33"/>
       <c r="CH10" s="33"/>
+      <c r="CI10" s="33"/>
+      <c r="CJ10" s="33"/>
+      <c r="CK10" s="33"/>
+      <c r="CL10" s="33"/>
+      <c r="CM10" s="33"/>
+      <c r="CN10" s="33"/>
+      <c r="CO10" s="33"/>
+      <c r="CP10" s="33"/>
+      <c r="CQ10" s="33"/>
+      <c r="CR10" s="33"/>
+      <c r="CS10" s="33"/>
+      <c r="CT10" s="33"/>
     </row>
-    <row r="11" spans="1:86" ht="15.75">
-      <c r="A11" s="37"/>
+    <row r="11" spans="1:98">
+      <c r="A11" s="55"/>
       <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
@@ -8683,9 +9725,21 @@
       <c r="CF11" s="33"/>
       <c r="CG11" s="33"/>
       <c r="CH11" s="33"/>
+      <c r="CI11" s="33"/>
+      <c r="CJ11" s="33"/>
+      <c r="CK11" s="33"/>
+      <c r="CL11" s="33"/>
+      <c r="CM11" s="33"/>
+      <c r="CN11" s="33"/>
+      <c r="CO11" s="33"/>
+      <c r="CP11" s="33"/>
+      <c r="CQ11" s="33"/>
+      <c r="CR11" s="33"/>
+      <c r="CS11" s="33"/>
+      <c r="CT11" s="33"/>
     </row>
-    <row r="12" spans="1:86" ht="15.75">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:98">
+      <c r="A12" s="53"/>
       <c r="B12" s="31" t="s">
         <v>22</v>
       </c>
@@ -8773,9 +9827,21 @@
       <c r="CF12" s="33"/>
       <c r="CG12" s="33"/>
       <c r="CH12" s="33"/>
+      <c r="CI12" s="33"/>
+      <c r="CJ12" s="33"/>
+      <c r="CK12" s="33"/>
+      <c r="CL12" s="33"/>
+      <c r="CM12" s="33"/>
+      <c r="CN12" s="33"/>
+      <c r="CO12" s="33"/>
+      <c r="CP12" s="33"/>
+      <c r="CQ12" s="33"/>
+      <c r="CR12" s="33"/>
+      <c r="CS12" s="33"/>
+      <c r="CT12" s="33"/>
     </row>
-    <row r="13" spans="1:86" ht="15.75">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:98">
+      <c r="A13" s="54"/>
       <c r="B13" s="31" t="s">
         <v>23</v>
       </c>
@@ -8863,9 +9929,21 @@
       <c r="CF13" s="33"/>
       <c r="CG13" s="33"/>
       <c r="CH13" s="33"/>
+      <c r="CI13" s="33"/>
+      <c r="CJ13" s="33"/>
+      <c r="CK13" s="33"/>
+      <c r="CL13" s="33"/>
+      <c r="CM13" s="33"/>
+      <c r="CN13" s="33"/>
+      <c r="CO13" s="33"/>
+      <c r="CP13" s="33"/>
+      <c r="CQ13" s="33"/>
+      <c r="CR13" s="33"/>
+      <c r="CS13" s="33"/>
+      <c r="CT13" s="33"/>
     </row>
-    <row r="14" spans="1:86" ht="15.75">
-      <c r="A14" s="37"/>
+    <row r="14" spans="1:98">
+      <c r="A14" s="55"/>
       <c r="B14" s="31" t="s">
         <v>24</v>
       </c>
@@ -8953,9 +10031,21 @@
       <c r="CF14" s="33"/>
       <c r="CG14" s="33"/>
       <c r="CH14" s="33"/>
+      <c r="CI14" s="33"/>
+      <c r="CJ14" s="33"/>
+      <c r="CK14" s="33"/>
+      <c r="CL14" s="33"/>
+      <c r="CM14" s="33"/>
+      <c r="CN14" s="33"/>
+      <c r="CO14" s="33"/>
+      <c r="CP14" s="33"/>
+      <c r="CQ14" s="33"/>
+      <c r="CR14" s="33"/>
+      <c r="CS14" s="33"/>
+      <c r="CT14" s="33"/>
     </row>
-    <row r="15" spans="1:86" ht="15.75">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:98">
+      <c r="A15" s="53"/>
       <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
@@ -9043,9 +10133,21 @@
       <c r="CF15" s="33"/>
       <c r="CG15" s="33"/>
       <c r="CH15" s="33"/>
+      <c r="CI15" s="33"/>
+      <c r="CJ15" s="33"/>
+      <c r="CK15" s="33"/>
+      <c r="CL15" s="33"/>
+      <c r="CM15" s="33"/>
+      <c r="CN15" s="33"/>
+      <c r="CO15" s="33"/>
+      <c r="CP15" s="33"/>
+      <c r="CQ15" s="33"/>
+      <c r="CR15" s="33"/>
+      <c r="CS15" s="33"/>
+      <c r="CT15" s="33"/>
     </row>
-    <row r="16" spans="1:86" ht="15.75">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:98">
+      <c r="A16" s="54"/>
       <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
@@ -9133,9 +10235,21 @@
       <c r="CF16" s="33"/>
       <c r="CG16" s="33"/>
       <c r="CH16" s="33"/>
+      <c r="CI16" s="33"/>
+      <c r="CJ16" s="33"/>
+      <c r="CK16" s="33"/>
+      <c r="CL16" s="33"/>
+      <c r="CM16" s="33"/>
+      <c r="CN16" s="33"/>
+      <c r="CO16" s="33"/>
+      <c r="CP16" s="33"/>
+      <c r="CQ16" s="33"/>
+      <c r="CR16" s="33"/>
+      <c r="CS16" s="33"/>
+      <c r="CT16" s="33"/>
     </row>
-    <row r="17" spans="1:86" ht="15.75">
-      <c r="A17" s="37"/>
+    <row r="17" spans="1:98">
+      <c r="A17" s="55"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
       </c>
@@ -9223,9 +10337,21 @@
       <c r="CF17" s="33"/>
       <c r="CG17" s="33"/>
       <c r="CH17" s="33"/>
+      <c r="CI17" s="33"/>
+      <c r="CJ17" s="33"/>
+      <c r="CK17" s="33"/>
+      <c r="CL17" s="33"/>
+      <c r="CM17" s="33"/>
+      <c r="CN17" s="33"/>
+      <c r="CO17" s="33"/>
+      <c r="CP17" s="33"/>
+      <c r="CQ17" s="33"/>
+      <c r="CR17" s="33"/>
+      <c r="CS17" s="33"/>
+      <c r="CT17" s="33"/>
     </row>
-    <row r="18" spans="1:86">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:98">
+      <c r="A18" s="53"/>
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
@@ -9313,9 +10439,21 @@
       <c r="CF18" s="33"/>
       <c r="CG18" s="33"/>
       <c r="CH18" s="33"/>
+      <c r="CI18" s="33"/>
+      <c r="CJ18" s="33"/>
+      <c r="CK18" s="33"/>
+      <c r="CL18" s="33"/>
+      <c r="CM18" s="33"/>
+      <c r="CN18" s="33"/>
+      <c r="CO18" s="33"/>
+      <c r="CP18" s="33"/>
+      <c r="CQ18" s="33"/>
+      <c r="CR18" s="33"/>
+      <c r="CS18" s="33"/>
+      <c r="CT18" s="33"/>
     </row>
-    <row r="19" spans="1:86">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:98">
+      <c r="A19" s="54"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
@@ -9403,9 +10541,21 @@
       <c r="CF19" s="33"/>
       <c r="CG19" s="33"/>
       <c r="CH19" s="33"/>
+      <c r="CI19" s="33"/>
+      <c r="CJ19" s="33"/>
+      <c r="CK19" s="33"/>
+      <c r="CL19" s="33"/>
+      <c r="CM19" s="33"/>
+      <c r="CN19" s="33"/>
+      <c r="CO19" s="33"/>
+      <c r="CP19" s="33"/>
+      <c r="CQ19" s="33"/>
+      <c r="CR19" s="33"/>
+      <c r="CS19" s="33"/>
+      <c r="CT19" s="33"/>
     </row>
-    <row r="20" spans="1:86">
-      <c r="A20" s="37"/>
+    <row r="20" spans="1:98">
+      <c r="A20" s="55"/>
       <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
@@ -9493,9 +10643,21 @@
       <c r="CF20" s="33"/>
       <c r="CG20" s="33"/>
       <c r="CH20" s="33"/>
+      <c r="CI20" s="33"/>
+      <c r="CJ20" s="33"/>
+      <c r="CK20" s="33"/>
+      <c r="CL20" s="33"/>
+      <c r="CM20" s="33"/>
+      <c r="CN20" s="33"/>
+      <c r="CO20" s="33"/>
+      <c r="CP20" s="33"/>
+      <c r="CQ20" s="33"/>
+      <c r="CR20" s="33"/>
+      <c r="CS20" s="33"/>
+      <c r="CT20" s="33"/>
     </row>
-    <row r="21" spans="1:86">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:98">
+      <c r="A21" s="53"/>
       <c r="B21" s="31" t="s">
         <v>22</v>
       </c>
@@ -9583,9 +10745,21 @@
       <c r="CF21" s="33"/>
       <c r="CG21" s="33"/>
       <c r="CH21" s="33"/>
+      <c r="CI21" s="33"/>
+      <c r="CJ21" s="33"/>
+      <c r="CK21" s="33"/>
+      <c r="CL21" s="33"/>
+      <c r="CM21" s="33"/>
+      <c r="CN21" s="33"/>
+      <c r="CO21" s="33"/>
+      <c r="CP21" s="33"/>
+      <c r="CQ21" s="33"/>
+      <c r="CR21" s="33"/>
+      <c r="CS21" s="33"/>
+      <c r="CT21" s="33"/>
     </row>
-    <row r="22" spans="1:86">
-      <c r="A22" s="36"/>
+    <row r="22" spans="1:98">
+      <c r="A22" s="54"/>
       <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
@@ -9673,9 +10847,21 @@
       <c r="CF22" s="33"/>
       <c r="CG22" s="33"/>
       <c r="CH22" s="33"/>
+      <c r="CI22" s="33"/>
+      <c r="CJ22" s="33"/>
+      <c r="CK22" s="33"/>
+      <c r="CL22" s="33"/>
+      <c r="CM22" s="33"/>
+      <c r="CN22" s="33"/>
+      <c r="CO22" s="33"/>
+      <c r="CP22" s="33"/>
+      <c r="CQ22" s="33"/>
+      <c r="CR22" s="33"/>
+      <c r="CS22" s="33"/>
+      <c r="CT22" s="33"/>
     </row>
-    <row r="23" spans="1:86">
-      <c r="A23" s="37"/>
+    <row r="23" spans="1:98">
+      <c r="A23" s="55"/>
       <c r="B23" s="31" t="s">
         <v>24</v>
       </c>
@@ -9763,9 +10949,21 @@
       <c r="CF23" s="33"/>
       <c r="CG23" s="33"/>
       <c r="CH23" s="33"/>
+      <c r="CI23" s="33"/>
+      <c r="CJ23" s="33"/>
+      <c r="CK23" s="33"/>
+      <c r="CL23" s="33"/>
+      <c r="CM23" s="33"/>
+      <c r="CN23" s="33"/>
+      <c r="CO23" s="33"/>
+      <c r="CP23" s="33"/>
+      <c r="CQ23" s="33"/>
+      <c r="CR23" s="33"/>
+      <c r="CS23" s="33"/>
+      <c r="CT23" s="33"/>
     </row>
-    <row r="24" spans="1:86">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:98">
+      <c r="A24" s="53"/>
       <c r="B24" s="31" t="s">
         <v>22</v>
       </c>
@@ -9853,9 +11051,21 @@
       <c r="CF24" s="33"/>
       <c r="CG24" s="33"/>
       <c r="CH24" s="33"/>
+      <c r="CI24" s="33"/>
+      <c r="CJ24" s="33"/>
+      <c r="CK24" s="33"/>
+      <c r="CL24" s="33"/>
+      <c r="CM24" s="33"/>
+      <c r="CN24" s="33"/>
+      <c r="CO24" s="33"/>
+      <c r="CP24" s="33"/>
+      <c r="CQ24" s="33"/>
+      <c r="CR24" s="33"/>
+      <c r="CS24" s="33"/>
+      <c r="CT24" s="33"/>
     </row>
-    <row r="25" spans="1:86">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:98">
+      <c r="A25" s="54"/>
       <c r="B25" s="31" t="s">
         <v>23</v>
       </c>
@@ -9943,9 +11153,21 @@
       <c r="CF25" s="33"/>
       <c r="CG25" s="33"/>
       <c r="CH25" s="33"/>
+      <c r="CI25" s="33"/>
+      <c r="CJ25" s="33"/>
+      <c r="CK25" s="33"/>
+      <c r="CL25" s="33"/>
+      <c r="CM25" s="33"/>
+      <c r="CN25" s="33"/>
+      <c r="CO25" s="33"/>
+      <c r="CP25" s="33"/>
+      <c r="CQ25" s="33"/>
+      <c r="CR25" s="33"/>
+      <c r="CS25" s="33"/>
+      <c r="CT25" s="33"/>
     </row>
-    <row r="26" spans="1:86">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:98">
+      <c r="A26" s="55"/>
       <c r="B26" s="31" t="s">
         <v>24</v>
       </c>
@@ -10033,9 +11255,21 @@
       <c r="CF26" s="33"/>
       <c r="CG26" s="33"/>
       <c r="CH26" s="33"/>
+      <c r="CI26" s="33"/>
+      <c r="CJ26" s="33"/>
+      <c r="CK26" s="33"/>
+      <c r="CL26" s="33"/>
+      <c r="CM26" s="33"/>
+      <c r="CN26" s="33"/>
+      <c r="CO26" s="33"/>
+      <c r="CP26" s="33"/>
+      <c r="CQ26" s="33"/>
+      <c r="CR26" s="33"/>
+      <c r="CS26" s="33"/>
+      <c r="CT26" s="33"/>
     </row>
-    <row r="27" spans="1:86">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:98">
+      <c r="A27" s="53"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
       </c>
@@ -10123,9 +11357,21 @@
       <c r="CF27" s="33"/>
       <c r="CG27" s="33"/>
       <c r="CH27" s="33"/>
+      <c r="CI27" s="33"/>
+      <c r="CJ27" s="33"/>
+      <c r="CK27" s="33"/>
+      <c r="CL27" s="33"/>
+      <c r="CM27" s="33"/>
+      <c r="CN27" s="33"/>
+      <c r="CO27" s="33"/>
+      <c r="CP27" s="33"/>
+      <c r="CQ27" s="33"/>
+      <c r="CR27" s="33"/>
+      <c r="CS27" s="33"/>
+      <c r="CT27" s="33"/>
     </row>
-    <row r="28" spans="1:86">
-      <c r="A28" s="36"/>
+    <row r="28" spans="1:98">
+      <c r="A28" s="54"/>
       <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
@@ -10213,9 +11459,21 @@
       <c r="CF28" s="33"/>
       <c r="CG28" s="33"/>
       <c r="CH28" s="33"/>
+      <c r="CI28" s="33"/>
+      <c r="CJ28" s="33"/>
+      <c r="CK28" s="33"/>
+      <c r="CL28" s="33"/>
+      <c r="CM28" s="33"/>
+      <c r="CN28" s="33"/>
+      <c r="CO28" s="33"/>
+      <c r="CP28" s="33"/>
+      <c r="CQ28" s="33"/>
+      <c r="CR28" s="33"/>
+      <c r="CS28" s="33"/>
+      <c r="CT28" s="33"/>
     </row>
-    <row r="29" spans="1:86">
-      <c r="A29" s="37"/>
+    <row r="29" spans="1:98">
+      <c r="A29" s="55"/>
       <c r="B29" s="31" t="s">
         <v>24</v>
       </c>
@@ -10303,9 +11561,21 @@
       <c r="CF29" s="33"/>
       <c r="CG29" s="33"/>
       <c r="CH29" s="33"/>
+      <c r="CI29" s="33"/>
+      <c r="CJ29" s="33"/>
+      <c r="CK29" s="33"/>
+      <c r="CL29" s="33"/>
+      <c r="CM29" s="33"/>
+      <c r="CN29" s="33"/>
+      <c r="CO29" s="33"/>
+      <c r="CP29" s="33"/>
+      <c r="CQ29" s="33"/>
+      <c r="CR29" s="33"/>
+      <c r="CS29" s="33"/>
+      <c r="CT29" s="33"/>
     </row>
-    <row r="30" spans="1:86">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:98">
+      <c r="A30" s="53"/>
       <c r="B30" s="31" t="s">
         <v>22</v>
       </c>
@@ -10393,9 +11663,21 @@
       <c r="CF30" s="33"/>
       <c r="CG30" s="33"/>
       <c r="CH30" s="33"/>
+      <c r="CI30" s="33"/>
+      <c r="CJ30" s="33"/>
+      <c r="CK30" s="33"/>
+      <c r="CL30" s="33"/>
+      <c r="CM30" s="33"/>
+      <c r="CN30" s="33"/>
+      <c r="CO30" s="33"/>
+      <c r="CP30" s="33"/>
+      <c r="CQ30" s="33"/>
+      <c r="CR30" s="33"/>
+      <c r="CS30" s="33"/>
+      <c r="CT30" s="33"/>
     </row>
-    <row r="31" spans="1:86">
-      <c r="A31" s="36"/>
+    <row r="31" spans="1:98">
+      <c r="A31" s="54"/>
       <c r="B31" s="31" t="s">
         <v>23</v>
       </c>
@@ -10483,9 +11765,21 @@
       <c r="CF31" s="33"/>
       <c r="CG31" s="33"/>
       <c r="CH31" s="33"/>
+      <c r="CI31" s="33"/>
+      <c r="CJ31" s="33"/>
+      <c r="CK31" s="33"/>
+      <c r="CL31" s="33"/>
+      <c r="CM31" s="33"/>
+      <c r="CN31" s="33"/>
+      <c r="CO31" s="33"/>
+      <c r="CP31" s="33"/>
+      <c r="CQ31" s="33"/>
+      <c r="CR31" s="33"/>
+      <c r="CS31" s="33"/>
+      <c r="CT31" s="33"/>
     </row>
-    <row r="32" spans="1:86">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:98">
+      <c r="A32" s="55"/>
       <c r="B32" s="31" t="s">
         <v>24</v>
       </c>
@@ -10573,9 +11867,21 @@
       <c r="CF32" s="33"/>
       <c r="CG32" s="33"/>
       <c r="CH32" s="33"/>
+      <c r="CI32" s="33"/>
+      <c r="CJ32" s="33"/>
+      <c r="CK32" s="33"/>
+      <c r="CL32" s="33"/>
+      <c r="CM32" s="33"/>
+      <c r="CN32" s="33"/>
+      <c r="CO32" s="33"/>
+      <c r="CP32" s="33"/>
+      <c r="CQ32" s="33"/>
+      <c r="CR32" s="33"/>
+      <c r="CS32" s="33"/>
+      <c r="CT32" s="33"/>
     </row>
-    <row r="33" spans="1:86">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:98">
+      <c r="A33" s="53"/>
       <c r="B33" s="31" t="s">
         <v>22</v>
       </c>
@@ -10663,9 +11969,21 @@
       <c r="CF33" s="33"/>
       <c r="CG33" s="33"/>
       <c r="CH33" s="33"/>
+      <c r="CI33" s="33"/>
+      <c r="CJ33" s="33"/>
+      <c r="CK33" s="33"/>
+      <c r="CL33" s="33"/>
+      <c r="CM33" s="33"/>
+      <c r="CN33" s="33"/>
+      <c r="CO33" s="33"/>
+      <c r="CP33" s="33"/>
+      <c r="CQ33" s="33"/>
+      <c r="CR33" s="33"/>
+      <c r="CS33" s="33"/>
+      <c r="CT33" s="33"/>
     </row>
-    <row r="34" spans="1:86">
-      <c r="A34" s="36"/>
+    <row r="34" spans="1:98">
+      <c r="A34" s="54"/>
       <c r="B34" s="31" t="s">
         <v>23</v>
       </c>
@@ -10753,9 +12071,21 @@
       <c r="CF34" s="33"/>
       <c r="CG34" s="33"/>
       <c r="CH34" s="33"/>
+      <c r="CI34" s="33"/>
+      <c r="CJ34" s="33"/>
+      <c r="CK34" s="33"/>
+      <c r="CL34" s="33"/>
+      <c r="CM34" s="33"/>
+      <c r="CN34" s="33"/>
+      <c r="CO34" s="33"/>
+      <c r="CP34" s="33"/>
+      <c r="CQ34" s="33"/>
+      <c r="CR34" s="33"/>
+      <c r="CS34" s="33"/>
+      <c r="CT34" s="33"/>
     </row>
-    <row r="35" spans="1:86">
-      <c r="A35" s="37"/>
+    <row r="35" spans="1:98">
+      <c r="A35" s="55"/>
       <c r="B35" s="31" t="s">
         <v>24</v>
       </c>
@@ -10843,9 +12173,21 @@
       <c r="CF35" s="33"/>
       <c r="CG35" s="33"/>
       <c r="CH35" s="33"/>
+      <c r="CI35" s="33"/>
+      <c r="CJ35" s="33"/>
+      <c r="CK35" s="33"/>
+      <c r="CL35" s="33"/>
+      <c r="CM35" s="33"/>
+      <c r="CN35" s="33"/>
+      <c r="CO35" s="33"/>
+      <c r="CP35" s="33"/>
+      <c r="CQ35" s="33"/>
+      <c r="CR35" s="33"/>
+      <c r="CS35" s="33"/>
+      <c r="CT35" s="33"/>
     </row>
-    <row r="36" spans="1:86">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:98">
+      <c r="A36" s="53"/>
       <c r="B36" s="31" t="s">
         <v>22</v>
       </c>
@@ -10933,9 +12275,21 @@
       <c r="CF36" s="33"/>
       <c r="CG36" s="33"/>
       <c r="CH36" s="33"/>
+      <c r="CI36" s="33"/>
+      <c r="CJ36" s="33"/>
+      <c r="CK36" s="33"/>
+      <c r="CL36" s="33"/>
+      <c r="CM36" s="33"/>
+      <c r="CN36" s="33"/>
+      <c r="CO36" s="33"/>
+      <c r="CP36" s="33"/>
+      <c r="CQ36" s="33"/>
+      <c r="CR36" s="33"/>
+      <c r="CS36" s="33"/>
+      <c r="CT36" s="33"/>
     </row>
-    <row r="37" spans="1:86">
-      <c r="A37" s="36"/>
+    <row r="37" spans="1:98">
+      <c r="A37" s="54"/>
       <c r="B37" s="31" t="s">
         <v>23</v>
       </c>
@@ -11023,9 +12377,21 @@
       <c r="CF37" s="33"/>
       <c r="CG37" s="33"/>
       <c r="CH37" s="33"/>
+      <c r="CI37" s="33"/>
+      <c r="CJ37" s="33"/>
+      <c r="CK37" s="33"/>
+      <c r="CL37" s="33"/>
+      <c r="CM37" s="33"/>
+      <c r="CN37" s="33"/>
+      <c r="CO37" s="33"/>
+      <c r="CP37" s="33"/>
+      <c r="CQ37" s="33"/>
+      <c r="CR37" s="33"/>
+      <c r="CS37" s="33"/>
+      <c r="CT37" s="33"/>
     </row>
-    <row r="38" spans="1:86">
-      <c r="A38" s="37"/>
+    <row r="38" spans="1:98">
+      <c r="A38" s="55"/>
       <c r="B38" s="31" t="s">
         <v>24</v>
       </c>
@@ -11113,9 +12479,21 @@
       <c r="CF38" s="33"/>
       <c r="CG38" s="33"/>
       <c r="CH38" s="33"/>
+      <c r="CI38" s="33"/>
+      <c r="CJ38" s="33"/>
+      <c r="CK38" s="33"/>
+      <c r="CL38" s="33"/>
+      <c r="CM38" s="33"/>
+      <c r="CN38" s="33"/>
+      <c r="CO38" s="33"/>
+      <c r="CP38" s="33"/>
+      <c r="CQ38" s="33"/>
+      <c r="CR38" s="33"/>
+      <c r="CS38" s="33"/>
+      <c r="CT38" s="33"/>
     </row>
-    <row r="39" spans="1:86">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:98">
+      <c r="A39" s="53"/>
       <c r="B39" s="31" t="s">
         <v>22</v>
       </c>
@@ -11203,9 +12581,21 @@
       <c r="CF39" s="33"/>
       <c r="CG39" s="33"/>
       <c r="CH39" s="33"/>
+      <c r="CI39" s="33"/>
+      <c r="CJ39" s="33"/>
+      <c r="CK39" s="33"/>
+      <c r="CL39" s="33"/>
+      <c r="CM39" s="33"/>
+      <c r="CN39" s="33"/>
+      <c r="CO39" s="33"/>
+      <c r="CP39" s="33"/>
+      <c r="CQ39" s="33"/>
+      <c r="CR39" s="33"/>
+      <c r="CS39" s="33"/>
+      <c r="CT39" s="33"/>
     </row>
-    <row r="40" spans="1:86">
-      <c r="A40" s="36"/>
+    <row r="40" spans="1:98">
+      <c r="A40" s="54"/>
       <c r="B40" s="31" t="s">
         <v>23</v>
       </c>
@@ -11293,9 +12683,21 @@
       <c r="CF40" s="33"/>
       <c r="CG40" s="33"/>
       <c r="CH40" s="33"/>
+      <c r="CI40" s="33"/>
+      <c r="CJ40" s="33"/>
+      <c r="CK40" s="33"/>
+      <c r="CL40" s="33"/>
+      <c r="CM40" s="33"/>
+      <c r="CN40" s="33"/>
+      <c r="CO40" s="33"/>
+      <c r="CP40" s="33"/>
+      <c r="CQ40" s="33"/>
+      <c r="CR40" s="33"/>
+      <c r="CS40" s="33"/>
+      <c r="CT40" s="33"/>
     </row>
-    <row r="41" spans="1:86">
-      <c r="A41" s="37"/>
+    <row r="41" spans="1:98">
+      <c r="A41" s="55"/>
       <c r="B41" s="31" t="s">
         <v>24</v>
       </c>
@@ -11383,9 +12785,21 @@
       <c r="CF41" s="33"/>
       <c r="CG41" s="33"/>
       <c r="CH41" s="33"/>
+      <c r="CI41" s="33"/>
+      <c r="CJ41" s="33"/>
+      <c r="CK41" s="33"/>
+      <c r="CL41" s="33"/>
+      <c r="CM41" s="33"/>
+      <c r="CN41" s="33"/>
+      <c r="CO41" s="33"/>
+      <c r="CP41" s="33"/>
+      <c r="CQ41" s="33"/>
+      <c r="CR41" s="33"/>
+      <c r="CS41" s="33"/>
+      <c r="CT41" s="33"/>
     </row>
-    <row r="42" spans="1:86">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:98">
+      <c r="A42" s="53"/>
       <c r="B42" s="31" t="s">
         <v>22</v>
       </c>
@@ -11473,9 +12887,21 @@
       <c r="CF42" s="33"/>
       <c r="CG42" s="33"/>
       <c r="CH42" s="33"/>
+      <c r="CI42" s="33"/>
+      <c r="CJ42" s="33"/>
+      <c r="CK42" s="33"/>
+      <c r="CL42" s="33"/>
+      <c r="CM42" s="33"/>
+      <c r="CN42" s="33"/>
+      <c r="CO42" s="33"/>
+      <c r="CP42" s="33"/>
+      <c r="CQ42" s="33"/>
+      <c r="CR42" s="33"/>
+      <c r="CS42" s="33"/>
+      <c r="CT42" s="33"/>
     </row>
-    <row r="43" spans="1:86">
-      <c r="A43" s="36"/>
+    <row r="43" spans="1:98">
+      <c r="A43" s="54"/>
       <c r="B43" s="31" t="s">
         <v>23</v>
       </c>
@@ -11563,9 +12989,21 @@
       <c r="CF43" s="33"/>
       <c r="CG43" s="33"/>
       <c r="CH43" s="33"/>
+      <c r="CI43" s="33"/>
+      <c r="CJ43" s="33"/>
+      <c r="CK43" s="33"/>
+      <c r="CL43" s="33"/>
+      <c r="CM43" s="33"/>
+      <c r="CN43" s="33"/>
+      <c r="CO43" s="33"/>
+      <c r="CP43" s="33"/>
+      <c r="CQ43" s="33"/>
+      <c r="CR43" s="33"/>
+      <c r="CS43" s="33"/>
+      <c r="CT43" s="33"/>
     </row>
-    <row r="44" spans="1:86">
-      <c r="A44" s="37"/>
+    <row r="44" spans="1:98">
+      <c r="A44" s="55"/>
       <c r="B44" s="31" t="s">
         <v>24</v>
       </c>
@@ -11653,9 +13091,21 @@
       <c r="CF44" s="33"/>
       <c r="CG44" s="33"/>
       <c r="CH44" s="33"/>
+      <c r="CI44" s="33"/>
+      <c r="CJ44" s="33"/>
+      <c r="CK44" s="33"/>
+      <c r="CL44" s="33"/>
+      <c r="CM44" s="33"/>
+      <c r="CN44" s="33"/>
+      <c r="CO44" s="33"/>
+      <c r="CP44" s="33"/>
+      <c r="CQ44" s="33"/>
+      <c r="CR44" s="33"/>
+      <c r="CS44" s="33"/>
+      <c r="CT44" s="33"/>
     </row>
-    <row r="45" spans="1:86">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:98">
+      <c r="A45" s="53"/>
       <c r="B45" s="31" t="s">
         <v>22</v>
       </c>
@@ -11743,9 +13193,21 @@
       <c r="CF45" s="33"/>
       <c r="CG45" s="33"/>
       <c r="CH45" s="33"/>
+      <c r="CI45" s="33"/>
+      <c r="CJ45" s="33"/>
+      <c r="CK45" s="33"/>
+      <c r="CL45" s="33"/>
+      <c r="CM45" s="33"/>
+      <c r="CN45" s="33"/>
+      <c r="CO45" s="33"/>
+      <c r="CP45" s="33"/>
+      <c r="CQ45" s="33"/>
+      <c r="CR45" s="33"/>
+      <c r="CS45" s="33"/>
+      <c r="CT45" s="33"/>
     </row>
-    <row r="46" spans="1:86">
-      <c r="A46" s="36"/>
+    <row r="46" spans="1:98">
+      <c r="A46" s="54"/>
       <c r="B46" s="31" t="s">
         <v>23</v>
       </c>
@@ -11833,9 +13295,21 @@
       <c r="CF46" s="33"/>
       <c r="CG46" s="33"/>
       <c r="CH46" s="33"/>
+      <c r="CI46" s="33"/>
+      <c r="CJ46" s="33"/>
+      <c r="CK46" s="33"/>
+      <c r="CL46" s="33"/>
+      <c r="CM46" s="33"/>
+      <c r="CN46" s="33"/>
+      <c r="CO46" s="33"/>
+      <c r="CP46" s="33"/>
+      <c r="CQ46" s="33"/>
+      <c r="CR46" s="33"/>
+      <c r="CS46" s="33"/>
+      <c r="CT46" s="33"/>
     </row>
-    <row r="47" spans="1:86">
-      <c r="A47" s="37"/>
+    <row r="47" spans="1:98">
+      <c r="A47" s="55"/>
       <c r="B47" s="31" t="s">
         <v>24</v>
       </c>
@@ -11923,9 +13397,21 @@
       <c r="CF47" s="33"/>
       <c r="CG47" s="33"/>
       <c r="CH47" s="33"/>
+      <c r="CI47" s="33"/>
+      <c r="CJ47" s="33"/>
+      <c r="CK47" s="33"/>
+      <c r="CL47" s="33"/>
+      <c r="CM47" s="33"/>
+      <c r="CN47" s="33"/>
+      <c r="CO47" s="33"/>
+      <c r="CP47" s="33"/>
+      <c r="CQ47" s="33"/>
+      <c r="CR47" s="33"/>
+      <c r="CS47" s="33"/>
+      <c r="CT47" s="33"/>
     </row>
-    <row r="48" spans="1:86">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:98">
+      <c r="A48" s="53"/>
       <c r="B48" s="31" t="s">
         <v>22</v>
       </c>
@@ -12013,9 +13499,21 @@
       <c r="CF48" s="33"/>
       <c r="CG48" s="33"/>
       <c r="CH48" s="33"/>
+      <c r="CI48" s="33"/>
+      <c r="CJ48" s="33"/>
+      <c r="CK48" s="33"/>
+      <c r="CL48" s="33"/>
+      <c r="CM48" s="33"/>
+      <c r="CN48" s="33"/>
+      <c r="CO48" s="33"/>
+      <c r="CP48" s="33"/>
+      <c r="CQ48" s="33"/>
+      <c r="CR48" s="33"/>
+      <c r="CS48" s="33"/>
+      <c r="CT48" s="33"/>
     </row>
-    <row r="49" spans="1:86">
-      <c r="A49" s="36"/>
+    <row r="49" spans="1:98">
+      <c r="A49" s="54"/>
       <c r="B49" s="31" t="s">
         <v>23</v>
       </c>
@@ -12103,9 +13601,21 @@
       <c r="CF49" s="33"/>
       <c r="CG49" s="33"/>
       <c r="CH49" s="33"/>
+      <c r="CI49" s="33"/>
+      <c r="CJ49" s="33"/>
+      <c r="CK49" s="33"/>
+      <c r="CL49" s="33"/>
+      <c r="CM49" s="33"/>
+      <c r="CN49" s="33"/>
+      <c r="CO49" s="33"/>
+      <c r="CP49" s="33"/>
+      <c r="CQ49" s="33"/>
+      <c r="CR49" s="33"/>
+      <c r="CS49" s="33"/>
+      <c r="CT49" s="33"/>
     </row>
-    <row r="50" spans="1:86">
-      <c r="A50" s="37"/>
+    <row r="50" spans="1:98">
+      <c r="A50" s="55"/>
       <c r="B50" s="31" t="s">
         <v>24</v>
       </c>
@@ -12193,9 +13703,21 @@
       <c r="CF50" s="33"/>
       <c r="CG50" s="33"/>
       <c r="CH50" s="33"/>
+      <c r="CI50" s="33"/>
+      <c r="CJ50" s="33"/>
+      <c r="CK50" s="33"/>
+      <c r="CL50" s="33"/>
+      <c r="CM50" s="33"/>
+      <c r="CN50" s="33"/>
+      <c r="CO50" s="33"/>
+      <c r="CP50" s="33"/>
+      <c r="CQ50" s="33"/>
+      <c r="CR50" s="33"/>
+      <c r="CS50" s="33"/>
+      <c r="CT50" s="33"/>
     </row>
-    <row r="51" spans="1:86">
-      <c r="A51" s="35"/>
+    <row r="51" spans="1:98">
+      <c r="A51" s="53"/>
       <c r="B51" s="31" t="s">
         <v>22</v>
       </c>
@@ -12283,9 +13805,21 @@
       <c r="CF51" s="33"/>
       <c r="CG51" s="33"/>
       <c r="CH51" s="33"/>
+      <c r="CI51" s="33"/>
+      <c r="CJ51" s="33"/>
+      <c r="CK51" s="33"/>
+      <c r="CL51" s="33"/>
+      <c r="CM51" s="33"/>
+      <c r="CN51" s="33"/>
+      <c r="CO51" s="33"/>
+      <c r="CP51" s="33"/>
+      <c r="CQ51" s="33"/>
+      <c r="CR51" s="33"/>
+      <c r="CS51" s="33"/>
+      <c r="CT51" s="33"/>
     </row>
-    <row r="52" spans="1:86">
-      <c r="A52" s="36"/>
+    <row r="52" spans="1:98">
+      <c r="A52" s="54"/>
       <c r="B52" s="31" t="s">
         <v>23</v>
       </c>
@@ -12373,9 +13907,21 @@
       <c r="CF52" s="33"/>
       <c r="CG52" s="33"/>
       <c r="CH52" s="33"/>
+      <c r="CI52" s="33"/>
+      <c r="CJ52" s="33"/>
+      <c r="CK52" s="33"/>
+      <c r="CL52" s="33"/>
+      <c r="CM52" s="33"/>
+      <c r="CN52" s="33"/>
+      <c r="CO52" s="33"/>
+      <c r="CP52" s="33"/>
+      <c r="CQ52" s="33"/>
+      <c r="CR52" s="33"/>
+      <c r="CS52" s="33"/>
+      <c r="CT52" s="33"/>
     </row>
-    <row r="53" spans="1:86">
-      <c r="A53" s="37"/>
+    <row r="53" spans="1:98">
+      <c r="A53" s="55"/>
       <c r="B53" s="31" t="s">
         <v>24</v>
       </c>
@@ -12463,9 +14009,21 @@
       <c r="CF53" s="33"/>
       <c r="CG53" s="33"/>
       <c r="CH53" s="33"/>
+      <c r="CI53" s="33"/>
+      <c r="CJ53" s="33"/>
+      <c r="CK53" s="33"/>
+      <c r="CL53" s="33"/>
+      <c r="CM53" s="33"/>
+      <c r="CN53" s="33"/>
+      <c r="CO53" s="33"/>
+      <c r="CP53" s="33"/>
+      <c r="CQ53" s="33"/>
+      <c r="CR53" s="33"/>
+      <c r="CS53" s="33"/>
+      <c r="CT53" s="33"/>
     </row>
-    <row r="54" spans="1:86">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:98">
+      <c r="A54" s="53"/>
       <c r="B54" s="31" t="s">
         <v>22</v>
       </c>
@@ -12553,9 +14111,21 @@
       <c r="CF54" s="33"/>
       <c r="CG54" s="33"/>
       <c r="CH54" s="33"/>
+      <c r="CI54" s="33"/>
+      <c r="CJ54" s="33"/>
+      <c r="CK54" s="33"/>
+      <c r="CL54" s="33"/>
+      <c r="CM54" s="33"/>
+      <c r="CN54" s="33"/>
+      <c r="CO54" s="33"/>
+      <c r="CP54" s="33"/>
+      <c r="CQ54" s="33"/>
+      <c r="CR54" s="33"/>
+      <c r="CS54" s="33"/>
+      <c r="CT54" s="33"/>
     </row>
-    <row r="55" spans="1:86">
-      <c r="A55" s="36"/>
+    <row r="55" spans="1:98">
+      <c r="A55" s="54"/>
       <c r="B55" s="31" t="s">
         <v>23</v>
       </c>
@@ -12643,9 +14213,21 @@
       <c r="CF55" s="33"/>
       <c r="CG55" s="33"/>
       <c r="CH55" s="33"/>
+      <c r="CI55" s="33"/>
+      <c r="CJ55" s="33"/>
+      <c r="CK55" s="33"/>
+      <c r="CL55" s="33"/>
+      <c r="CM55" s="33"/>
+      <c r="CN55" s="33"/>
+      <c r="CO55" s="33"/>
+      <c r="CP55" s="33"/>
+      <c r="CQ55" s="33"/>
+      <c r="CR55" s="33"/>
+      <c r="CS55" s="33"/>
+      <c r="CT55" s="33"/>
     </row>
-    <row r="56" spans="1:86">
-      <c r="A56" s="37"/>
+    <row r="56" spans="1:98">
+      <c r="A56" s="55"/>
       <c r="B56" s="31" t="s">
         <v>24</v>
       </c>
@@ -12733,9 +14315,21 @@
       <c r="CF56" s="33"/>
       <c r="CG56" s="33"/>
       <c r="CH56" s="33"/>
+      <c r="CI56" s="33"/>
+      <c r="CJ56" s="33"/>
+      <c r="CK56" s="33"/>
+      <c r="CL56" s="33"/>
+      <c r="CM56" s="33"/>
+      <c r="CN56" s="33"/>
+      <c r="CO56" s="33"/>
+      <c r="CP56" s="33"/>
+      <c r="CQ56" s="33"/>
+      <c r="CR56" s="33"/>
+      <c r="CS56" s="33"/>
+      <c r="CT56" s="33"/>
     </row>
-    <row r="57" spans="1:86">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:98">
+      <c r="A57" s="53"/>
       <c r="B57" s="31" t="s">
         <v>22</v>
       </c>
@@ -12823,9 +14417,21 @@
       <c r="CF57" s="33"/>
       <c r="CG57" s="33"/>
       <c r="CH57" s="33"/>
+      <c r="CI57" s="33"/>
+      <c r="CJ57" s="33"/>
+      <c r="CK57" s="33"/>
+      <c r="CL57" s="33"/>
+      <c r="CM57" s="33"/>
+      <c r="CN57" s="33"/>
+      <c r="CO57" s="33"/>
+      <c r="CP57" s="33"/>
+      <c r="CQ57" s="33"/>
+      <c r="CR57" s="33"/>
+      <c r="CS57" s="33"/>
+      <c r="CT57" s="33"/>
     </row>
-    <row r="58" spans="1:86">
-      <c r="A58" s="36"/>
+    <row r="58" spans="1:98">
+      <c r="A58" s="54"/>
       <c r="B58" s="31" t="s">
         <v>23</v>
       </c>
@@ -12913,9 +14519,21 @@
       <c r="CF58" s="33"/>
       <c r="CG58" s="33"/>
       <c r="CH58" s="33"/>
+      <c r="CI58" s="33"/>
+      <c r="CJ58" s="33"/>
+      <c r="CK58" s="33"/>
+      <c r="CL58" s="33"/>
+      <c r="CM58" s="33"/>
+      <c r="CN58" s="33"/>
+      <c r="CO58" s="33"/>
+      <c r="CP58" s="33"/>
+      <c r="CQ58" s="33"/>
+      <c r="CR58" s="33"/>
+      <c r="CS58" s="33"/>
+      <c r="CT58" s="33"/>
     </row>
-    <row r="59" spans="1:86">
-      <c r="A59" s="37"/>
+    <row r="59" spans="1:98">
+      <c r="A59" s="55"/>
       <c r="B59" s="31" t="s">
         <v>24</v>
       </c>
@@ -13003,9 +14621,21 @@
       <c r="CF59" s="33"/>
       <c r="CG59" s="33"/>
       <c r="CH59" s="33"/>
+      <c r="CI59" s="33"/>
+      <c r="CJ59" s="33"/>
+      <c r="CK59" s="33"/>
+      <c r="CL59" s="33"/>
+      <c r="CM59" s="33"/>
+      <c r="CN59" s="33"/>
+      <c r="CO59" s="33"/>
+      <c r="CP59" s="33"/>
+      <c r="CQ59" s="33"/>
+      <c r="CR59" s="33"/>
+      <c r="CS59" s="33"/>
+      <c r="CT59" s="33"/>
     </row>
-    <row r="60" spans="1:86">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:98">
+      <c r="A60" s="53"/>
       <c r="B60" s="31" t="s">
         <v>22</v>
       </c>
@@ -13093,9 +14723,21 @@
       <c r="CF60" s="33"/>
       <c r="CG60" s="33"/>
       <c r="CH60" s="33"/>
+      <c r="CI60" s="33"/>
+      <c r="CJ60" s="33"/>
+      <c r="CK60" s="33"/>
+      <c r="CL60" s="33"/>
+      <c r="CM60" s="33"/>
+      <c r="CN60" s="33"/>
+      <c r="CO60" s="33"/>
+      <c r="CP60" s="33"/>
+      <c r="CQ60" s="33"/>
+      <c r="CR60" s="33"/>
+      <c r="CS60" s="33"/>
+      <c r="CT60" s="33"/>
     </row>
-    <row r="61" spans="1:86">
-      <c r="A61" s="36"/>
+    <row r="61" spans="1:98">
+      <c r="A61" s="54"/>
       <c r="B61" s="31" t="s">
         <v>23</v>
       </c>
@@ -13183,9 +14825,21 @@
       <c r="CF61" s="33"/>
       <c r="CG61" s="33"/>
       <c r="CH61" s="33"/>
+      <c r="CI61" s="33"/>
+      <c r="CJ61" s="33"/>
+      <c r="CK61" s="33"/>
+      <c r="CL61" s="33"/>
+      <c r="CM61" s="33"/>
+      <c r="CN61" s="33"/>
+      <c r="CO61" s="33"/>
+      <c r="CP61" s="33"/>
+      <c r="CQ61" s="33"/>
+      <c r="CR61" s="33"/>
+      <c r="CS61" s="33"/>
+      <c r="CT61" s="33"/>
     </row>
-    <row r="62" spans="1:86">
-      <c r="A62" s="37"/>
+    <row r="62" spans="1:98">
+      <c r="A62" s="55"/>
       <c r="B62" s="31" t="s">
         <v>24</v>
       </c>
@@ -13273,16 +14927,39 @@
       <c r="CF62" s="33"/>
       <c r="CG62" s="33"/>
       <c r="CH62" s="33"/>
+      <c r="CI62" s="33"/>
+      <c r="CJ62" s="33"/>
+      <c r="CK62" s="33"/>
+      <c r="CL62" s="33"/>
+      <c r="CM62" s="33"/>
+      <c r="CN62" s="33"/>
+      <c r="CO62" s="33"/>
+      <c r="CP62" s="33"/>
+      <c r="CQ62" s="33"/>
+      <c r="CR62" s="33"/>
+      <c r="CS62" s="33"/>
+      <c r="CT62" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
+  <mergeCells count="37">
+    <mergeCell ref="CI1:CT1"/>
+    <mergeCell ref="CI3:CT3"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="AA1:AL1"/>
+    <mergeCell ref="AY1:BJ1"/>
+    <mergeCell ref="BK1:BV1"/>
+    <mergeCell ref="BW1:CH1"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="O3:Z3"/>
+    <mergeCell ref="AA3:AL3"/>
+    <mergeCell ref="AM3:AX3"/>
+    <mergeCell ref="AY3:BJ3"/>
+    <mergeCell ref="BK3:BV3"/>
+    <mergeCell ref="BW3:CH3"/>
+    <mergeCell ref="AM1:AX1"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -13295,22 +14972,13 @@
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="AY1:BJ1"/>
-    <mergeCell ref="BK1:BV1"/>
-    <mergeCell ref="BW1:CH1"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="O3:Z3"/>
-    <mergeCell ref="AA3:AL3"/>
-    <mergeCell ref="AM3:AX3"/>
-    <mergeCell ref="AY3:BJ3"/>
-    <mergeCell ref="BK3:BV3"/>
-    <mergeCell ref="BW3:CH3"/>
-    <mergeCell ref="AM1:AX1"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="AA1:AL1"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -13321,126 +14989,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDFB917-6F1C-492B-9094-7E004BFA20C9}">
-  <dimension ref="A1:CH62"/>
+  <dimension ref="A1:CT62"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CN18" sqref="CN18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86">
+    <row r="1" spans="1:98">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="43" t="s">
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="44" t="s">
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="38" t="s">
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="39" t="s">
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="39"/>
-      <c r="BM1" s="39"/>
-      <c r="BN1" s="39"/>
-      <c r="BO1" s="39"/>
-      <c r="BP1" s="39"/>
-      <c r="BQ1" s="39"/>
-      <c r="BR1" s="39"/>
-      <c r="BS1" s="39"/>
-      <c r="BT1" s="39"/>
-      <c r="BU1" s="39"/>
-      <c r="BV1" s="39"/>
-      <c r="BW1" s="40" t="s">
+      <c r="BL1" s="50"/>
+      <c r="BM1" s="50"/>
+      <c r="BN1" s="50"/>
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="50"/>
+      <c r="BQ1" s="50"/>
+      <c r="BR1" s="50"/>
+      <c r="BS1" s="50"/>
+      <c r="BT1" s="50"/>
+      <c r="BU1" s="50"/>
+      <c r="BV1" s="50"/>
+      <c r="BW1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="BX1" s="40"/>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
-      <c r="CD1" s="40"/>
-      <c r="CE1" s="40"/>
-      <c r="CF1" s="40"/>
-      <c r="CG1" s="40"/>
-      <c r="CH1" s="40"/>
+      <c r="BX1" s="51"/>
+      <c r="BY1" s="51"/>
+      <c r="BZ1" s="51"/>
+      <c r="CA1" s="51"/>
+      <c r="CB1" s="51"/>
+      <c r="CC1" s="51"/>
+      <c r="CD1" s="51"/>
+      <c r="CE1" s="51"/>
+      <c r="CF1" s="51"/>
+      <c r="CG1" s="51"/>
+      <c r="CH1" s="51"/>
+      <c r="CI1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ1" s="56"/>
+      <c r="CK1" s="56"/>
+      <c r="CL1" s="56"/>
+      <c r="CM1" s="56"/>
+      <c r="CN1" s="56"/>
+      <c r="CO1" s="56"/>
+      <c r="CP1" s="56"/>
+      <c r="CQ1" s="56"/>
+      <c r="CR1" s="56"/>
+      <c r="CS1" s="56"/>
+      <c r="CT1" s="56"/>
     </row>
-    <row r="2" spans="1:86">
+    <row r="2" spans="1:98">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="34">
@@ -13695,110 +15377,160 @@
       <c r="CH2" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="CI2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CJ2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CK2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CL2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CM2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CO2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CQ2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CR2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CS2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="CT2" s="57" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:86" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:98" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="43" t="s">
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="44" t="s">
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="38" t="s">
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-      <c r="BB3" s="38"/>
-      <c r="BC3" s="38"/>
-      <c r="BD3" s="38"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="38"/>
-      <c r="BH3" s="38"/>
-      <c r="BI3" s="38"/>
-      <c r="BJ3" s="38"/>
-      <c r="BK3" s="39" t="s">
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="BL3" s="39"/>
-      <c r="BM3" s="39"/>
-      <c r="BN3" s="39"/>
-      <c r="BO3" s="39"/>
-      <c r="BP3" s="39"/>
-      <c r="BQ3" s="39"/>
-      <c r="BR3" s="39"/>
-      <c r="BS3" s="39"/>
-      <c r="BT3" s="39"/>
-      <c r="BU3" s="39"/>
-      <c r="BV3" s="39"/>
-      <c r="BW3" s="40" t="s">
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="50"/>
+      <c r="BO3" s="50"/>
+      <c r="BP3" s="50"/>
+      <c r="BQ3" s="50"/>
+      <c r="BR3" s="50"/>
+      <c r="BS3" s="50"/>
+      <c r="BT3" s="50"/>
+      <c r="BU3" s="50"/>
+      <c r="BV3" s="50"/>
+      <c r="BW3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="BX3" s="40"/>
-      <c r="BY3" s="40"/>
-      <c r="BZ3" s="40"/>
-      <c r="CA3" s="40"/>
-      <c r="CB3" s="40"/>
-      <c r="CC3" s="40"/>
-      <c r="CD3" s="40"/>
-      <c r="CE3" s="40"/>
-      <c r="CF3" s="40"/>
-      <c r="CG3" s="40"/>
-      <c r="CH3" s="40"/>
+      <c r="BX3" s="51"/>
+      <c r="BY3" s="51"/>
+      <c r="BZ3" s="51"/>
+      <c r="CA3" s="51"/>
+      <c r="CB3" s="51"/>
+      <c r="CC3" s="51"/>
+      <c r="CD3" s="51"/>
+      <c r="CE3" s="51"/>
+      <c r="CF3" s="51"/>
+      <c r="CG3" s="51"/>
+      <c r="CH3" s="51"/>
+      <c r="CI3" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ3" s="56"/>
+      <c r="CK3" s="56"/>
+      <c r="CL3" s="56"/>
+      <c r="CM3" s="56"/>
+      <c r="CN3" s="56"/>
+      <c r="CO3" s="56"/>
+      <c r="CP3" s="56"/>
+      <c r="CQ3" s="56"/>
+      <c r="CR3" s="56"/>
+      <c r="CS3" s="56"/>
+      <c r="CT3" s="56"/>
     </row>
-    <row r="4" spans="1:86" s="9" customFormat="1">
+    <row r="4" spans="1:98" s="9" customFormat="1">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="2">
@@ -14053,8 +15785,44 @@
       <c r="CH4" s="16">
         <v>12</v>
       </c>
+      <c r="CI4" s="57">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="58">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="58">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="58">
+        <v>4</v>
+      </c>
+      <c r="CM4" s="58">
+        <v>5</v>
+      </c>
+      <c r="CN4" s="58">
+        <v>6</v>
+      </c>
+      <c r="CO4" s="58">
+        <v>7</v>
+      </c>
+      <c r="CP4" s="58">
+        <v>8</v>
+      </c>
+      <c r="CQ4" s="58">
+        <v>9</v>
+      </c>
+      <c r="CR4" s="58">
+        <v>10</v>
+      </c>
+      <c r="CS4" s="58">
+        <v>11</v>
+      </c>
+      <c r="CT4" s="58">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:86" s="9" customFormat="1">
+    <row r="5" spans="1:98" s="9" customFormat="1">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="17" t="s">
@@ -14309,9 +16077,45 @@
       <c r="CH5" s="30" t="s">
         <v>21</v>
       </c>
+      <c r="CI5" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ5" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="CL5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM5" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN5" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="CO5" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="CP5" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="CQ5" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="CR5" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="CS5" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="CT5" s="60" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:86" ht="15.75">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:98">
+      <c r="A6" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -14401,9 +16205,21 @@
       <c r="CF6" s="33"/>
       <c r="CG6" s="33"/>
       <c r="CH6" s="33"/>
+      <c r="CI6" s="33"/>
+      <c r="CJ6" s="33"/>
+      <c r="CK6" s="33"/>
+      <c r="CL6" s="33"/>
+      <c r="CM6" s="33"/>
+      <c r="CN6" s="33"/>
+      <c r="CO6" s="33"/>
+      <c r="CP6" s="33"/>
+      <c r="CQ6" s="33"/>
+      <c r="CR6" s="33"/>
+      <c r="CS6" s="33"/>
+      <c r="CT6" s="33"/>
     </row>
-    <row r="7" spans="1:86" ht="15.75">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:98">
+      <c r="A7" s="54"/>
       <c r="B7" s="31" t="s">
         <v>23</v>
       </c>
@@ -14491,9 +16307,21 @@
       <c r="CF7" s="33"/>
       <c r="CG7" s="33"/>
       <c r="CH7" s="33"/>
+      <c r="CI7" s="33"/>
+      <c r="CJ7" s="33"/>
+      <c r="CK7" s="33"/>
+      <c r="CL7" s="33"/>
+      <c r="CM7" s="33"/>
+      <c r="CN7" s="33"/>
+      <c r="CO7" s="33"/>
+      <c r="CP7" s="33"/>
+      <c r="CQ7" s="33"/>
+      <c r="CR7" s="33"/>
+      <c r="CS7" s="33"/>
+      <c r="CT7" s="33"/>
     </row>
-    <row r="8" spans="1:86" ht="15.75">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:98">
+      <c r="A8" s="55"/>
       <c r="B8" s="31" t="s">
         <v>24</v>
       </c>
@@ -14581,9 +16409,21 @@
       <c r="CF8" s="33"/>
       <c r="CG8" s="33"/>
       <c r="CH8" s="33"/>
+      <c r="CI8" s="33"/>
+      <c r="CJ8" s="33"/>
+      <c r="CK8" s="33"/>
+      <c r="CL8" s="33"/>
+      <c r="CM8" s="33"/>
+      <c r="CN8" s="33"/>
+      <c r="CO8" s="33"/>
+      <c r="CP8" s="33"/>
+      <c r="CQ8" s="33"/>
+      <c r="CR8" s="33"/>
+      <c r="CS8" s="33"/>
+      <c r="CT8" s="33"/>
     </row>
-    <row r="9" spans="1:86" ht="15.75">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:98">
+      <c r="A9" s="53"/>
       <c r="B9" s="31" t="s">
         <v>22</v>
       </c>
@@ -14671,9 +16511,21 @@
       <c r="CF9" s="33"/>
       <c r="CG9" s="33"/>
       <c r="CH9" s="33"/>
+      <c r="CI9" s="33"/>
+      <c r="CJ9" s="33"/>
+      <c r="CK9" s="33"/>
+      <c r="CL9" s="33"/>
+      <c r="CM9" s="33"/>
+      <c r="CN9" s="33"/>
+      <c r="CO9" s="33"/>
+      <c r="CP9" s="33"/>
+      <c r="CQ9" s="33"/>
+      <c r="CR9" s="33"/>
+      <c r="CS9" s="33"/>
+      <c r="CT9" s="33"/>
     </row>
-    <row r="10" spans="1:86" ht="15.75">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:98">
+      <c r="A10" s="54"/>
       <c r="B10" s="31" t="s">
         <v>23</v>
       </c>
@@ -14761,9 +16613,21 @@
       <c r="CF10" s="33"/>
       <c r="CG10" s="33"/>
       <c r="CH10" s="33"/>
+      <c r="CI10" s="33"/>
+      <c r="CJ10" s="33"/>
+      <c r="CK10" s="33"/>
+      <c r="CL10" s="33"/>
+      <c r="CM10" s="33"/>
+      <c r="CN10" s="33"/>
+      <c r="CO10" s="33"/>
+      <c r="CP10" s="33"/>
+      <c r="CQ10" s="33"/>
+      <c r="CR10" s="33"/>
+      <c r="CS10" s="33"/>
+      <c r="CT10" s="33"/>
     </row>
-    <row r="11" spans="1:86" ht="15.75">
-      <c r="A11" s="37"/>
+    <row r="11" spans="1:98">
+      <c r="A11" s="55"/>
       <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
@@ -14851,9 +16715,21 @@
       <c r="CF11" s="33"/>
       <c r="CG11" s="33"/>
       <c r="CH11" s="33"/>
+      <c r="CI11" s="33"/>
+      <c r="CJ11" s="33"/>
+      <c r="CK11" s="33"/>
+      <c r="CL11" s="33"/>
+      <c r="CM11" s="33"/>
+      <c r="CN11" s="33"/>
+      <c r="CO11" s="33"/>
+      <c r="CP11" s="33"/>
+      <c r="CQ11" s="33"/>
+      <c r="CR11" s="33"/>
+      <c r="CS11" s="33"/>
+      <c r="CT11" s="33"/>
     </row>
-    <row r="12" spans="1:86" ht="15.75">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:98">
+      <c r="A12" s="53"/>
       <c r="B12" s="31" t="s">
         <v>22</v>
       </c>
@@ -14941,9 +16817,21 @@
       <c r="CF12" s="33"/>
       <c r="CG12" s="33"/>
       <c r="CH12" s="33"/>
+      <c r="CI12" s="33"/>
+      <c r="CJ12" s="33"/>
+      <c r="CK12" s="33"/>
+      <c r="CL12" s="33"/>
+      <c r="CM12" s="33"/>
+      <c r="CN12" s="33"/>
+      <c r="CO12" s="33"/>
+      <c r="CP12" s="33"/>
+      <c r="CQ12" s="33"/>
+      <c r="CR12" s="33"/>
+      <c r="CS12" s="33"/>
+      <c r="CT12" s="33"/>
     </row>
-    <row r="13" spans="1:86" ht="15.75">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:98">
+      <c r="A13" s="54"/>
       <c r="B13" s="31" t="s">
         <v>23</v>
       </c>
@@ -15031,9 +16919,21 @@
       <c r="CF13" s="33"/>
       <c r="CG13" s="33"/>
       <c r="CH13" s="33"/>
+      <c r="CI13" s="33"/>
+      <c r="CJ13" s="33"/>
+      <c r="CK13" s="33"/>
+      <c r="CL13" s="33"/>
+      <c r="CM13" s="33"/>
+      <c r="CN13" s="33"/>
+      <c r="CO13" s="33"/>
+      <c r="CP13" s="33"/>
+      <c r="CQ13" s="33"/>
+      <c r="CR13" s="33"/>
+      <c r="CS13" s="33"/>
+      <c r="CT13" s="33"/>
     </row>
-    <row r="14" spans="1:86" ht="15.75">
-      <c r="A14" s="37"/>
+    <row r="14" spans="1:98">
+      <c r="A14" s="55"/>
       <c r="B14" s="31" t="s">
         <v>24</v>
       </c>
@@ -15121,9 +17021,21 @@
       <c r="CF14" s="33"/>
       <c r="CG14" s="33"/>
       <c r="CH14" s="33"/>
+      <c r="CI14" s="33"/>
+      <c r="CJ14" s="33"/>
+      <c r="CK14" s="33"/>
+      <c r="CL14" s="33"/>
+      <c r="CM14" s="33"/>
+      <c r="CN14" s="33"/>
+      <c r="CO14" s="33"/>
+      <c r="CP14" s="33"/>
+      <c r="CQ14" s="33"/>
+      <c r="CR14" s="33"/>
+      <c r="CS14" s="33"/>
+      <c r="CT14" s="33"/>
     </row>
-    <row r="15" spans="1:86" ht="15.75">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:98">
+      <c r="A15" s="53"/>
       <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
@@ -15211,9 +17123,21 @@
       <c r="CF15" s="33"/>
       <c r="CG15" s="33"/>
       <c r="CH15" s="33"/>
+      <c r="CI15" s="33"/>
+      <c r="CJ15" s="33"/>
+      <c r="CK15" s="33"/>
+      <c r="CL15" s="33"/>
+      <c r="CM15" s="33"/>
+      <c r="CN15" s="33"/>
+      <c r="CO15" s="33"/>
+      <c r="CP15" s="33"/>
+      <c r="CQ15" s="33"/>
+      <c r="CR15" s="33"/>
+      <c r="CS15" s="33"/>
+      <c r="CT15" s="33"/>
     </row>
-    <row r="16" spans="1:86" ht="15.75">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:98">
+      <c r="A16" s="54"/>
       <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
@@ -15301,9 +17225,21 @@
       <c r="CF16" s="33"/>
       <c r="CG16" s="33"/>
       <c r="CH16" s="33"/>
+      <c r="CI16" s="33"/>
+      <c r="CJ16" s="33"/>
+      <c r="CK16" s="33"/>
+      <c r="CL16" s="33"/>
+      <c r="CM16" s="33"/>
+      <c r="CN16" s="33"/>
+      <c r="CO16" s="33"/>
+      <c r="CP16" s="33"/>
+      <c r="CQ16" s="33"/>
+      <c r="CR16" s="33"/>
+      <c r="CS16" s="33"/>
+      <c r="CT16" s="33"/>
     </row>
-    <row r="17" spans="1:86" ht="15.75">
-      <c r="A17" s="37"/>
+    <row r="17" spans="1:98">
+      <c r="A17" s="55"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
       </c>
@@ -15391,9 +17327,21 @@
       <c r="CF17" s="33"/>
       <c r="CG17" s="33"/>
       <c r="CH17" s="33"/>
+      <c r="CI17" s="33"/>
+      <c r="CJ17" s="33"/>
+      <c r="CK17" s="33"/>
+      <c r="CL17" s="33"/>
+      <c r="CM17" s="33"/>
+      <c r="CN17" s="33"/>
+      <c r="CO17" s="33"/>
+      <c r="CP17" s="33"/>
+      <c r="CQ17" s="33"/>
+      <c r="CR17" s="33"/>
+      <c r="CS17" s="33"/>
+      <c r="CT17" s="33"/>
     </row>
-    <row r="18" spans="1:86">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:98">
+      <c r="A18" s="53"/>
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
@@ -15481,9 +17429,21 @@
       <c r="CF18" s="33"/>
       <c r="CG18" s="33"/>
       <c r="CH18" s="33"/>
+      <c r="CI18" s="33"/>
+      <c r="CJ18" s="33"/>
+      <c r="CK18" s="33"/>
+      <c r="CL18" s="33"/>
+      <c r="CM18" s="33"/>
+      <c r="CN18" s="33"/>
+      <c r="CO18" s="33"/>
+      <c r="CP18" s="33"/>
+      <c r="CQ18" s="33"/>
+      <c r="CR18" s="33"/>
+      <c r="CS18" s="33"/>
+      <c r="CT18" s="33"/>
     </row>
-    <row r="19" spans="1:86">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:98">
+      <c r="A19" s="54"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
@@ -15571,9 +17531,21 @@
       <c r="CF19" s="33"/>
       <c r="CG19" s="33"/>
       <c r="CH19" s="33"/>
+      <c r="CI19" s="33"/>
+      <c r="CJ19" s="33"/>
+      <c r="CK19" s="33"/>
+      <c r="CL19" s="33"/>
+      <c r="CM19" s="33"/>
+      <c r="CN19" s="33"/>
+      <c r="CO19" s="33"/>
+      <c r="CP19" s="33"/>
+      <c r="CQ19" s="33"/>
+      <c r="CR19" s="33"/>
+      <c r="CS19" s="33"/>
+      <c r="CT19" s="33"/>
     </row>
-    <row r="20" spans="1:86">
-      <c r="A20" s="37"/>
+    <row r="20" spans="1:98">
+      <c r="A20" s="55"/>
       <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
@@ -15661,9 +17633,21 @@
       <c r="CF20" s="33"/>
       <c r="CG20" s="33"/>
       <c r="CH20" s="33"/>
+      <c r="CI20" s="33"/>
+      <c r="CJ20" s="33"/>
+      <c r="CK20" s="33"/>
+      <c r="CL20" s="33"/>
+      <c r="CM20" s="33"/>
+      <c r="CN20" s="33"/>
+      <c r="CO20" s="33"/>
+      <c r="CP20" s="33"/>
+      <c r="CQ20" s="33"/>
+      <c r="CR20" s="33"/>
+      <c r="CS20" s="33"/>
+      <c r="CT20" s="33"/>
     </row>
-    <row r="21" spans="1:86">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:98">
+      <c r="A21" s="53"/>
       <c r="B21" s="31" t="s">
         <v>22</v>
       </c>
@@ -15751,9 +17735,21 @@
       <c r="CF21" s="33"/>
       <c r="CG21" s="33"/>
       <c r="CH21" s="33"/>
+      <c r="CI21" s="33"/>
+      <c r="CJ21" s="33"/>
+      <c r="CK21" s="33"/>
+      <c r="CL21" s="33"/>
+      <c r="CM21" s="33"/>
+      <c r="CN21" s="33"/>
+      <c r="CO21" s="33"/>
+      <c r="CP21" s="33"/>
+      <c r="CQ21" s="33"/>
+      <c r="CR21" s="33"/>
+      <c r="CS21" s="33"/>
+      <c r="CT21" s="33"/>
     </row>
-    <row r="22" spans="1:86">
-      <c r="A22" s="36"/>
+    <row r="22" spans="1:98">
+      <c r="A22" s="54"/>
       <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
@@ -15841,9 +17837,21 @@
       <c r="CF22" s="33"/>
       <c r="CG22" s="33"/>
       <c r="CH22" s="33"/>
+      <c r="CI22" s="33"/>
+      <c r="CJ22" s="33"/>
+      <c r="CK22" s="33"/>
+      <c r="CL22" s="33"/>
+      <c r="CM22" s="33"/>
+      <c r="CN22" s="33"/>
+      <c r="CO22" s="33"/>
+      <c r="CP22" s="33"/>
+      <c r="CQ22" s="33"/>
+      <c r="CR22" s="33"/>
+      <c r="CS22" s="33"/>
+      <c r="CT22" s="33"/>
     </row>
-    <row r="23" spans="1:86">
-      <c r="A23" s="37"/>
+    <row r="23" spans="1:98">
+      <c r="A23" s="55"/>
       <c r="B23" s="31" t="s">
         <v>24</v>
       </c>
@@ -15931,9 +17939,21 @@
       <c r="CF23" s="33"/>
       <c r="CG23" s="33"/>
       <c r="CH23" s="33"/>
+      <c r="CI23" s="33"/>
+      <c r="CJ23" s="33"/>
+      <c r="CK23" s="33"/>
+      <c r="CL23" s="33"/>
+      <c r="CM23" s="33"/>
+      <c r="CN23" s="33"/>
+      <c r="CO23" s="33"/>
+      <c r="CP23" s="33"/>
+      <c r="CQ23" s="33"/>
+      <c r="CR23" s="33"/>
+      <c r="CS23" s="33"/>
+      <c r="CT23" s="33"/>
     </row>
-    <row r="24" spans="1:86">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:98">
+      <c r="A24" s="53"/>
       <c r="B24" s="31" t="s">
         <v>22</v>
       </c>
@@ -16021,9 +18041,21 @@
       <c r="CF24" s="33"/>
       <c r="CG24" s="33"/>
       <c r="CH24" s="33"/>
+      <c r="CI24" s="33"/>
+      <c r="CJ24" s="33"/>
+      <c r="CK24" s="33"/>
+      <c r="CL24" s="33"/>
+      <c r="CM24" s="33"/>
+      <c r="CN24" s="33"/>
+      <c r="CO24" s="33"/>
+      <c r="CP24" s="33"/>
+      <c r="CQ24" s="33"/>
+      <c r="CR24" s="33"/>
+      <c r="CS24" s="33"/>
+      <c r="CT24" s="33"/>
     </row>
-    <row r="25" spans="1:86">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:98">
+      <c r="A25" s="54"/>
       <c r="B25" s="31" t="s">
         <v>23</v>
       </c>
@@ -16111,9 +18143,21 @@
       <c r="CF25" s="33"/>
       <c r="CG25" s="33"/>
       <c r="CH25" s="33"/>
+      <c r="CI25" s="33"/>
+      <c r="CJ25" s="33"/>
+      <c r="CK25" s="33"/>
+      <c r="CL25" s="33"/>
+      <c r="CM25" s="33"/>
+      <c r="CN25" s="33"/>
+      <c r="CO25" s="33"/>
+      <c r="CP25" s="33"/>
+      <c r="CQ25" s="33"/>
+      <c r="CR25" s="33"/>
+      <c r="CS25" s="33"/>
+      <c r="CT25" s="33"/>
     </row>
-    <row r="26" spans="1:86">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:98">
+      <c r="A26" s="55"/>
       <c r="B26" s="31" t="s">
         <v>24</v>
       </c>
@@ -16201,9 +18245,21 @@
       <c r="CF26" s="33"/>
       <c r="CG26" s="33"/>
       <c r="CH26" s="33"/>
+      <c r="CI26" s="33"/>
+      <c r="CJ26" s="33"/>
+      <c r="CK26" s="33"/>
+      <c r="CL26" s="33"/>
+      <c r="CM26" s="33"/>
+      <c r="CN26" s="33"/>
+      <c r="CO26" s="33"/>
+      <c r="CP26" s="33"/>
+      <c r="CQ26" s="33"/>
+      <c r="CR26" s="33"/>
+      <c r="CS26" s="33"/>
+      <c r="CT26" s="33"/>
     </row>
-    <row r="27" spans="1:86">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:98">
+      <c r="A27" s="53"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
       </c>
@@ -16291,9 +18347,21 @@
       <c r="CF27" s="33"/>
       <c r="CG27" s="33"/>
       <c r="CH27" s="33"/>
+      <c r="CI27" s="33"/>
+      <c r="CJ27" s="33"/>
+      <c r="CK27" s="33"/>
+      <c r="CL27" s="33"/>
+      <c r="CM27" s="33"/>
+      <c r="CN27" s="33"/>
+      <c r="CO27" s="33"/>
+      <c r="CP27" s="33"/>
+      <c r="CQ27" s="33"/>
+      <c r="CR27" s="33"/>
+      <c r="CS27" s="33"/>
+      <c r="CT27" s="33"/>
     </row>
-    <row r="28" spans="1:86">
-      <c r="A28" s="36"/>
+    <row r="28" spans="1:98">
+      <c r="A28" s="54"/>
       <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
@@ -16381,9 +18449,21 @@
       <c r="CF28" s="33"/>
       <c r="CG28" s="33"/>
       <c r="CH28" s="33"/>
+      <c r="CI28" s="33"/>
+      <c r="CJ28" s="33"/>
+      <c r="CK28" s="33"/>
+      <c r="CL28" s="33"/>
+      <c r="CM28" s="33"/>
+      <c r="CN28" s="33"/>
+      <c r="CO28" s="33"/>
+      <c r="CP28" s="33"/>
+      <c r="CQ28" s="33"/>
+      <c r="CR28" s="33"/>
+      <c r="CS28" s="33"/>
+      <c r="CT28" s="33"/>
     </row>
-    <row r="29" spans="1:86">
-      <c r="A29" s="37"/>
+    <row r="29" spans="1:98">
+      <c r="A29" s="55"/>
       <c r="B29" s="31" t="s">
         <v>24</v>
       </c>
@@ -16471,9 +18551,21 @@
       <c r="CF29" s="33"/>
       <c r="CG29" s="33"/>
       <c r="CH29" s="33"/>
+      <c r="CI29" s="33"/>
+      <c r="CJ29" s="33"/>
+      <c r="CK29" s="33"/>
+      <c r="CL29" s="33"/>
+      <c r="CM29" s="33"/>
+      <c r="CN29" s="33"/>
+      <c r="CO29" s="33"/>
+      <c r="CP29" s="33"/>
+      <c r="CQ29" s="33"/>
+      <c r="CR29" s="33"/>
+      <c r="CS29" s="33"/>
+      <c r="CT29" s="33"/>
     </row>
-    <row r="30" spans="1:86">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:98">
+      <c r="A30" s="53"/>
       <c r="B30" s="31" t="s">
         <v>22</v>
       </c>
@@ -16561,9 +18653,21 @@
       <c r="CF30" s="33"/>
       <c r="CG30" s="33"/>
       <c r="CH30" s="33"/>
+      <c r="CI30" s="33"/>
+      <c r="CJ30" s="33"/>
+      <c r="CK30" s="33"/>
+      <c r="CL30" s="33"/>
+      <c r="CM30" s="33"/>
+      <c r="CN30" s="33"/>
+      <c r="CO30" s="33"/>
+      <c r="CP30" s="33"/>
+      <c r="CQ30" s="33"/>
+      <c r="CR30" s="33"/>
+      <c r="CS30" s="33"/>
+      <c r="CT30" s="33"/>
     </row>
-    <row r="31" spans="1:86">
-      <c r="A31" s="36"/>
+    <row r="31" spans="1:98">
+      <c r="A31" s="54"/>
       <c r="B31" s="31" t="s">
         <v>23</v>
       </c>
@@ -16651,9 +18755,21 @@
       <c r="CF31" s="33"/>
       <c r="CG31" s="33"/>
       <c r="CH31" s="33"/>
+      <c r="CI31" s="33"/>
+      <c r="CJ31" s="33"/>
+      <c r="CK31" s="33"/>
+      <c r="CL31" s="33"/>
+      <c r="CM31" s="33"/>
+      <c r="CN31" s="33"/>
+      <c r="CO31" s="33"/>
+      <c r="CP31" s="33"/>
+      <c r="CQ31" s="33"/>
+      <c r="CR31" s="33"/>
+      <c r="CS31" s="33"/>
+      <c r="CT31" s="33"/>
     </row>
-    <row r="32" spans="1:86">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:98">
+      <c r="A32" s="55"/>
       <c r="B32" s="31" t="s">
         <v>24</v>
       </c>
@@ -16741,9 +18857,21 @@
       <c r="CF32" s="33"/>
       <c r="CG32" s="33"/>
       <c r="CH32" s="33"/>
+      <c r="CI32" s="33"/>
+      <c r="CJ32" s="33"/>
+      <c r="CK32" s="33"/>
+      <c r="CL32" s="33"/>
+      <c r="CM32" s="33"/>
+      <c r="CN32" s="33"/>
+      <c r="CO32" s="33"/>
+      <c r="CP32" s="33"/>
+      <c r="CQ32" s="33"/>
+      <c r="CR32" s="33"/>
+      <c r="CS32" s="33"/>
+      <c r="CT32" s="33"/>
     </row>
-    <row r="33" spans="1:86">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:98">
+      <c r="A33" s="53"/>
       <c r="B33" s="31" t="s">
         <v>22</v>
       </c>
@@ -16831,9 +18959,21 @@
       <c r="CF33" s="33"/>
       <c r="CG33" s="33"/>
       <c r="CH33" s="33"/>
+      <c r="CI33" s="33"/>
+      <c r="CJ33" s="33"/>
+      <c r="CK33" s="33"/>
+      <c r="CL33" s="33"/>
+      <c r="CM33" s="33"/>
+      <c r="CN33" s="33"/>
+      <c r="CO33" s="33"/>
+      <c r="CP33" s="33"/>
+      <c r="CQ33" s="33"/>
+      <c r="CR33" s="33"/>
+      <c r="CS33" s="33"/>
+      <c r="CT33" s="33"/>
     </row>
-    <row r="34" spans="1:86">
-      <c r="A34" s="36"/>
+    <row r="34" spans="1:98">
+      <c r="A34" s="54"/>
       <c r="B34" s="31" t="s">
         <v>23</v>
       </c>
@@ -16921,9 +19061,21 @@
       <c r="CF34" s="33"/>
       <c r="CG34" s="33"/>
       <c r="CH34" s="33"/>
+      <c r="CI34" s="33"/>
+      <c r="CJ34" s="33"/>
+      <c r="CK34" s="33"/>
+      <c r="CL34" s="33"/>
+      <c r="CM34" s="33"/>
+      <c r="CN34" s="33"/>
+      <c r="CO34" s="33"/>
+      <c r="CP34" s="33"/>
+      <c r="CQ34" s="33"/>
+      <c r="CR34" s="33"/>
+      <c r="CS34" s="33"/>
+      <c r="CT34" s="33"/>
     </row>
-    <row r="35" spans="1:86">
-      <c r="A35" s="37"/>
+    <row r="35" spans="1:98">
+      <c r="A35" s="55"/>
       <c r="B35" s="31" t="s">
         <v>24</v>
       </c>
@@ -17011,9 +19163,21 @@
       <c r="CF35" s="33"/>
       <c r="CG35" s="33"/>
       <c r="CH35" s="33"/>
+      <c r="CI35" s="33"/>
+      <c r="CJ35" s="33"/>
+      <c r="CK35" s="33"/>
+      <c r="CL35" s="33"/>
+      <c r="CM35" s="33"/>
+      <c r="CN35" s="33"/>
+      <c r="CO35" s="33"/>
+      <c r="CP35" s="33"/>
+      <c r="CQ35" s="33"/>
+      <c r="CR35" s="33"/>
+      <c r="CS35" s="33"/>
+      <c r="CT35" s="33"/>
     </row>
-    <row r="36" spans="1:86">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:98">
+      <c r="A36" s="53"/>
       <c r="B36" s="31" t="s">
         <v>22</v>
       </c>
@@ -17101,9 +19265,21 @@
       <c r="CF36" s="33"/>
       <c r="CG36" s="33"/>
       <c r="CH36" s="33"/>
+      <c r="CI36" s="33"/>
+      <c r="CJ36" s="33"/>
+      <c r="CK36" s="33"/>
+      <c r="CL36" s="33"/>
+      <c r="CM36" s="33"/>
+      <c r="CN36" s="33"/>
+      <c r="CO36" s="33"/>
+      <c r="CP36" s="33"/>
+      <c r="CQ36" s="33"/>
+      <c r="CR36" s="33"/>
+      <c r="CS36" s="33"/>
+      <c r="CT36" s="33"/>
     </row>
-    <row r="37" spans="1:86">
-      <c r="A37" s="36"/>
+    <row r="37" spans="1:98">
+      <c r="A37" s="54"/>
       <c r="B37" s="31" t="s">
         <v>23</v>
       </c>
@@ -17191,9 +19367,21 @@
       <c r="CF37" s="33"/>
       <c r="CG37" s="33"/>
       <c r="CH37" s="33"/>
+      <c r="CI37" s="33"/>
+      <c r="CJ37" s="33"/>
+      <c r="CK37" s="33"/>
+      <c r="CL37" s="33"/>
+      <c r="CM37" s="33"/>
+      <c r="CN37" s="33"/>
+      <c r="CO37" s="33"/>
+      <c r="CP37" s="33"/>
+      <c r="CQ37" s="33"/>
+      <c r="CR37" s="33"/>
+      <c r="CS37" s="33"/>
+      <c r="CT37" s="33"/>
     </row>
-    <row r="38" spans="1:86">
-      <c r="A38" s="37"/>
+    <row r="38" spans="1:98">
+      <c r="A38" s="55"/>
       <c r="B38" s="31" t="s">
         <v>24</v>
       </c>
@@ -17281,9 +19469,21 @@
       <c r="CF38" s="33"/>
       <c r="CG38" s="33"/>
       <c r="CH38" s="33"/>
+      <c r="CI38" s="33"/>
+      <c r="CJ38" s="33"/>
+      <c r="CK38" s="33"/>
+      <c r="CL38" s="33"/>
+      <c r="CM38" s="33"/>
+      <c r="CN38" s="33"/>
+      <c r="CO38" s="33"/>
+      <c r="CP38" s="33"/>
+      <c r="CQ38" s="33"/>
+      <c r="CR38" s="33"/>
+      <c r="CS38" s="33"/>
+      <c r="CT38" s="33"/>
     </row>
-    <row r="39" spans="1:86">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:98">
+      <c r="A39" s="53"/>
       <c r="B39" s="31" t="s">
         <v>22</v>
       </c>
@@ -17371,9 +19571,21 @@
       <c r="CF39" s="33"/>
       <c r="CG39" s="33"/>
       <c r="CH39" s="33"/>
+      <c r="CI39" s="33"/>
+      <c r="CJ39" s="33"/>
+      <c r="CK39" s="33"/>
+      <c r="CL39" s="33"/>
+      <c r="CM39" s="33"/>
+      <c r="CN39" s="33"/>
+      <c r="CO39" s="33"/>
+      <c r="CP39" s="33"/>
+      <c r="CQ39" s="33"/>
+      <c r="CR39" s="33"/>
+      <c r="CS39" s="33"/>
+      <c r="CT39" s="33"/>
     </row>
-    <row r="40" spans="1:86">
-      <c r="A40" s="36"/>
+    <row r="40" spans="1:98">
+      <c r="A40" s="54"/>
       <c r="B40" s="31" t="s">
         <v>23</v>
       </c>
@@ -17461,9 +19673,21 @@
       <c r="CF40" s="33"/>
       <c r="CG40" s="33"/>
       <c r="CH40" s="33"/>
+      <c r="CI40" s="33"/>
+      <c r="CJ40" s="33"/>
+      <c r="CK40" s="33"/>
+      <c r="CL40" s="33"/>
+      <c r="CM40" s="33"/>
+      <c r="CN40" s="33"/>
+      <c r="CO40" s="33"/>
+      <c r="CP40" s="33"/>
+      <c r="CQ40" s="33"/>
+      <c r="CR40" s="33"/>
+      <c r="CS40" s="33"/>
+      <c r="CT40" s="33"/>
     </row>
-    <row r="41" spans="1:86">
-      <c r="A41" s="37"/>
+    <row r="41" spans="1:98">
+      <c r="A41" s="55"/>
       <c r="B41" s="31" t="s">
         <v>24</v>
       </c>
@@ -17551,9 +19775,21 @@
       <c r="CF41" s="33"/>
       <c r="CG41" s="33"/>
       <c r="CH41" s="33"/>
+      <c r="CI41" s="33"/>
+      <c r="CJ41" s="33"/>
+      <c r="CK41" s="33"/>
+      <c r="CL41" s="33"/>
+      <c r="CM41" s="33"/>
+      <c r="CN41" s="33"/>
+      <c r="CO41" s="33"/>
+      <c r="CP41" s="33"/>
+      <c r="CQ41" s="33"/>
+      <c r="CR41" s="33"/>
+      <c r="CS41" s="33"/>
+      <c r="CT41" s="33"/>
     </row>
-    <row r="42" spans="1:86">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:98">
+      <c r="A42" s="53"/>
       <c r="B42" s="31" t="s">
         <v>22</v>
       </c>
@@ -17641,9 +19877,21 @@
       <c r="CF42" s="33"/>
       <c r="CG42" s="33"/>
       <c r="CH42" s="33"/>
+      <c r="CI42" s="33"/>
+      <c r="CJ42" s="33"/>
+      <c r="CK42" s="33"/>
+      <c r="CL42" s="33"/>
+      <c r="CM42" s="33"/>
+      <c r="CN42" s="33"/>
+      <c r="CO42" s="33"/>
+      <c r="CP42" s="33"/>
+      <c r="CQ42" s="33"/>
+      <c r="CR42" s="33"/>
+      <c r="CS42" s="33"/>
+      <c r="CT42" s="33"/>
     </row>
-    <row r="43" spans="1:86">
-      <c r="A43" s="36"/>
+    <row r="43" spans="1:98">
+      <c r="A43" s="54"/>
       <c r="B43" s="31" t="s">
         <v>23</v>
       </c>
@@ -17731,9 +19979,21 @@
       <c r="CF43" s="33"/>
       <c r="CG43" s="33"/>
       <c r="CH43" s="33"/>
+      <c r="CI43" s="33"/>
+      <c r="CJ43" s="33"/>
+      <c r="CK43" s="33"/>
+      <c r="CL43" s="33"/>
+      <c r="CM43" s="33"/>
+      <c r="CN43" s="33"/>
+      <c r="CO43" s="33"/>
+      <c r="CP43" s="33"/>
+      <c r="CQ43" s="33"/>
+      <c r="CR43" s="33"/>
+      <c r="CS43" s="33"/>
+      <c r="CT43" s="33"/>
     </row>
-    <row r="44" spans="1:86">
-      <c r="A44" s="37"/>
+    <row r="44" spans="1:98">
+      <c r="A44" s="55"/>
       <c r="B44" s="31" t="s">
         <v>24</v>
       </c>
@@ -17821,9 +20081,21 @@
       <c r="CF44" s="33"/>
       <c r="CG44" s="33"/>
       <c r="CH44" s="33"/>
+      <c r="CI44" s="33"/>
+      <c r="CJ44" s="33"/>
+      <c r="CK44" s="33"/>
+      <c r="CL44" s="33"/>
+      <c r="CM44" s="33"/>
+      <c r="CN44" s="33"/>
+      <c r="CO44" s="33"/>
+      <c r="CP44" s="33"/>
+      <c r="CQ44" s="33"/>
+      <c r="CR44" s="33"/>
+      <c r="CS44" s="33"/>
+      <c r="CT44" s="33"/>
     </row>
-    <row r="45" spans="1:86">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:98">
+      <c r="A45" s="53"/>
       <c r="B45" s="31" t="s">
         <v>22</v>
       </c>
@@ -17911,9 +20183,21 @@
       <c r="CF45" s="33"/>
       <c r="CG45" s="33"/>
       <c r="CH45" s="33"/>
+      <c r="CI45" s="33"/>
+      <c r="CJ45" s="33"/>
+      <c r="CK45" s="33"/>
+      <c r="CL45" s="33"/>
+      <c r="CM45" s="33"/>
+      <c r="CN45" s="33"/>
+      <c r="CO45" s="33"/>
+      <c r="CP45" s="33"/>
+      <c r="CQ45" s="33"/>
+      <c r="CR45" s="33"/>
+      <c r="CS45" s="33"/>
+      <c r="CT45" s="33"/>
     </row>
-    <row r="46" spans="1:86">
-      <c r="A46" s="36"/>
+    <row r="46" spans="1:98">
+      <c r="A46" s="54"/>
       <c r="B46" s="31" t="s">
         <v>23</v>
       </c>
@@ -18001,9 +20285,21 @@
       <c r="CF46" s="33"/>
       <c r="CG46" s="33"/>
       <c r="CH46" s="33"/>
+      <c r="CI46" s="33"/>
+      <c r="CJ46" s="33"/>
+      <c r="CK46" s="33"/>
+      <c r="CL46" s="33"/>
+      <c r="CM46" s="33"/>
+      <c r="CN46" s="33"/>
+      <c r="CO46" s="33"/>
+      <c r="CP46" s="33"/>
+      <c r="CQ46" s="33"/>
+      <c r="CR46" s="33"/>
+      <c r="CS46" s="33"/>
+      <c r="CT46" s="33"/>
     </row>
-    <row r="47" spans="1:86">
-      <c r="A47" s="37"/>
+    <row r="47" spans="1:98">
+      <c r="A47" s="55"/>
       <c r="B47" s="31" t="s">
         <v>24</v>
       </c>
@@ -18091,9 +20387,21 @@
       <c r="CF47" s="33"/>
       <c r="CG47" s="33"/>
       <c r="CH47" s="33"/>
+      <c r="CI47" s="33"/>
+      <c r="CJ47" s="33"/>
+      <c r="CK47" s="33"/>
+      <c r="CL47" s="33"/>
+      <c r="CM47" s="33"/>
+      <c r="CN47" s="33"/>
+      <c r="CO47" s="33"/>
+      <c r="CP47" s="33"/>
+      <c r="CQ47" s="33"/>
+      <c r="CR47" s="33"/>
+      <c r="CS47" s="33"/>
+      <c r="CT47" s="33"/>
     </row>
-    <row r="48" spans="1:86">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:98">
+      <c r="A48" s="53"/>
       <c r="B48" s="31" t="s">
         <v>22</v>
       </c>
@@ -18181,9 +20489,21 @@
       <c r="CF48" s="33"/>
       <c r="CG48" s="33"/>
       <c r="CH48" s="33"/>
+      <c r="CI48" s="33"/>
+      <c r="CJ48" s="33"/>
+      <c r="CK48" s="33"/>
+      <c r="CL48" s="33"/>
+      <c r="CM48" s="33"/>
+      <c r="CN48" s="33"/>
+      <c r="CO48" s="33"/>
+      <c r="CP48" s="33"/>
+      <c r="CQ48" s="33"/>
+      <c r="CR48" s="33"/>
+      <c r="CS48" s="33"/>
+      <c r="CT48" s="33"/>
     </row>
-    <row r="49" spans="1:86">
-      <c r="A49" s="36"/>
+    <row r="49" spans="1:98">
+      <c r="A49" s="54"/>
       <c r="B49" s="31" t="s">
         <v>23</v>
       </c>
@@ -18271,9 +20591,21 @@
       <c r="CF49" s="33"/>
       <c r="CG49" s="33"/>
       <c r="CH49" s="33"/>
+      <c r="CI49" s="33"/>
+      <c r="CJ49" s="33"/>
+      <c r="CK49" s="33"/>
+      <c r="CL49" s="33"/>
+      <c r="CM49" s="33"/>
+      <c r="CN49" s="33"/>
+      <c r="CO49" s="33"/>
+      <c r="CP49" s="33"/>
+      <c r="CQ49" s="33"/>
+      <c r="CR49" s="33"/>
+      <c r="CS49" s="33"/>
+      <c r="CT49" s="33"/>
     </row>
-    <row r="50" spans="1:86">
-      <c r="A50" s="37"/>
+    <row r="50" spans="1:98">
+      <c r="A50" s="55"/>
       <c r="B50" s="31" t="s">
         <v>24</v>
       </c>
@@ -18361,9 +20693,21 @@
       <c r="CF50" s="33"/>
       <c r="CG50" s="33"/>
       <c r="CH50" s="33"/>
+      <c r="CI50" s="33"/>
+      <c r="CJ50" s="33"/>
+      <c r="CK50" s="33"/>
+      <c r="CL50" s="33"/>
+      <c r="CM50" s="33"/>
+      <c r="CN50" s="33"/>
+      <c r="CO50" s="33"/>
+      <c r="CP50" s="33"/>
+      <c r="CQ50" s="33"/>
+      <c r="CR50" s="33"/>
+      <c r="CS50" s="33"/>
+      <c r="CT50" s="33"/>
     </row>
-    <row r="51" spans="1:86">
-      <c r="A51" s="35"/>
+    <row r="51" spans="1:98">
+      <c r="A51" s="53"/>
       <c r="B51" s="31" t="s">
         <v>22</v>
       </c>
@@ -18451,9 +20795,21 @@
       <c r="CF51" s="33"/>
       <c r="CG51" s="33"/>
       <c r="CH51" s="33"/>
+      <c r="CI51" s="33"/>
+      <c r="CJ51" s="33"/>
+      <c r="CK51" s="33"/>
+      <c r="CL51" s="33"/>
+      <c r="CM51" s="33"/>
+      <c r="CN51" s="33"/>
+      <c r="CO51" s="33"/>
+      <c r="CP51" s="33"/>
+      <c r="CQ51" s="33"/>
+      <c r="CR51" s="33"/>
+      <c r="CS51" s="33"/>
+      <c r="CT51" s="33"/>
     </row>
-    <row r="52" spans="1:86">
-      <c r="A52" s="36"/>
+    <row r="52" spans="1:98">
+      <c r="A52" s="54"/>
       <c r="B52" s="31" t="s">
         <v>23</v>
       </c>
@@ -18541,9 +20897,21 @@
       <c r="CF52" s="33"/>
       <c r="CG52" s="33"/>
       <c r="CH52" s="33"/>
+      <c r="CI52" s="33"/>
+      <c r="CJ52" s="33"/>
+      <c r="CK52" s="33"/>
+      <c r="CL52" s="33"/>
+      <c r="CM52" s="33"/>
+      <c r="CN52" s="33"/>
+      <c r="CO52" s="33"/>
+      <c r="CP52" s="33"/>
+      <c r="CQ52" s="33"/>
+      <c r="CR52" s="33"/>
+      <c r="CS52" s="33"/>
+      <c r="CT52" s="33"/>
     </row>
-    <row r="53" spans="1:86">
-      <c r="A53" s="37"/>
+    <row r="53" spans="1:98">
+      <c r="A53" s="55"/>
       <c r="B53" s="31" t="s">
         <v>24</v>
       </c>
@@ -18631,9 +20999,21 @@
       <c r="CF53" s="33"/>
       <c r="CG53" s="33"/>
       <c r="CH53" s="33"/>
+      <c r="CI53" s="33"/>
+      <c r="CJ53" s="33"/>
+      <c r="CK53" s="33"/>
+      <c r="CL53" s="33"/>
+      <c r="CM53" s="33"/>
+      <c r="CN53" s="33"/>
+      <c r="CO53" s="33"/>
+      <c r="CP53" s="33"/>
+      <c r="CQ53" s="33"/>
+      <c r="CR53" s="33"/>
+      <c r="CS53" s="33"/>
+      <c r="CT53" s="33"/>
     </row>
-    <row r="54" spans="1:86">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:98">
+      <c r="A54" s="53"/>
       <c r="B54" s="31" t="s">
         <v>22</v>
       </c>
@@ -18721,9 +21101,21 @@
       <c r="CF54" s="33"/>
       <c r="CG54" s="33"/>
       <c r="CH54" s="33"/>
+      <c r="CI54" s="33"/>
+      <c r="CJ54" s="33"/>
+      <c r="CK54" s="33"/>
+      <c r="CL54" s="33"/>
+      <c r="CM54" s="33"/>
+      <c r="CN54" s="33"/>
+      <c r="CO54" s="33"/>
+      <c r="CP54" s="33"/>
+      <c r="CQ54" s="33"/>
+      <c r="CR54" s="33"/>
+      <c r="CS54" s="33"/>
+      <c r="CT54" s="33"/>
     </row>
-    <row r="55" spans="1:86">
-      <c r="A55" s="36"/>
+    <row r="55" spans="1:98">
+      <c r="A55" s="54"/>
       <c r="B55" s="31" t="s">
         <v>23</v>
       </c>
@@ -18811,9 +21203,21 @@
       <c r="CF55" s="33"/>
       <c r="CG55" s="33"/>
       <c r="CH55" s="33"/>
+      <c r="CI55" s="33"/>
+      <c r="CJ55" s="33"/>
+      <c r="CK55" s="33"/>
+      <c r="CL55" s="33"/>
+      <c r="CM55" s="33"/>
+      <c r="CN55" s="33"/>
+      <c r="CO55" s="33"/>
+      <c r="CP55" s="33"/>
+      <c r="CQ55" s="33"/>
+      <c r="CR55" s="33"/>
+      <c r="CS55" s="33"/>
+      <c r="CT55" s="33"/>
     </row>
-    <row r="56" spans="1:86">
-      <c r="A56" s="37"/>
+    <row r="56" spans="1:98">
+      <c r="A56" s="55"/>
       <c r="B56" s="31" t="s">
         <v>24</v>
       </c>
@@ -18901,9 +21305,21 @@
       <c r="CF56" s="33"/>
       <c r="CG56" s="33"/>
       <c r="CH56" s="33"/>
+      <c r="CI56" s="33"/>
+      <c r="CJ56" s="33"/>
+      <c r="CK56" s="33"/>
+      <c r="CL56" s="33"/>
+      <c r="CM56" s="33"/>
+      <c r="CN56" s="33"/>
+      <c r="CO56" s="33"/>
+      <c r="CP56" s="33"/>
+      <c r="CQ56" s="33"/>
+      <c r="CR56" s="33"/>
+      <c r="CS56" s="33"/>
+      <c r="CT56" s="33"/>
     </row>
-    <row r="57" spans="1:86">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:98">
+      <c r="A57" s="53"/>
       <c r="B57" s="31" t="s">
         <v>22</v>
       </c>
@@ -18991,9 +21407,21 @@
       <c r="CF57" s="33"/>
       <c r="CG57" s="33"/>
       <c r="CH57" s="33"/>
+      <c r="CI57" s="33"/>
+      <c r="CJ57" s="33"/>
+      <c r="CK57" s="33"/>
+      <c r="CL57" s="33"/>
+      <c r="CM57" s="33"/>
+      <c r="CN57" s="33"/>
+      <c r="CO57" s="33"/>
+      <c r="CP57" s="33"/>
+      <c r="CQ57" s="33"/>
+      <c r="CR57" s="33"/>
+      <c r="CS57" s="33"/>
+      <c r="CT57" s="33"/>
     </row>
-    <row r="58" spans="1:86">
-      <c r="A58" s="36"/>
+    <row r="58" spans="1:98">
+      <c r="A58" s="54"/>
       <c r="B58" s="31" t="s">
         <v>23</v>
       </c>
@@ -19081,9 +21509,21 @@
       <c r="CF58" s="33"/>
       <c r="CG58" s="33"/>
       <c r="CH58" s="33"/>
+      <c r="CI58" s="33"/>
+      <c r="CJ58" s="33"/>
+      <c r="CK58" s="33"/>
+      <c r="CL58" s="33"/>
+      <c r="CM58" s="33"/>
+      <c r="CN58" s="33"/>
+      <c r="CO58" s="33"/>
+      <c r="CP58" s="33"/>
+      <c r="CQ58" s="33"/>
+      <c r="CR58" s="33"/>
+      <c r="CS58" s="33"/>
+      <c r="CT58" s="33"/>
     </row>
-    <row r="59" spans="1:86">
-      <c r="A59" s="37"/>
+    <row r="59" spans="1:98">
+      <c r="A59" s="55"/>
       <c r="B59" s="31" t="s">
         <v>24</v>
       </c>
@@ -19171,9 +21611,21 @@
       <c r="CF59" s="33"/>
       <c r="CG59" s="33"/>
       <c r="CH59" s="33"/>
+      <c r="CI59" s="33"/>
+      <c r="CJ59" s="33"/>
+      <c r="CK59" s="33"/>
+      <c r="CL59" s="33"/>
+      <c r="CM59" s="33"/>
+      <c r="CN59" s="33"/>
+      <c r="CO59" s="33"/>
+      <c r="CP59" s="33"/>
+      <c r="CQ59" s="33"/>
+      <c r="CR59" s="33"/>
+      <c r="CS59" s="33"/>
+      <c r="CT59" s="33"/>
     </row>
-    <row r="60" spans="1:86">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:98">
+      <c r="A60" s="53"/>
       <c r="B60" s="31" t="s">
         <v>22</v>
       </c>
@@ -19261,9 +21713,21 @@
       <c r="CF60" s="33"/>
       <c r="CG60" s="33"/>
       <c r="CH60" s="33"/>
+      <c r="CI60" s="33"/>
+      <c r="CJ60" s="33"/>
+      <c r="CK60" s="33"/>
+      <c r="CL60" s="33"/>
+      <c r="CM60" s="33"/>
+      <c r="CN60" s="33"/>
+      <c r="CO60" s="33"/>
+      <c r="CP60" s="33"/>
+      <c r="CQ60" s="33"/>
+      <c r="CR60" s="33"/>
+      <c r="CS60" s="33"/>
+      <c r="CT60" s="33"/>
     </row>
-    <row r="61" spans="1:86">
-      <c r="A61" s="36"/>
+    <row r="61" spans="1:98">
+      <c r="A61" s="54"/>
       <c r="B61" s="31" t="s">
         <v>23</v>
       </c>
@@ -19351,9 +21815,21 @@
       <c r="CF61" s="33"/>
       <c r="CG61" s="33"/>
       <c r="CH61" s="33"/>
+      <c r="CI61" s="33"/>
+      <c r="CJ61" s="33"/>
+      <c r="CK61" s="33"/>
+      <c r="CL61" s="33"/>
+      <c r="CM61" s="33"/>
+      <c r="CN61" s="33"/>
+      <c r="CO61" s="33"/>
+      <c r="CP61" s="33"/>
+      <c r="CQ61" s="33"/>
+      <c r="CR61" s="33"/>
+      <c r="CS61" s="33"/>
+      <c r="CT61" s="33"/>
     </row>
-    <row r="62" spans="1:86">
-      <c r="A62" s="37"/>
+    <row r="62" spans="1:98">
+      <c r="A62" s="55"/>
       <c r="B62" s="31" t="s">
         <v>24</v>
       </c>
@@ -19441,16 +21917,39 @@
       <c r="CF62" s="33"/>
       <c r="CG62" s="33"/>
       <c r="CH62" s="33"/>
+      <c r="CI62" s="33"/>
+      <c r="CJ62" s="33"/>
+      <c r="CK62" s="33"/>
+      <c r="CL62" s="33"/>
+      <c r="CM62" s="33"/>
+      <c r="CN62" s="33"/>
+      <c r="CO62" s="33"/>
+      <c r="CP62" s="33"/>
+      <c r="CQ62" s="33"/>
+      <c r="CR62" s="33"/>
+      <c r="CS62" s="33"/>
+      <c r="CT62" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
+  <mergeCells count="37">
+    <mergeCell ref="CI1:CT1"/>
+    <mergeCell ref="CI3:CT3"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="AA1:AL1"/>
+    <mergeCell ref="AY1:BJ1"/>
+    <mergeCell ref="BK1:BV1"/>
+    <mergeCell ref="BW1:CH1"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="O3:Z3"/>
+    <mergeCell ref="AA3:AL3"/>
+    <mergeCell ref="AM3:AX3"/>
+    <mergeCell ref="AY3:BJ3"/>
+    <mergeCell ref="BK3:BV3"/>
+    <mergeCell ref="BW3:CH3"/>
+    <mergeCell ref="AM1:AX1"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -19463,28 +21962,41 @@
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="AY1:BJ1"/>
-    <mergeCell ref="BK1:BV1"/>
-    <mergeCell ref="BW1:CH1"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="O3:Z3"/>
-    <mergeCell ref="AA3:AL3"/>
-    <mergeCell ref="AM3:AX3"/>
-    <mergeCell ref="AY3:BJ3"/>
-    <mergeCell ref="BK3:BV3"/>
-    <mergeCell ref="BW3:CH3"/>
-    <mergeCell ref="AM1:AX1"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="AA1:AL1"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="b6aca24e-4444-460a-817a-632af75502ac">Yes</Status>
+    <Items xmlns="b6aca24e-4444-460a-817a-632af75502ac" xsi:nil="true"/>
+    <Flag xmlns="b6aca24e-4444-460a-817a-632af75502ac">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Flag>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BEFC1D0ECDB5F43A88DAD23916790D6" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ea1c83e7babf2415c9abb5a26182c0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b6aca24e-4444-460a-817a-632af75502ac" xmlns:ns3="fa9b16db-5586-4806-8651-c2f325035ff0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="424272155f00c6a6011fb59ff720a639" ns2:_="" ns3:_="">
     <xsd:import namespace="b6aca24e-4444-460a-817a-632af75502ac"/>
@@ -19729,36 +22241,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="b6aca24e-4444-460a-817a-632af75502ac">Yes</Status>
-    <Items xmlns="b6aca24e-4444-460a-817a-632af75502ac" xsi:nil="true"/>
-    <Flag xmlns="b6aca24e-4444-460a-817a-632af75502ac">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Flag>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{252E2E9E-DCA3-4458-942B-2E55E7D19DF4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0403DBA-0434-4C98-9BCE-02F6A6E6BB8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b6aca24e-4444-460a-817a-632af75502ac"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{942C5E80-3160-4097-9E06-E488DC1AA17F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{942C5E80-3160-4097-9E06-E488DC1AA17F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0403DBA-0434-4C98-9BCE-02F6A6E6BB8E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{252E2E9E-DCA3-4458-942B-2E55E7D19DF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b6aca24e-4444-460a-817a-632af75502ac"/>
+    <ds:schemaRef ds:uri="fa9b16db-5586-4806-8651-c2f325035ff0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/shiny/WPROACM/XLSX/Data Entry Template - monthly.xlsx
+++ b/inst/shiny/WPROACM/XLSX/Data Entry Template - monthly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handcock/Build/WPRO-all-cause-of-mortality-and-excess-death-calculator/inst/shiny/WPROACM/XLSX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Calculator\WPROACM\inst\shiny\WPROACM\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1DB2BE-46C0-6840-94F8-4CAA8038D702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E60446-3DC5-422D-8CD8-B51D21CE80BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9D1B51D1-1264-418D-B2D2-93940FC92664}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{9D1B51D1-1264-418D-B2D2-93940FC92664}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="32">
   <si>
     <t>AGE GROUP</t>
   </si>
@@ -166,6 +166,9 @@
   <si>
     <t>2022</t>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ###\ ##0\ ;@\ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +238,12 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -452,7 +461,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -551,14 +560,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -578,28 +586,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,20 +610,29 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -951,41 +959,41 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="118.33203125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="35" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="35"/>
+    <col min="1" max="1" width="118.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="35" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19" thickBot="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18" thickBot="1">
-      <c r="A2" s="39"/>
+    <row r="2" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:1" ht="19" thickBot="1">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A3" s="39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="55" thickBot="1">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:1" ht="51" thickBot="1">
+      <c r="A4" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18" thickBot="1">
-      <c r="A5" s="42"/>
+    <row r="5" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A5" s="41"/>
     </row>
-    <row r="6" spans="1:1" ht="19" thickBot="1">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A6" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="378" thickBot="1">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:1" ht="354.75" thickBot="1">
+      <c r="A7" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1012,142 +1020,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BF3A75-C147-4C9C-A881-0B2DDB9D5037}">
-  <dimension ref="A1:CT62"/>
+  <dimension ref="A1:DF62"/>
   <sheetViews>
-    <sheetView topLeftCell="BX1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="CI2" sqref="CI1:CT1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BX1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="CU1" sqref="CU1:DF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.46484375" style="9" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:110">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="48" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="52" t="s">
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="49" t="s">
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="50" t="s">
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
+      <c r="BF1" s="52"/>
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50"/>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="50"/>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="50"/>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="51" t="s">
+      <c r="BL1" s="53"/>
+      <c r="BM1" s="53"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="53"/>
+      <c r="BW1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="BX1" s="51"/>
-      <c r="BY1" s="51"/>
-      <c r="BZ1" s="51"/>
-      <c r="CA1" s="51"/>
-      <c r="CB1" s="51"/>
-      <c r="CC1" s="51"/>
-      <c r="CD1" s="51"/>
-      <c r="CE1" s="51"/>
-      <c r="CF1" s="51"/>
-      <c r="CG1" s="51"/>
-      <c r="CH1" s="51"/>
-      <c r="CI1" s="56" t="s">
+      <c r="BX1" s="54"/>
+      <c r="BY1" s="54"/>
+      <c r="BZ1" s="54"/>
+      <c r="CA1" s="54"/>
+      <c r="CB1" s="54"/>
+      <c r="CC1" s="54"/>
+      <c r="CD1" s="54"/>
+      <c r="CE1" s="54"/>
+      <c r="CF1" s="54"/>
+      <c r="CG1" s="54"/>
+      <c r="CH1" s="54"/>
+      <c r="CI1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="CJ1" s="56"/>
-      <c r="CK1" s="56"/>
-      <c r="CL1" s="56"/>
-      <c r="CM1" s="56"/>
-      <c r="CN1" s="56"/>
-      <c r="CO1" s="56"/>
-      <c r="CP1" s="56"/>
-      <c r="CQ1" s="56"/>
-      <c r="CR1" s="56"/>
-      <c r="CS1" s="56"/>
-      <c r="CT1" s="56"/>
+      <c r="CJ1" s="48"/>
+      <c r="CK1" s="48"/>
+      <c r="CL1" s="48"/>
+      <c r="CM1" s="48"/>
+      <c r="CN1" s="48"/>
+      <c r="CO1" s="48"/>
+      <c r="CP1" s="48"/>
+      <c r="CQ1" s="48"/>
+      <c r="CR1" s="48"/>
+      <c r="CS1" s="48"/>
+      <c r="CT1" s="48"/>
+      <c r="CU1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="CV1" s="58"/>
+      <c r="CW1" s="58"/>
+      <c r="CX1" s="58"/>
+      <c r="CY1" s="58"/>
+      <c r="CZ1" s="58"/>
+      <c r="DA1" s="58"/>
+      <c r="DB1" s="58"/>
+      <c r="DC1" s="58"/>
+      <c r="DD1" s="58"/>
+      <c r="DE1" s="58"/>
+      <c r="DF1" s="58"/>
     </row>
-    <row r="2" spans="1:98">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+    <row r="2" spans="1:110">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="34">
         <v>2015</v>
       </c>
@@ -1400,162 +1422,212 @@
       <c r="CH2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="CI2" s="57" t="s">
+      <c r="CI2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CJ2" s="57" t="s">
+      <c r="CJ2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CK2" s="57" t="s">
+      <c r="CK2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CL2" s="57" t="s">
+      <c r="CL2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CM2" s="57" t="s">
+      <c r="CM2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CN2" s="57" t="s">
+      <c r="CN2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CO2" s="57" t="s">
+      <c r="CO2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CP2" s="57" t="s">
+      <c r="CP2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CQ2" s="57" t="s">
+      <c r="CQ2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CR2" s="57" t="s">
+      <c r="CR2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CS2" s="57" t="s">
+      <c r="CS2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CT2" s="57" t="s">
+      <c r="CT2" s="44" t="s">
         <v>30</v>
       </c>
+      <c r="CU2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CX2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CY2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DD2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DE2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DF2" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:98" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+    <row r="3" spans="1:110" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="48" t="s">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="52" t="s">
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="49" t="s">
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="50" t="s">
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52"/>
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="BL3" s="50"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="50"/>
-      <c r="BO3" s="50"/>
-      <c r="BP3" s="50"/>
-      <c r="BQ3" s="50"/>
-      <c r="BR3" s="50"/>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="50"/>
-      <c r="BU3" s="50"/>
-      <c r="BV3" s="50"/>
-      <c r="BW3" s="51" t="s">
+      <c r="BL3" s="53"/>
+      <c r="BM3" s="53"/>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="53"/>
+      <c r="BP3" s="53"/>
+      <c r="BQ3" s="53"/>
+      <c r="BR3" s="53"/>
+      <c r="BS3" s="53"/>
+      <c r="BT3" s="53"/>
+      <c r="BU3" s="53"/>
+      <c r="BV3" s="53"/>
+      <c r="BW3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="BX3" s="51"/>
-      <c r="BY3" s="51"/>
-      <c r="BZ3" s="51"/>
-      <c r="CA3" s="51"/>
-      <c r="CB3" s="51"/>
-      <c r="CC3" s="51"/>
-      <c r="CD3" s="51"/>
-      <c r="CE3" s="51"/>
-      <c r="CF3" s="51"/>
-      <c r="CG3" s="51"/>
-      <c r="CH3" s="51"/>
-      <c r="CI3" s="56" t="s">
+      <c r="BX3" s="54"/>
+      <c r="BY3" s="54"/>
+      <c r="BZ3" s="54"/>
+      <c r="CA3" s="54"/>
+      <c r="CB3" s="54"/>
+      <c r="CC3" s="54"/>
+      <c r="CD3" s="54"/>
+      <c r="CE3" s="54"/>
+      <c r="CF3" s="54"/>
+      <c r="CG3" s="54"/>
+      <c r="CH3" s="54"/>
+      <c r="CI3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="CJ3" s="56"/>
-      <c r="CK3" s="56"/>
-      <c r="CL3" s="56"/>
-      <c r="CM3" s="56"/>
-      <c r="CN3" s="56"/>
-      <c r="CO3" s="56"/>
-      <c r="CP3" s="56"/>
-      <c r="CQ3" s="56"/>
-      <c r="CR3" s="56"/>
-      <c r="CS3" s="56"/>
-      <c r="CT3" s="56"/>
+      <c r="CJ3" s="48"/>
+      <c r="CK3" s="48"/>
+      <c r="CL3" s="48"/>
+      <c r="CM3" s="48"/>
+      <c r="CN3" s="48"/>
+      <c r="CO3" s="48"/>
+      <c r="CP3" s="48"/>
+      <c r="CQ3" s="48"/>
+      <c r="CR3" s="48"/>
+      <c r="CS3" s="48"/>
+      <c r="CT3" s="48"/>
+      <c r="CU3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV3" s="58"/>
+      <c r="CW3" s="58"/>
+      <c r="CX3" s="58"/>
+      <c r="CY3" s="58"/>
+      <c r="CZ3" s="58"/>
+      <c r="DA3" s="58"/>
+      <c r="DB3" s="58"/>
+      <c r="DC3" s="58"/>
+      <c r="DD3" s="58"/>
+      <c r="DE3" s="58"/>
+      <c r="DF3" s="58"/>
     </row>
-    <row r="4" spans="1:98" s="9" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:110" s="9" customFormat="1">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -1808,46 +1880,82 @@
       <c r="CH4" s="16">
         <v>12</v>
       </c>
-      <c r="CI4" s="57">
+      <c r="CI4" s="44">
         <v>1</v>
       </c>
-      <c r="CJ4" s="58">
+      <c r="CJ4" s="45">
         <v>2</v>
       </c>
-      <c r="CK4" s="58">
+      <c r="CK4" s="45">
         <v>3</v>
       </c>
-      <c r="CL4" s="58">
+      <c r="CL4" s="45">
         <v>4</v>
       </c>
-      <c r="CM4" s="58">
+      <c r="CM4" s="45">
         <v>5</v>
       </c>
-      <c r="CN4" s="58">
+      <c r="CN4" s="45">
         <v>6</v>
       </c>
-      <c r="CO4" s="58">
+      <c r="CO4" s="45">
         <v>7</v>
       </c>
-      <c r="CP4" s="58">
+      <c r="CP4" s="45">
         <v>8</v>
       </c>
-      <c r="CQ4" s="58">
+      <c r="CQ4" s="45">
         <v>9</v>
       </c>
-      <c r="CR4" s="58">
+      <c r="CR4" s="45">
         <v>10</v>
       </c>
-      <c r="CS4" s="58">
+      <c r="CS4" s="45">
         <v>11</v>
       </c>
-      <c r="CT4" s="58">
+      <c r="CT4" s="45">
         <v>12</v>
       </c>
+      <c r="CU4" s="5">
+        <v>1</v>
+      </c>
+      <c r="CV4" s="13">
+        <v>2</v>
+      </c>
+      <c r="CW4" s="13">
+        <v>3</v>
+      </c>
+      <c r="CX4" s="13">
+        <v>4</v>
+      </c>
+      <c r="CY4" s="13">
+        <v>5</v>
+      </c>
+      <c r="CZ4" s="13">
+        <v>6</v>
+      </c>
+      <c r="DA4" s="13">
+        <v>7</v>
+      </c>
+      <c r="DB4" s="13">
+        <v>8</v>
+      </c>
+      <c r="DC4" s="13">
+        <v>9</v>
+      </c>
+      <c r="DD4" s="13">
+        <v>10</v>
+      </c>
+      <c r="DE4" s="13">
+        <v>11</v>
+      </c>
+      <c r="DF4" s="13">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:98" s="9" customFormat="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:110" s="9" customFormat="1">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
@@ -2100,45 +2208,81 @@
       <c r="CH5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CI5" s="59" t="s">
+      <c r="CI5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="CJ5" s="60" t="s">
+      <c r="CJ5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="CK5" s="60" t="s">
+      <c r="CK5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="CL5" s="60" t="s">
+      <c r="CL5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="CM5" s="60" t="s">
+      <c r="CM5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="CN5" s="60" t="s">
+      <c r="CN5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="CO5" s="60" t="s">
+      <c r="CO5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="CP5" s="60" t="s">
+      <c r="CP5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="CQ5" s="60" t="s">
+      <c r="CQ5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="CR5" s="60" t="s">
+      <c r="CR5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="CS5" s="60" t="s">
+      <c r="CS5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="CT5" s="60" t="s">
+      <c r="CT5" s="47" t="s">
         <v>21</v>
       </c>
+      <c r="CU5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="CX5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="CZ5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="DA5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="DB5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="DC5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="DD5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="DE5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="DF5" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:98">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:110">
+      <c r="A6" s="49" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -2240,9 +2384,21 @@
       <c r="CR6" s="33"/>
       <c r="CS6" s="33"/>
       <c r="CT6" s="33"/>
+      <c r="CU6" s="33"/>
+      <c r="CV6" s="33"/>
+      <c r="CW6" s="33"/>
+      <c r="CX6" s="33"/>
+      <c r="CY6" s="33"/>
+      <c r="CZ6" s="33"/>
+      <c r="DA6" s="33"/>
+      <c r="DB6" s="33"/>
+      <c r="DC6" s="33"/>
+      <c r="DD6" s="33"/>
+      <c r="DE6" s="33"/>
+      <c r="DF6" s="33"/>
     </row>
-    <row r="7" spans="1:98">
-      <c r="A7" s="54"/>
+    <row r="7" spans="1:110">
+      <c r="A7" s="50"/>
       <c r="B7" s="31" t="s">
         <v>23</v>
       </c>
@@ -2342,9 +2498,21 @@
       <c r="CR7" s="33"/>
       <c r="CS7" s="33"/>
       <c r="CT7" s="33"/>
+      <c r="CU7" s="33"/>
+      <c r="CV7" s="33"/>
+      <c r="CW7" s="33"/>
+      <c r="CX7" s="33"/>
+      <c r="CY7" s="33"/>
+      <c r="CZ7" s="33"/>
+      <c r="DA7" s="33"/>
+      <c r="DB7" s="33"/>
+      <c r="DC7" s="33"/>
+      <c r="DD7" s="33"/>
+      <c r="DE7" s="33"/>
+      <c r="DF7" s="33"/>
     </row>
-    <row r="8" spans="1:98">
-      <c r="A8" s="55"/>
+    <row r="8" spans="1:110">
+      <c r="A8" s="51"/>
       <c r="B8" s="31" t="s">
         <v>24</v>
       </c>
@@ -2444,9 +2612,21 @@
       <c r="CR8" s="33"/>
       <c r="CS8" s="33"/>
       <c r="CT8" s="33"/>
+      <c r="CU8" s="33"/>
+      <c r="CV8" s="33"/>
+      <c r="CW8" s="33"/>
+      <c r="CX8" s="33"/>
+      <c r="CY8" s="33"/>
+      <c r="CZ8" s="33"/>
+      <c r="DA8" s="33"/>
+      <c r="DB8" s="33"/>
+      <c r="DC8" s="33"/>
+      <c r="DD8" s="33"/>
+      <c r="DE8" s="33"/>
+      <c r="DF8" s="33"/>
     </row>
-    <row r="9" spans="1:98">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:110">
+      <c r="A9" s="49"/>
       <c r="B9" s="31" t="s">
         <v>22</v>
       </c>
@@ -2546,9 +2726,21 @@
       <c r="CR9" s="33"/>
       <c r="CS9" s="33"/>
       <c r="CT9" s="33"/>
+      <c r="CU9" s="33"/>
+      <c r="CV9" s="33"/>
+      <c r="CW9" s="33"/>
+      <c r="CX9" s="33"/>
+      <c r="CY9" s="33"/>
+      <c r="CZ9" s="33"/>
+      <c r="DA9" s="33"/>
+      <c r="DB9" s="33"/>
+      <c r="DC9" s="33"/>
+      <c r="DD9" s="33"/>
+      <c r="DE9" s="33"/>
+      <c r="DF9" s="33"/>
     </row>
-    <row r="10" spans="1:98">
-      <c r="A10" s="54"/>
+    <row r="10" spans="1:110">
+      <c r="A10" s="50"/>
       <c r="B10" s="31" t="s">
         <v>23</v>
       </c>
@@ -2648,9 +2840,21 @@
       <c r="CR10" s="33"/>
       <c r="CS10" s="33"/>
       <c r="CT10" s="33"/>
+      <c r="CU10" s="33"/>
+      <c r="CV10" s="33"/>
+      <c r="CW10" s="33"/>
+      <c r="CX10" s="33"/>
+      <c r="CY10" s="33"/>
+      <c r="CZ10" s="33"/>
+      <c r="DA10" s="33"/>
+      <c r="DB10" s="33"/>
+      <c r="DC10" s="33"/>
+      <c r="DD10" s="33"/>
+      <c r="DE10" s="33"/>
+      <c r="DF10" s="33"/>
     </row>
-    <row r="11" spans="1:98">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:110">
+      <c r="A11" s="51"/>
       <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
@@ -2750,9 +2954,21 @@
       <c r="CR11" s="33"/>
       <c r="CS11" s="33"/>
       <c r="CT11" s="33"/>
+      <c r="CU11" s="33"/>
+      <c r="CV11" s="33"/>
+      <c r="CW11" s="33"/>
+      <c r="CX11" s="33"/>
+      <c r="CY11" s="33"/>
+      <c r="CZ11" s="33"/>
+      <c r="DA11" s="33"/>
+      <c r="DB11" s="33"/>
+      <c r="DC11" s="33"/>
+      <c r="DD11" s="33"/>
+      <c r="DE11" s="33"/>
+      <c r="DF11" s="33"/>
     </row>
-    <row r="12" spans="1:98">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:110">
+      <c r="A12" s="49"/>
       <c r="B12" s="31" t="s">
         <v>22</v>
       </c>
@@ -2852,9 +3068,21 @@
       <c r="CR12" s="33"/>
       <c r="CS12" s="33"/>
       <c r="CT12" s="33"/>
+      <c r="CU12" s="33"/>
+      <c r="CV12" s="33"/>
+      <c r="CW12" s="33"/>
+      <c r="CX12" s="33"/>
+      <c r="CY12" s="33"/>
+      <c r="CZ12" s="33"/>
+      <c r="DA12" s="33"/>
+      <c r="DB12" s="33"/>
+      <c r="DC12" s="33"/>
+      <c r="DD12" s="33"/>
+      <c r="DE12" s="33"/>
+      <c r="DF12" s="33"/>
     </row>
-    <row r="13" spans="1:98">
-      <c r="A13" s="54"/>
+    <row r="13" spans="1:110">
+      <c r="A13" s="50"/>
       <c r="B13" s="31" t="s">
         <v>23</v>
       </c>
@@ -2954,9 +3182,21 @@
       <c r="CR13" s="33"/>
       <c r="CS13" s="33"/>
       <c r="CT13" s="33"/>
+      <c r="CU13" s="33"/>
+      <c r="CV13" s="33"/>
+      <c r="CW13" s="33"/>
+      <c r="CX13" s="33"/>
+      <c r="CY13" s="33"/>
+      <c r="CZ13" s="33"/>
+      <c r="DA13" s="33"/>
+      <c r="DB13" s="33"/>
+      <c r="DC13" s="33"/>
+      <c r="DD13" s="33"/>
+      <c r="DE13" s="33"/>
+      <c r="DF13" s="33"/>
     </row>
-    <row r="14" spans="1:98">
-      <c r="A14" s="55"/>
+    <row r="14" spans="1:110">
+      <c r="A14" s="51"/>
       <c r="B14" s="31" t="s">
         <v>24</v>
       </c>
@@ -3056,9 +3296,21 @@
       <c r="CR14" s="33"/>
       <c r="CS14" s="33"/>
       <c r="CT14" s="33"/>
+      <c r="CU14" s="33"/>
+      <c r="CV14" s="33"/>
+      <c r="CW14" s="33"/>
+      <c r="CX14" s="33"/>
+      <c r="CY14" s="33"/>
+      <c r="CZ14" s="33"/>
+      <c r="DA14" s="33"/>
+      <c r="DB14" s="33"/>
+      <c r="DC14" s="33"/>
+      <c r="DD14" s="33"/>
+      <c r="DE14" s="33"/>
+      <c r="DF14" s="33"/>
     </row>
-    <row r="15" spans="1:98">
-      <c r="A15" s="53"/>
+    <row r="15" spans="1:110">
+      <c r="A15" s="49"/>
       <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
@@ -3158,9 +3410,21 @@
       <c r="CR15" s="33"/>
       <c r="CS15" s="33"/>
       <c r="CT15" s="33"/>
+      <c r="CU15" s="33"/>
+      <c r="CV15" s="33"/>
+      <c r="CW15" s="33"/>
+      <c r="CX15" s="33"/>
+      <c r="CY15" s="33"/>
+      <c r="CZ15" s="33"/>
+      <c r="DA15" s="33"/>
+      <c r="DB15" s="33"/>
+      <c r="DC15" s="33"/>
+      <c r="DD15" s="33"/>
+      <c r="DE15" s="33"/>
+      <c r="DF15" s="33"/>
     </row>
-    <row r="16" spans="1:98">
-      <c r="A16" s="54"/>
+    <row r="16" spans="1:110">
+      <c r="A16" s="50"/>
       <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
@@ -3260,9 +3524,21 @@
       <c r="CR16" s="33"/>
       <c r="CS16" s="33"/>
       <c r="CT16" s="33"/>
+      <c r="CU16" s="33"/>
+      <c r="CV16" s="33"/>
+      <c r="CW16" s="33"/>
+      <c r="CX16" s="33"/>
+      <c r="CY16" s="33"/>
+      <c r="CZ16" s="33"/>
+      <c r="DA16" s="33"/>
+      <c r="DB16" s="33"/>
+      <c r="DC16" s="33"/>
+      <c r="DD16" s="33"/>
+      <c r="DE16" s="33"/>
+      <c r="DF16" s="33"/>
     </row>
-    <row r="17" spans="1:98">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:110">
+      <c r="A17" s="51"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
       </c>
@@ -3362,9 +3638,21 @@
       <c r="CR17" s="33"/>
       <c r="CS17" s="33"/>
       <c r="CT17" s="33"/>
+      <c r="CU17" s="33"/>
+      <c r="CV17" s="33"/>
+      <c r="CW17" s="33"/>
+      <c r="CX17" s="33"/>
+      <c r="CY17" s="33"/>
+      <c r="CZ17" s="33"/>
+      <c r="DA17" s="33"/>
+      <c r="DB17" s="33"/>
+      <c r="DC17" s="33"/>
+      <c r="DD17" s="33"/>
+      <c r="DE17" s="33"/>
+      <c r="DF17" s="33"/>
     </row>
-    <row r="18" spans="1:98">
-      <c r="A18" s="53"/>
+    <row r="18" spans="1:110">
+      <c r="A18" s="49"/>
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
@@ -3464,9 +3752,21 @@
       <c r="CR18" s="33"/>
       <c r="CS18" s="33"/>
       <c r="CT18" s="33"/>
+      <c r="CU18" s="33"/>
+      <c r="CV18" s="33"/>
+      <c r="CW18" s="33"/>
+      <c r="CX18" s="33"/>
+      <c r="CY18" s="33"/>
+      <c r="CZ18" s="33"/>
+      <c r="DA18" s="33"/>
+      <c r="DB18" s="33"/>
+      <c r="DC18" s="33"/>
+      <c r="DD18" s="33"/>
+      <c r="DE18" s="33"/>
+      <c r="DF18" s="33"/>
     </row>
-    <row r="19" spans="1:98">
-      <c r="A19" s="54"/>
+    <row r="19" spans="1:110">
+      <c r="A19" s="50"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
@@ -3566,9 +3866,21 @@
       <c r="CR19" s="33"/>
       <c r="CS19" s="33"/>
       <c r="CT19" s="33"/>
+      <c r="CU19" s="33"/>
+      <c r="CV19" s="33"/>
+      <c r="CW19" s="33"/>
+      <c r="CX19" s="33"/>
+      <c r="CY19" s="33"/>
+      <c r="CZ19" s="33"/>
+      <c r="DA19" s="33"/>
+      <c r="DB19" s="33"/>
+      <c r="DC19" s="33"/>
+      <c r="DD19" s="33"/>
+      <c r="DE19" s="33"/>
+      <c r="DF19" s="33"/>
     </row>
-    <row r="20" spans="1:98">
-      <c r="A20" s="55"/>
+    <row r="20" spans="1:110">
+      <c r="A20" s="51"/>
       <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
@@ -3668,9 +3980,21 @@
       <c r="CR20" s="33"/>
       <c r="CS20" s="33"/>
       <c r="CT20" s="33"/>
+      <c r="CU20" s="33"/>
+      <c r="CV20" s="33"/>
+      <c r="CW20" s="33"/>
+      <c r="CX20" s="33"/>
+      <c r="CY20" s="33"/>
+      <c r="CZ20" s="33"/>
+      <c r="DA20" s="33"/>
+      <c r="DB20" s="33"/>
+      <c r="DC20" s="33"/>
+      <c r="DD20" s="33"/>
+      <c r="DE20" s="33"/>
+      <c r="DF20" s="33"/>
     </row>
-    <row r="21" spans="1:98">
-      <c r="A21" s="53"/>
+    <row r="21" spans="1:110">
+      <c r="A21" s="49"/>
       <c r="B21" s="31" t="s">
         <v>22</v>
       </c>
@@ -3770,9 +4094,21 @@
       <c r="CR21" s="33"/>
       <c r="CS21" s="33"/>
       <c r="CT21" s="33"/>
+      <c r="CU21" s="33"/>
+      <c r="CV21" s="33"/>
+      <c r="CW21" s="33"/>
+      <c r="CX21" s="33"/>
+      <c r="CY21" s="33"/>
+      <c r="CZ21" s="33"/>
+      <c r="DA21" s="33"/>
+      <c r="DB21" s="33"/>
+      <c r="DC21" s="33"/>
+      <c r="DD21" s="33"/>
+      <c r="DE21" s="33"/>
+      <c r="DF21" s="33"/>
     </row>
-    <row r="22" spans="1:98">
-      <c r="A22" s="54"/>
+    <row r="22" spans="1:110">
+      <c r="A22" s="50"/>
       <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
@@ -3872,9 +4208,21 @@
       <c r="CR22" s="33"/>
       <c r="CS22" s="33"/>
       <c r="CT22" s="33"/>
+      <c r="CU22" s="33"/>
+      <c r="CV22" s="33"/>
+      <c r="CW22" s="33"/>
+      <c r="CX22" s="33"/>
+      <c r="CY22" s="33"/>
+      <c r="CZ22" s="33"/>
+      <c r="DA22" s="33"/>
+      <c r="DB22" s="33"/>
+      <c r="DC22" s="33"/>
+      <c r="DD22" s="33"/>
+      <c r="DE22" s="33"/>
+      <c r="DF22" s="33"/>
     </row>
-    <row r="23" spans="1:98">
-      <c r="A23" s="55"/>
+    <row r="23" spans="1:110">
+      <c r="A23" s="51"/>
       <c r="B23" s="31" t="s">
         <v>24</v>
       </c>
@@ -3974,9 +4322,21 @@
       <c r="CR23" s="33"/>
       <c r="CS23" s="33"/>
       <c r="CT23" s="33"/>
+      <c r="CU23" s="33"/>
+      <c r="CV23" s="33"/>
+      <c r="CW23" s="33"/>
+      <c r="CX23" s="33"/>
+      <c r="CY23" s="33"/>
+      <c r="CZ23" s="33"/>
+      <c r="DA23" s="33"/>
+      <c r="DB23" s="33"/>
+      <c r="DC23" s="33"/>
+      <c r="DD23" s="33"/>
+      <c r="DE23" s="33"/>
+      <c r="DF23" s="33"/>
     </row>
-    <row r="24" spans="1:98">
-      <c r="A24" s="53"/>
+    <row r="24" spans="1:110">
+      <c r="A24" s="49"/>
       <c r="B24" s="31" t="s">
         <v>22</v>
       </c>
@@ -4076,9 +4436,21 @@
       <c r="CR24" s="33"/>
       <c r="CS24" s="33"/>
       <c r="CT24" s="33"/>
+      <c r="CU24" s="33"/>
+      <c r="CV24" s="33"/>
+      <c r="CW24" s="33"/>
+      <c r="CX24" s="33"/>
+      <c r="CY24" s="33"/>
+      <c r="CZ24" s="33"/>
+      <c r="DA24" s="33"/>
+      <c r="DB24" s="33"/>
+      <c r="DC24" s="33"/>
+      <c r="DD24" s="33"/>
+      <c r="DE24" s="33"/>
+      <c r="DF24" s="33"/>
     </row>
-    <row r="25" spans="1:98">
-      <c r="A25" s="54"/>
+    <row r="25" spans="1:110">
+      <c r="A25" s="50"/>
       <c r="B25" s="31" t="s">
         <v>23</v>
       </c>
@@ -4178,9 +4550,21 @@
       <c r="CR25" s="33"/>
       <c r="CS25" s="33"/>
       <c r="CT25" s="33"/>
+      <c r="CU25" s="33"/>
+      <c r="CV25" s="33"/>
+      <c r="CW25" s="33"/>
+      <c r="CX25" s="33"/>
+      <c r="CY25" s="33"/>
+      <c r="CZ25" s="33"/>
+      <c r="DA25" s="33"/>
+      <c r="DB25" s="33"/>
+      <c r="DC25" s="33"/>
+      <c r="DD25" s="33"/>
+      <c r="DE25" s="33"/>
+      <c r="DF25" s="33"/>
     </row>
-    <row r="26" spans="1:98">
-      <c r="A26" s="55"/>
+    <row r="26" spans="1:110">
+      <c r="A26" s="51"/>
       <c r="B26" s="31" t="s">
         <v>24</v>
       </c>
@@ -4280,9 +4664,21 @@
       <c r="CR26" s="33"/>
       <c r="CS26" s="33"/>
       <c r="CT26" s="33"/>
+      <c r="CU26" s="33"/>
+      <c r="CV26" s="33"/>
+      <c r="CW26" s="33"/>
+      <c r="CX26" s="33"/>
+      <c r="CY26" s="33"/>
+      <c r="CZ26" s="33"/>
+      <c r="DA26" s="33"/>
+      <c r="DB26" s="33"/>
+      <c r="DC26" s="33"/>
+      <c r="DD26" s="33"/>
+      <c r="DE26" s="33"/>
+      <c r="DF26" s="33"/>
     </row>
-    <row r="27" spans="1:98">
-      <c r="A27" s="53"/>
+    <row r="27" spans="1:110">
+      <c r="A27" s="49"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
       </c>
@@ -4382,9 +4778,21 @@
       <c r="CR27" s="33"/>
       <c r="CS27" s="33"/>
       <c r="CT27" s="33"/>
+      <c r="CU27" s="33"/>
+      <c r="CV27" s="33"/>
+      <c r="CW27" s="33"/>
+      <c r="CX27" s="33"/>
+      <c r="CY27" s="33"/>
+      <c r="CZ27" s="33"/>
+      <c r="DA27" s="33"/>
+      <c r="DB27" s="33"/>
+      <c r="DC27" s="33"/>
+      <c r="DD27" s="33"/>
+      <c r="DE27" s="33"/>
+      <c r="DF27" s="33"/>
     </row>
-    <row r="28" spans="1:98">
-      <c r="A28" s="54"/>
+    <row r="28" spans="1:110">
+      <c r="A28" s="50"/>
       <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
@@ -4484,9 +4892,21 @@
       <c r="CR28" s="33"/>
       <c r="CS28" s="33"/>
       <c r="CT28" s="33"/>
+      <c r="CU28" s="33"/>
+      <c r="CV28" s="33"/>
+      <c r="CW28" s="33"/>
+      <c r="CX28" s="33"/>
+      <c r="CY28" s="33"/>
+      <c r="CZ28" s="33"/>
+      <c r="DA28" s="33"/>
+      <c r="DB28" s="33"/>
+      <c r="DC28" s="33"/>
+      <c r="DD28" s="33"/>
+      <c r="DE28" s="33"/>
+      <c r="DF28" s="33"/>
     </row>
-    <row r="29" spans="1:98">
-      <c r="A29" s="55"/>
+    <row r="29" spans="1:110">
+      <c r="A29" s="51"/>
       <c r="B29" s="31" t="s">
         <v>24</v>
       </c>
@@ -4586,9 +5006,21 @@
       <c r="CR29" s="33"/>
       <c r="CS29" s="33"/>
       <c r="CT29" s="33"/>
+      <c r="CU29" s="33"/>
+      <c r="CV29" s="33"/>
+      <c r="CW29" s="33"/>
+      <c r="CX29" s="33"/>
+      <c r="CY29" s="33"/>
+      <c r="CZ29" s="33"/>
+      <c r="DA29" s="33"/>
+      <c r="DB29" s="33"/>
+      <c r="DC29" s="33"/>
+      <c r="DD29" s="33"/>
+      <c r="DE29" s="33"/>
+      <c r="DF29" s="33"/>
     </row>
-    <row r="30" spans="1:98">
-      <c r="A30" s="53"/>
+    <row r="30" spans="1:110">
+      <c r="A30" s="49"/>
       <c r="B30" s="31" t="s">
         <v>22</v>
       </c>
@@ -4688,9 +5120,21 @@
       <c r="CR30" s="33"/>
       <c r="CS30" s="33"/>
       <c r="CT30" s="33"/>
+      <c r="CU30" s="33"/>
+      <c r="CV30" s="33"/>
+      <c r="CW30" s="33"/>
+      <c r="CX30" s="33"/>
+      <c r="CY30" s="33"/>
+      <c r="CZ30" s="33"/>
+      <c r="DA30" s="33"/>
+      <c r="DB30" s="33"/>
+      <c r="DC30" s="33"/>
+      <c r="DD30" s="33"/>
+      <c r="DE30" s="33"/>
+      <c r="DF30" s="33"/>
     </row>
-    <row r="31" spans="1:98">
-      <c r="A31" s="54"/>
+    <row r="31" spans="1:110">
+      <c r="A31" s="50"/>
       <c r="B31" s="31" t="s">
         <v>23</v>
       </c>
@@ -4790,9 +5234,21 @@
       <c r="CR31" s="33"/>
       <c r="CS31" s="33"/>
       <c r="CT31" s="33"/>
+      <c r="CU31" s="33"/>
+      <c r="CV31" s="33"/>
+      <c r="CW31" s="33"/>
+      <c r="CX31" s="33"/>
+      <c r="CY31" s="33"/>
+      <c r="CZ31" s="33"/>
+      <c r="DA31" s="33"/>
+      <c r="DB31" s="33"/>
+      <c r="DC31" s="33"/>
+      <c r="DD31" s="33"/>
+      <c r="DE31" s="33"/>
+      <c r="DF31" s="33"/>
     </row>
-    <row r="32" spans="1:98">
-      <c r="A32" s="55"/>
+    <row r="32" spans="1:110">
+      <c r="A32" s="51"/>
       <c r="B32" s="31" t="s">
         <v>24</v>
       </c>
@@ -4892,9 +5348,21 @@
       <c r="CR32" s="33"/>
       <c r="CS32" s="33"/>
       <c r="CT32" s="33"/>
+      <c r="CU32" s="33"/>
+      <c r="CV32" s="33"/>
+      <c r="CW32" s="33"/>
+      <c r="CX32" s="33"/>
+      <c r="CY32" s="33"/>
+      <c r="CZ32" s="33"/>
+      <c r="DA32" s="33"/>
+      <c r="DB32" s="33"/>
+      <c r="DC32" s="33"/>
+      <c r="DD32" s="33"/>
+      <c r="DE32" s="33"/>
+      <c r="DF32" s="33"/>
     </row>
-    <row r="33" spans="1:98">
-      <c r="A33" s="53"/>
+    <row r="33" spans="1:110">
+      <c r="A33" s="49"/>
       <c r="B33" s="31" t="s">
         <v>22</v>
       </c>
@@ -4994,9 +5462,21 @@
       <c r="CR33" s="33"/>
       <c r="CS33" s="33"/>
       <c r="CT33" s="33"/>
+      <c r="CU33" s="33"/>
+      <c r="CV33" s="33"/>
+      <c r="CW33" s="33"/>
+      <c r="CX33" s="33"/>
+      <c r="CY33" s="33"/>
+      <c r="CZ33" s="33"/>
+      <c r="DA33" s="33"/>
+      <c r="DB33" s="33"/>
+      <c r="DC33" s="33"/>
+      <c r="DD33" s="33"/>
+      <c r="DE33" s="33"/>
+      <c r="DF33" s="33"/>
     </row>
-    <row r="34" spans="1:98">
-      <c r="A34" s="54"/>
+    <row r="34" spans="1:110">
+      <c r="A34" s="50"/>
       <c r="B34" s="31" t="s">
         <v>23</v>
       </c>
@@ -5096,9 +5576,21 @@
       <c r="CR34" s="33"/>
       <c r="CS34" s="33"/>
       <c r="CT34" s="33"/>
+      <c r="CU34" s="33"/>
+      <c r="CV34" s="33"/>
+      <c r="CW34" s="33"/>
+      <c r="CX34" s="33"/>
+      <c r="CY34" s="33"/>
+      <c r="CZ34" s="33"/>
+      <c r="DA34" s="33"/>
+      <c r="DB34" s="33"/>
+      <c r="DC34" s="33"/>
+      <c r="DD34" s="33"/>
+      <c r="DE34" s="33"/>
+      <c r="DF34" s="33"/>
     </row>
-    <row r="35" spans="1:98">
-      <c r="A35" s="55"/>
+    <row r="35" spans="1:110">
+      <c r="A35" s="51"/>
       <c r="B35" s="31" t="s">
         <v>24</v>
       </c>
@@ -5198,9 +5690,21 @@
       <c r="CR35" s="33"/>
       <c r="CS35" s="33"/>
       <c r="CT35" s="33"/>
+      <c r="CU35" s="33"/>
+      <c r="CV35" s="33"/>
+      <c r="CW35" s="33"/>
+      <c r="CX35" s="33"/>
+      <c r="CY35" s="33"/>
+      <c r="CZ35" s="33"/>
+      <c r="DA35" s="33"/>
+      <c r="DB35" s="33"/>
+      <c r="DC35" s="33"/>
+      <c r="DD35" s="33"/>
+      <c r="DE35" s="33"/>
+      <c r="DF35" s="33"/>
     </row>
-    <row r="36" spans="1:98">
-      <c r="A36" s="53"/>
+    <row r="36" spans="1:110">
+      <c r="A36" s="49"/>
       <c r="B36" s="31" t="s">
         <v>22</v>
       </c>
@@ -5300,9 +5804,21 @@
       <c r="CR36" s="33"/>
       <c r="CS36" s="33"/>
       <c r="CT36" s="33"/>
+      <c r="CU36" s="33"/>
+      <c r="CV36" s="33"/>
+      <c r="CW36" s="33"/>
+      <c r="CX36" s="33"/>
+      <c r="CY36" s="33"/>
+      <c r="CZ36" s="33"/>
+      <c r="DA36" s="33"/>
+      <c r="DB36" s="33"/>
+      <c r="DC36" s="33"/>
+      <c r="DD36" s="33"/>
+      <c r="DE36" s="33"/>
+      <c r="DF36" s="33"/>
     </row>
-    <row r="37" spans="1:98">
-      <c r="A37" s="54"/>
+    <row r="37" spans="1:110">
+      <c r="A37" s="50"/>
       <c r="B37" s="31" t="s">
         <v>23</v>
       </c>
@@ -5402,9 +5918,21 @@
       <c r="CR37" s="33"/>
       <c r="CS37" s="33"/>
       <c r="CT37" s="33"/>
+      <c r="CU37" s="33"/>
+      <c r="CV37" s="33"/>
+      <c r="CW37" s="33"/>
+      <c r="CX37" s="33"/>
+      <c r="CY37" s="33"/>
+      <c r="CZ37" s="33"/>
+      <c r="DA37" s="33"/>
+      <c r="DB37" s="33"/>
+      <c r="DC37" s="33"/>
+      <c r="DD37" s="33"/>
+      <c r="DE37" s="33"/>
+      <c r="DF37" s="33"/>
     </row>
-    <row r="38" spans="1:98">
-      <c r="A38" s="55"/>
+    <row r="38" spans="1:110">
+      <c r="A38" s="51"/>
       <c r="B38" s="31" t="s">
         <v>24</v>
       </c>
@@ -5504,9 +6032,21 @@
       <c r="CR38" s="33"/>
       <c r="CS38" s="33"/>
       <c r="CT38" s="33"/>
+      <c r="CU38" s="33"/>
+      <c r="CV38" s="33"/>
+      <c r="CW38" s="33"/>
+      <c r="CX38" s="33"/>
+      <c r="CY38" s="33"/>
+      <c r="CZ38" s="33"/>
+      <c r="DA38" s="33"/>
+      <c r="DB38" s="33"/>
+      <c r="DC38" s="33"/>
+      <c r="DD38" s="33"/>
+      <c r="DE38" s="33"/>
+      <c r="DF38" s="33"/>
     </row>
-    <row r="39" spans="1:98">
-      <c r="A39" s="53"/>
+    <row r="39" spans="1:110">
+      <c r="A39" s="49"/>
       <c r="B39" s="31" t="s">
         <v>22</v>
       </c>
@@ -5606,9 +6146,21 @@
       <c r="CR39" s="33"/>
       <c r="CS39" s="33"/>
       <c r="CT39" s="33"/>
+      <c r="CU39" s="33"/>
+      <c r="CV39" s="33"/>
+      <c r="CW39" s="33"/>
+      <c r="CX39" s="33"/>
+      <c r="CY39" s="33"/>
+      <c r="CZ39" s="33"/>
+      <c r="DA39" s="33"/>
+      <c r="DB39" s="33"/>
+      <c r="DC39" s="33"/>
+      <c r="DD39" s="33"/>
+      <c r="DE39" s="33"/>
+      <c r="DF39" s="33"/>
     </row>
-    <row r="40" spans="1:98">
-      <c r="A40" s="54"/>
+    <row r="40" spans="1:110">
+      <c r="A40" s="50"/>
       <c r="B40" s="31" t="s">
         <v>23</v>
       </c>
@@ -5708,9 +6260,21 @@
       <c r="CR40" s="33"/>
       <c r="CS40" s="33"/>
       <c r="CT40" s="33"/>
+      <c r="CU40" s="33"/>
+      <c r="CV40" s="33"/>
+      <c r="CW40" s="33"/>
+      <c r="CX40" s="33"/>
+      <c r="CY40" s="33"/>
+      <c r="CZ40" s="33"/>
+      <c r="DA40" s="33"/>
+      <c r="DB40" s="33"/>
+      <c r="DC40" s="33"/>
+      <c r="DD40" s="33"/>
+      <c r="DE40" s="33"/>
+      <c r="DF40" s="33"/>
     </row>
-    <row r="41" spans="1:98">
-      <c r="A41" s="55"/>
+    <row r="41" spans="1:110">
+      <c r="A41" s="51"/>
       <c r="B41" s="31" t="s">
         <v>24</v>
       </c>
@@ -5810,9 +6374,21 @@
       <c r="CR41" s="33"/>
       <c r="CS41" s="33"/>
       <c r="CT41" s="33"/>
+      <c r="CU41" s="33"/>
+      <c r="CV41" s="33"/>
+      <c r="CW41" s="33"/>
+      <c r="CX41" s="33"/>
+      <c r="CY41" s="33"/>
+      <c r="CZ41" s="33"/>
+      <c r="DA41" s="33"/>
+      <c r="DB41" s="33"/>
+      <c r="DC41" s="33"/>
+      <c r="DD41" s="33"/>
+      <c r="DE41" s="33"/>
+      <c r="DF41" s="33"/>
     </row>
-    <row r="42" spans="1:98">
-      <c r="A42" s="53"/>
+    <row r="42" spans="1:110">
+      <c r="A42" s="49"/>
       <c r="B42" s="31" t="s">
         <v>22</v>
       </c>
@@ -5912,9 +6488,21 @@
       <c r="CR42" s="33"/>
       <c r="CS42" s="33"/>
       <c r="CT42" s="33"/>
+      <c r="CU42" s="33"/>
+      <c r="CV42" s="33"/>
+      <c r="CW42" s="33"/>
+      <c r="CX42" s="33"/>
+      <c r="CY42" s="33"/>
+      <c r="CZ42" s="33"/>
+      <c r="DA42" s="33"/>
+      <c r="DB42" s="33"/>
+      <c r="DC42" s="33"/>
+      <c r="DD42" s="33"/>
+      <c r="DE42" s="33"/>
+      <c r="DF42" s="33"/>
     </row>
-    <row r="43" spans="1:98">
-      <c r="A43" s="54"/>
+    <row r="43" spans="1:110">
+      <c r="A43" s="50"/>
       <c r="B43" s="31" t="s">
         <v>23</v>
       </c>
@@ -6014,9 +6602,21 @@
       <c r="CR43" s="33"/>
       <c r="CS43" s="33"/>
       <c r="CT43" s="33"/>
+      <c r="CU43" s="33"/>
+      <c r="CV43" s="33"/>
+      <c r="CW43" s="33"/>
+      <c r="CX43" s="33"/>
+      <c r="CY43" s="33"/>
+      <c r="CZ43" s="33"/>
+      <c r="DA43" s="33"/>
+      <c r="DB43" s="33"/>
+      <c r="DC43" s="33"/>
+      <c r="DD43" s="33"/>
+      <c r="DE43" s="33"/>
+      <c r="DF43" s="33"/>
     </row>
-    <row r="44" spans="1:98">
-      <c r="A44" s="55"/>
+    <row r="44" spans="1:110">
+      <c r="A44" s="51"/>
       <c r="B44" s="31" t="s">
         <v>24</v>
       </c>
@@ -6116,9 +6716,21 @@
       <c r="CR44" s="33"/>
       <c r="CS44" s="33"/>
       <c r="CT44" s="33"/>
+      <c r="CU44" s="33"/>
+      <c r="CV44" s="33"/>
+      <c r="CW44" s="33"/>
+      <c r="CX44" s="33"/>
+      <c r="CY44" s="33"/>
+      <c r="CZ44" s="33"/>
+      <c r="DA44" s="33"/>
+      <c r="DB44" s="33"/>
+      <c r="DC44" s="33"/>
+      <c r="DD44" s="33"/>
+      <c r="DE44" s="33"/>
+      <c r="DF44" s="33"/>
     </row>
-    <row r="45" spans="1:98">
-      <c r="A45" s="53"/>
+    <row r="45" spans="1:110">
+      <c r="A45" s="49"/>
       <c r="B45" s="31" t="s">
         <v>22</v>
       </c>
@@ -6218,9 +6830,21 @@
       <c r="CR45" s="33"/>
       <c r="CS45" s="33"/>
       <c r="CT45" s="33"/>
+      <c r="CU45" s="33"/>
+      <c r="CV45" s="33"/>
+      <c r="CW45" s="33"/>
+      <c r="CX45" s="33"/>
+      <c r="CY45" s="33"/>
+      <c r="CZ45" s="33"/>
+      <c r="DA45" s="33"/>
+      <c r="DB45" s="33"/>
+      <c r="DC45" s="33"/>
+      <c r="DD45" s="33"/>
+      <c r="DE45" s="33"/>
+      <c r="DF45" s="33"/>
     </row>
-    <row r="46" spans="1:98">
-      <c r="A46" s="54"/>
+    <row r="46" spans="1:110">
+      <c r="A46" s="50"/>
       <c r="B46" s="31" t="s">
         <v>23</v>
       </c>
@@ -6320,9 +6944,21 @@
       <c r="CR46" s="33"/>
       <c r="CS46" s="33"/>
       <c r="CT46" s="33"/>
+      <c r="CU46" s="33"/>
+      <c r="CV46" s="33"/>
+      <c r="CW46" s="33"/>
+      <c r="CX46" s="33"/>
+      <c r="CY46" s="33"/>
+      <c r="CZ46" s="33"/>
+      <c r="DA46" s="33"/>
+      <c r="DB46" s="33"/>
+      <c r="DC46" s="33"/>
+      <c r="DD46" s="33"/>
+      <c r="DE46" s="33"/>
+      <c r="DF46" s="33"/>
     </row>
-    <row r="47" spans="1:98">
-      <c r="A47" s="55"/>
+    <row r="47" spans="1:110">
+      <c r="A47" s="51"/>
       <c r="B47" s="31" t="s">
         <v>24</v>
       </c>
@@ -6422,9 +7058,21 @@
       <c r="CR47" s="33"/>
       <c r="CS47" s="33"/>
       <c r="CT47" s="33"/>
+      <c r="CU47" s="33"/>
+      <c r="CV47" s="33"/>
+      <c r="CW47" s="33"/>
+      <c r="CX47" s="33"/>
+      <c r="CY47" s="33"/>
+      <c r="CZ47" s="33"/>
+      <c r="DA47" s="33"/>
+      <c r="DB47" s="33"/>
+      <c r="DC47" s="33"/>
+      <c r="DD47" s="33"/>
+      <c r="DE47" s="33"/>
+      <c r="DF47" s="33"/>
     </row>
-    <row r="48" spans="1:98">
-      <c r="A48" s="53"/>
+    <row r="48" spans="1:110">
+      <c r="A48" s="49"/>
       <c r="B48" s="31" t="s">
         <v>22</v>
       </c>
@@ -6524,9 +7172,21 @@
       <c r="CR48" s="33"/>
       <c r="CS48" s="33"/>
       <c r="CT48" s="33"/>
+      <c r="CU48" s="33"/>
+      <c r="CV48" s="33"/>
+      <c r="CW48" s="33"/>
+      <c r="CX48" s="33"/>
+      <c r="CY48" s="33"/>
+      <c r="CZ48" s="33"/>
+      <c r="DA48" s="33"/>
+      <c r="DB48" s="33"/>
+      <c r="DC48" s="33"/>
+      <c r="DD48" s="33"/>
+      <c r="DE48" s="33"/>
+      <c r="DF48" s="33"/>
     </row>
-    <row r="49" spans="1:98">
-      <c r="A49" s="54"/>
+    <row r="49" spans="1:110">
+      <c r="A49" s="50"/>
       <c r="B49" s="31" t="s">
         <v>23</v>
       </c>
@@ -6626,9 +7286,21 @@
       <c r="CR49" s="33"/>
       <c r="CS49" s="33"/>
       <c r="CT49" s="33"/>
+      <c r="CU49" s="33"/>
+      <c r="CV49" s="33"/>
+      <c r="CW49" s="33"/>
+      <c r="CX49" s="33"/>
+      <c r="CY49" s="33"/>
+      <c r="CZ49" s="33"/>
+      <c r="DA49" s="33"/>
+      <c r="DB49" s="33"/>
+      <c r="DC49" s="33"/>
+      <c r="DD49" s="33"/>
+      <c r="DE49" s="33"/>
+      <c r="DF49" s="33"/>
     </row>
-    <row r="50" spans="1:98">
-      <c r="A50" s="55"/>
+    <row r="50" spans="1:110">
+      <c r="A50" s="51"/>
       <c r="B50" s="31" t="s">
         <v>24</v>
       </c>
@@ -6728,9 +7400,21 @@
       <c r="CR50" s="33"/>
       <c r="CS50" s="33"/>
       <c r="CT50" s="33"/>
+      <c r="CU50" s="33"/>
+      <c r="CV50" s="33"/>
+      <c r="CW50" s="33"/>
+      <c r="CX50" s="33"/>
+      <c r="CY50" s="33"/>
+      <c r="CZ50" s="33"/>
+      <c r="DA50" s="33"/>
+      <c r="DB50" s="33"/>
+      <c r="DC50" s="33"/>
+      <c r="DD50" s="33"/>
+      <c r="DE50" s="33"/>
+      <c r="DF50" s="33"/>
     </row>
-    <row r="51" spans="1:98">
-      <c r="A51" s="53"/>
+    <row r="51" spans="1:110">
+      <c r="A51" s="49"/>
       <c r="B51" s="31" t="s">
         <v>22</v>
       </c>
@@ -6830,9 +7514,21 @@
       <c r="CR51" s="33"/>
       <c r="CS51" s="33"/>
       <c r="CT51" s="33"/>
+      <c r="CU51" s="33"/>
+      <c r="CV51" s="33"/>
+      <c r="CW51" s="33"/>
+      <c r="CX51" s="33"/>
+      <c r="CY51" s="33"/>
+      <c r="CZ51" s="33"/>
+      <c r="DA51" s="33"/>
+      <c r="DB51" s="33"/>
+      <c r="DC51" s="33"/>
+      <c r="DD51" s="33"/>
+      <c r="DE51" s="33"/>
+      <c r="DF51" s="33"/>
     </row>
-    <row r="52" spans="1:98">
-      <c r="A52" s="54"/>
+    <row r="52" spans="1:110">
+      <c r="A52" s="50"/>
       <c r="B52" s="31" t="s">
         <v>23</v>
       </c>
@@ -6932,9 +7628,21 @@
       <c r="CR52" s="33"/>
       <c r="CS52" s="33"/>
       <c r="CT52" s="33"/>
+      <c r="CU52" s="33"/>
+      <c r="CV52" s="33"/>
+      <c r="CW52" s="33"/>
+      <c r="CX52" s="33"/>
+      <c r="CY52" s="33"/>
+      <c r="CZ52" s="33"/>
+      <c r="DA52" s="33"/>
+      <c r="DB52" s="33"/>
+      <c r="DC52" s="33"/>
+      <c r="DD52" s="33"/>
+      <c r="DE52" s="33"/>
+      <c r="DF52" s="33"/>
     </row>
-    <row r="53" spans="1:98">
-      <c r="A53" s="55"/>
+    <row r="53" spans="1:110">
+      <c r="A53" s="51"/>
       <c r="B53" s="31" t="s">
         <v>24</v>
       </c>
@@ -7034,9 +7742,21 @@
       <c r="CR53" s="33"/>
       <c r="CS53" s="33"/>
       <c r="CT53" s="33"/>
+      <c r="CU53" s="33"/>
+      <c r="CV53" s="33"/>
+      <c r="CW53" s="33"/>
+      <c r="CX53" s="33"/>
+      <c r="CY53" s="33"/>
+      <c r="CZ53" s="33"/>
+      <c r="DA53" s="33"/>
+      <c r="DB53" s="33"/>
+      <c r="DC53" s="33"/>
+      <c r="DD53" s="33"/>
+      <c r="DE53" s="33"/>
+      <c r="DF53" s="33"/>
     </row>
-    <row r="54" spans="1:98">
-      <c r="A54" s="53"/>
+    <row r="54" spans="1:110">
+      <c r="A54" s="49"/>
       <c r="B54" s="31" t="s">
         <v>22</v>
       </c>
@@ -7136,9 +7856,21 @@
       <c r="CR54" s="33"/>
       <c r="CS54" s="33"/>
       <c r="CT54" s="33"/>
+      <c r="CU54" s="33"/>
+      <c r="CV54" s="33"/>
+      <c r="CW54" s="33"/>
+      <c r="CX54" s="33"/>
+      <c r="CY54" s="33"/>
+      <c r="CZ54" s="33"/>
+      <c r="DA54" s="33"/>
+      <c r="DB54" s="33"/>
+      <c r="DC54" s="33"/>
+      <c r="DD54" s="33"/>
+      <c r="DE54" s="33"/>
+      <c r="DF54" s="33"/>
     </row>
-    <row r="55" spans="1:98">
-      <c r="A55" s="54"/>
+    <row r="55" spans="1:110">
+      <c r="A55" s="50"/>
       <c r="B55" s="31" t="s">
         <v>23</v>
       </c>
@@ -7238,9 +7970,21 @@
       <c r="CR55" s="33"/>
       <c r="CS55" s="33"/>
       <c r="CT55" s="33"/>
+      <c r="CU55" s="33"/>
+      <c r="CV55" s="33"/>
+      <c r="CW55" s="33"/>
+      <c r="CX55" s="33"/>
+      <c r="CY55" s="33"/>
+      <c r="CZ55" s="33"/>
+      <c r="DA55" s="33"/>
+      <c r="DB55" s="33"/>
+      <c r="DC55" s="33"/>
+      <c r="DD55" s="33"/>
+      <c r="DE55" s="33"/>
+      <c r="DF55" s="33"/>
     </row>
-    <row r="56" spans="1:98">
-      <c r="A56" s="55"/>
+    <row r="56" spans="1:110">
+      <c r="A56" s="51"/>
       <c r="B56" s="31" t="s">
         <v>24</v>
       </c>
@@ -7340,9 +8084,21 @@
       <c r="CR56" s="33"/>
       <c r="CS56" s="33"/>
       <c r="CT56" s="33"/>
+      <c r="CU56" s="33"/>
+      <c r="CV56" s="33"/>
+      <c r="CW56" s="33"/>
+      <c r="CX56" s="33"/>
+      <c r="CY56" s="33"/>
+      <c r="CZ56" s="33"/>
+      <c r="DA56" s="33"/>
+      <c r="DB56" s="33"/>
+      <c r="DC56" s="33"/>
+      <c r="DD56" s="33"/>
+      <c r="DE56" s="33"/>
+      <c r="DF56" s="33"/>
     </row>
-    <row r="57" spans="1:98">
-      <c r="A57" s="53"/>
+    <row r="57" spans="1:110">
+      <c r="A57" s="49"/>
       <c r="B57" s="31" t="s">
         <v>22</v>
       </c>
@@ -7442,9 +8198,21 @@
       <c r="CR57" s="33"/>
       <c r="CS57" s="33"/>
       <c r="CT57" s="33"/>
+      <c r="CU57" s="33"/>
+      <c r="CV57" s="33"/>
+      <c r="CW57" s="33"/>
+      <c r="CX57" s="33"/>
+      <c r="CY57" s="33"/>
+      <c r="CZ57" s="33"/>
+      <c r="DA57" s="33"/>
+      <c r="DB57" s="33"/>
+      <c r="DC57" s="33"/>
+      <c r="DD57" s="33"/>
+      <c r="DE57" s="33"/>
+      <c r="DF57" s="33"/>
     </row>
-    <row r="58" spans="1:98">
-      <c r="A58" s="54"/>
+    <row r="58" spans="1:110">
+      <c r="A58" s="50"/>
       <c r="B58" s="31" t="s">
         <v>23</v>
       </c>
@@ -7544,9 +8312,21 @@
       <c r="CR58" s="33"/>
       <c r="CS58" s="33"/>
       <c r="CT58" s="33"/>
+      <c r="CU58" s="33"/>
+      <c r="CV58" s="33"/>
+      <c r="CW58" s="33"/>
+      <c r="CX58" s="33"/>
+      <c r="CY58" s="33"/>
+      <c r="CZ58" s="33"/>
+      <c r="DA58" s="33"/>
+      <c r="DB58" s="33"/>
+      <c r="DC58" s="33"/>
+      <c r="DD58" s="33"/>
+      <c r="DE58" s="33"/>
+      <c r="DF58" s="33"/>
     </row>
-    <row r="59" spans="1:98">
-      <c r="A59" s="55"/>
+    <row r="59" spans="1:110">
+      <c r="A59" s="51"/>
       <c r="B59" s="31" t="s">
         <v>24</v>
       </c>
@@ -7646,9 +8426,21 @@
       <c r="CR59" s="33"/>
       <c r="CS59" s="33"/>
       <c r="CT59" s="33"/>
+      <c r="CU59" s="33"/>
+      <c r="CV59" s="33"/>
+      <c r="CW59" s="33"/>
+      <c r="CX59" s="33"/>
+      <c r="CY59" s="33"/>
+      <c r="CZ59" s="33"/>
+      <c r="DA59" s="33"/>
+      <c r="DB59" s="33"/>
+      <c r="DC59" s="33"/>
+      <c r="DD59" s="33"/>
+      <c r="DE59" s="33"/>
+      <c r="DF59" s="33"/>
     </row>
-    <row r="60" spans="1:98">
-      <c r="A60" s="53"/>
+    <row r="60" spans="1:110">
+      <c r="A60" s="49"/>
       <c r="B60" s="31" t="s">
         <v>22</v>
       </c>
@@ -7748,9 +8540,21 @@
       <c r="CR60" s="33"/>
       <c r="CS60" s="33"/>
       <c r="CT60" s="33"/>
+      <c r="CU60" s="33"/>
+      <c r="CV60" s="33"/>
+      <c r="CW60" s="33"/>
+      <c r="CX60" s="33"/>
+      <c r="CY60" s="33"/>
+      <c r="CZ60" s="33"/>
+      <c r="DA60" s="33"/>
+      <c r="DB60" s="33"/>
+      <c r="DC60" s="33"/>
+      <c r="DD60" s="33"/>
+      <c r="DE60" s="33"/>
+      <c r="DF60" s="33"/>
     </row>
-    <row r="61" spans="1:98">
-      <c r="A61" s="54"/>
+    <row r="61" spans="1:110">
+      <c r="A61" s="50"/>
       <c r="B61" s="31" t="s">
         <v>23</v>
       </c>
@@ -7850,9 +8654,21 @@
       <c r="CR61" s="33"/>
       <c r="CS61" s="33"/>
       <c r="CT61" s="33"/>
+      <c r="CU61" s="33"/>
+      <c r="CV61" s="33"/>
+      <c r="CW61" s="33"/>
+      <c r="CX61" s="33"/>
+      <c r="CY61" s="33"/>
+      <c r="CZ61" s="33"/>
+      <c r="DA61" s="33"/>
+      <c r="DB61" s="33"/>
+      <c r="DC61" s="33"/>
+      <c r="DD61" s="33"/>
+      <c r="DE61" s="33"/>
+      <c r="DF61" s="33"/>
     </row>
-    <row r="62" spans="1:98">
-      <c r="A62" s="55"/>
+    <row r="62" spans="1:110">
+      <c r="A62" s="51"/>
       <c r="B62" s="31" t="s">
         <v>24</v>
       </c>
@@ -7952,9 +8768,44 @@
       <c r="CR62" s="33"/>
       <c r="CS62" s="33"/>
       <c r="CT62" s="33"/>
+      <c r="CU62" s="33"/>
+      <c r="CV62" s="33"/>
+      <c r="CW62" s="33"/>
+      <c r="CX62" s="33"/>
+      <c r="CY62" s="33"/>
+      <c r="CZ62" s="33"/>
+      <c r="DA62" s="33"/>
+      <c r="DB62" s="33"/>
+      <c r="DC62" s="33"/>
+      <c r="DD62" s="33"/>
+      <c r="DE62" s="33"/>
+      <c r="DF62" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="CU1:DF1"/>
+    <mergeCell ref="CU3:DF3"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="AA1:AL1"/>
+    <mergeCell ref="AY1:BJ1"/>
+    <mergeCell ref="BK1:BV1"/>
+    <mergeCell ref="BW1:CH1"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="O3:Z3"/>
+    <mergeCell ref="AA3:AL3"/>
+    <mergeCell ref="AM3:AX3"/>
+    <mergeCell ref="AY3:BJ3"/>
+    <mergeCell ref="BK3:BV3"/>
+    <mergeCell ref="BW3:CH3"/>
+    <mergeCell ref="AM1:AX1"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="CI1:CT1"/>
     <mergeCell ref="CI3:CT3"/>
     <mergeCell ref="A60:A62"/>
@@ -7971,27 +8822,6 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="AY1:BJ1"/>
-    <mergeCell ref="BK1:BV1"/>
-    <mergeCell ref="BW1:CH1"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="O3:Z3"/>
-    <mergeCell ref="AA3:AL3"/>
-    <mergeCell ref="AM3:AX3"/>
-    <mergeCell ref="AY3:BJ3"/>
-    <mergeCell ref="BK3:BV3"/>
-    <mergeCell ref="BW3:CH3"/>
-    <mergeCell ref="AM1:AX1"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="AA1:AL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7999,142 +8829,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69324FB2-87F3-4E13-878E-249A70AA2992}">
-  <dimension ref="A1:CT62"/>
+  <dimension ref="A1:DF62"/>
   <sheetViews>
     <sheetView topLeftCell="BL1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CI1" sqref="CI1:CT1048576"/>
+      <selection activeCell="CU1" sqref="CU1:DF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.46484375" style="9" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:110">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="48" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="52" t="s">
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="49" t="s">
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="50" t="s">
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
+      <c r="BF1" s="52"/>
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50"/>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="50"/>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="50"/>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="51" t="s">
+      <c r="BL1" s="53"/>
+      <c r="BM1" s="53"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="53"/>
+      <c r="BW1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="BX1" s="51"/>
-      <c r="BY1" s="51"/>
-      <c r="BZ1" s="51"/>
-      <c r="CA1" s="51"/>
-      <c r="CB1" s="51"/>
-      <c r="CC1" s="51"/>
-      <c r="CD1" s="51"/>
-      <c r="CE1" s="51"/>
-      <c r="CF1" s="51"/>
-      <c r="CG1" s="51"/>
-      <c r="CH1" s="51"/>
-      <c r="CI1" s="56" t="s">
+      <c r="BX1" s="54"/>
+      <c r="BY1" s="54"/>
+      <c r="BZ1" s="54"/>
+      <c r="CA1" s="54"/>
+      <c r="CB1" s="54"/>
+      <c r="CC1" s="54"/>
+      <c r="CD1" s="54"/>
+      <c r="CE1" s="54"/>
+      <c r="CF1" s="54"/>
+      <c r="CG1" s="54"/>
+      <c r="CH1" s="54"/>
+      <c r="CI1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="CJ1" s="56"/>
-      <c r="CK1" s="56"/>
-      <c r="CL1" s="56"/>
-      <c r="CM1" s="56"/>
-      <c r="CN1" s="56"/>
-      <c r="CO1" s="56"/>
-      <c r="CP1" s="56"/>
-      <c r="CQ1" s="56"/>
-      <c r="CR1" s="56"/>
-      <c r="CS1" s="56"/>
-      <c r="CT1" s="56"/>
+      <c r="CJ1" s="48"/>
+      <c r="CK1" s="48"/>
+      <c r="CL1" s="48"/>
+      <c r="CM1" s="48"/>
+      <c r="CN1" s="48"/>
+      <c r="CO1" s="48"/>
+      <c r="CP1" s="48"/>
+      <c r="CQ1" s="48"/>
+      <c r="CR1" s="48"/>
+      <c r="CS1" s="48"/>
+      <c r="CT1" s="48"/>
+      <c r="CU1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="CV1" s="58"/>
+      <c r="CW1" s="58"/>
+      <c r="CX1" s="58"/>
+      <c r="CY1" s="58"/>
+      <c r="CZ1" s="58"/>
+      <c r="DA1" s="58"/>
+      <c r="DB1" s="58"/>
+      <c r="DC1" s="58"/>
+      <c r="DD1" s="58"/>
+      <c r="DE1" s="58"/>
+      <c r="DF1" s="58"/>
     </row>
-    <row r="2" spans="1:98">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+    <row r="2" spans="1:110">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="34">
         <v>2015</v>
       </c>
@@ -8387,162 +9231,212 @@
       <c r="CH2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="CI2" s="57" t="s">
+      <c r="CI2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CJ2" s="57" t="s">
+      <c r="CJ2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CK2" s="57" t="s">
+      <c r="CK2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CL2" s="57" t="s">
+      <c r="CL2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CM2" s="57" t="s">
+      <c r="CM2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CN2" s="57" t="s">
+      <c r="CN2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CO2" s="57" t="s">
+      <c r="CO2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CP2" s="57" t="s">
+      <c r="CP2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CQ2" s="57" t="s">
+      <c r="CQ2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CR2" s="57" t="s">
+      <c r="CR2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CS2" s="57" t="s">
+      <c r="CS2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CT2" s="57" t="s">
+      <c r="CT2" s="44" t="s">
         <v>30</v>
       </c>
+      <c r="CU2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CX2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CY2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DD2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DE2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DF2" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:98" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+    <row r="3" spans="1:110" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="48" t="s">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="52" t="s">
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="49" t="s">
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="50" t="s">
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52"/>
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="BL3" s="50"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="50"/>
-      <c r="BO3" s="50"/>
-      <c r="BP3" s="50"/>
-      <c r="BQ3" s="50"/>
-      <c r="BR3" s="50"/>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="50"/>
-      <c r="BU3" s="50"/>
-      <c r="BV3" s="50"/>
-      <c r="BW3" s="51" t="s">
+      <c r="BL3" s="53"/>
+      <c r="BM3" s="53"/>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="53"/>
+      <c r="BP3" s="53"/>
+      <c r="BQ3" s="53"/>
+      <c r="BR3" s="53"/>
+      <c r="BS3" s="53"/>
+      <c r="BT3" s="53"/>
+      <c r="BU3" s="53"/>
+      <c r="BV3" s="53"/>
+      <c r="BW3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="BX3" s="51"/>
-      <c r="BY3" s="51"/>
-      <c r="BZ3" s="51"/>
-      <c r="CA3" s="51"/>
-      <c r="CB3" s="51"/>
-      <c r="CC3" s="51"/>
-      <c r="CD3" s="51"/>
-      <c r="CE3" s="51"/>
-      <c r="CF3" s="51"/>
-      <c r="CG3" s="51"/>
-      <c r="CH3" s="51"/>
-      <c r="CI3" s="56" t="s">
+      <c r="BX3" s="54"/>
+      <c r="BY3" s="54"/>
+      <c r="BZ3" s="54"/>
+      <c r="CA3" s="54"/>
+      <c r="CB3" s="54"/>
+      <c r="CC3" s="54"/>
+      <c r="CD3" s="54"/>
+      <c r="CE3" s="54"/>
+      <c r="CF3" s="54"/>
+      <c r="CG3" s="54"/>
+      <c r="CH3" s="54"/>
+      <c r="CI3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="CJ3" s="56"/>
-      <c r="CK3" s="56"/>
-      <c r="CL3" s="56"/>
-      <c r="CM3" s="56"/>
-      <c r="CN3" s="56"/>
-      <c r="CO3" s="56"/>
-      <c r="CP3" s="56"/>
-      <c r="CQ3" s="56"/>
-      <c r="CR3" s="56"/>
-      <c r="CS3" s="56"/>
-      <c r="CT3" s="56"/>
+      <c r="CJ3" s="48"/>
+      <c r="CK3" s="48"/>
+      <c r="CL3" s="48"/>
+      <c r="CM3" s="48"/>
+      <c r="CN3" s="48"/>
+      <c r="CO3" s="48"/>
+      <c r="CP3" s="48"/>
+      <c r="CQ3" s="48"/>
+      <c r="CR3" s="48"/>
+      <c r="CS3" s="48"/>
+      <c r="CT3" s="48"/>
+      <c r="CU3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV3" s="58"/>
+      <c r="CW3" s="58"/>
+      <c r="CX3" s="58"/>
+      <c r="CY3" s="58"/>
+      <c r="CZ3" s="58"/>
+      <c r="DA3" s="58"/>
+      <c r="DB3" s="58"/>
+      <c r="DC3" s="58"/>
+      <c r="DD3" s="58"/>
+      <c r="DE3" s="58"/>
+      <c r="DF3" s="58"/>
     </row>
-    <row r="4" spans="1:98" s="9" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:110" s="9" customFormat="1">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -8795,46 +9689,82 @@
       <c r="CH4" s="16">
         <v>12</v>
       </c>
-      <c r="CI4" s="57">
+      <c r="CI4" s="44">
         <v>1</v>
       </c>
-      <c r="CJ4" s="58">
+      <c r="CJ4" s="45">
         <v>2</v>
       </c>
-      <c r="CK4" s="58">
+      <c r="CK4" s="45">
         <v>3</v>
       </c>
-      <c r="CL4" s="58">
+      <c r="CL4" s="45">
         <v>4</v>
       </c>
-      <c r="CM4" s="58">
+      <c r="CM4" s="45">
         <v>5</v>
       </c>
-      <c r="CN4" s="58">
+      <c r="CN4" s="45">
         <v>6</v>
       </c>
-      <c r="CO4" s="58">
+      <c r="CO4" s="45">
         <v>7</v>
       </c>
-      <c r="CP4" s="58">
+      <c r="CP4" s="45">
         <v>8</v>
       </c>
-      <c r="CQ4" s="58">
+      <c r="CQ4" s="45">
         <v>9</v>
       </c>
-      <c r="CR4" s="58">
+      <c r="CR4" s="45">
         <v>10</v>
       </c>
-      <c r="CS4" s="58">
+      <c r="CS4" s="45">
         <v>11</v>
       </c>
-      <c r="CT4" s="58">
+      <c r="CT4" s="45">
         <v>12</v>
       </c>
+      <c r="CU4" s="5">
+        <v>1</v>
+      </c>
+      <c r="CV4" s="13">
+        <v>2</v>
+      </c>
+      <c r="CW4" s="13">
+        <v>3</v>
+      </c>
+      <c r="CX4" s="13">
+        <v>4</v>
+      </c>
+      <c r="CY4" s="13">
+        <v>5</v>
+      </c>
+      <c r="CZ4" s="13">
+        <v>6</v>
+      </c>
+      <c r="DA4" s="13">
+        <v>7</v>
+      </c>
+      <c r="DB4" s="13">
+        <v>8</v>
+      </c>
+      <c r="DC4" s="13">
+        <v>9</v>
+      </c>
+      <c r="DD4" s="13">
+        <v>10</v>
+      </c>
+      <c r="DE4" s="13">
+        <v>11</v>
+      </c>
+      <c r="DF4" s="13">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:98" s="9" customFormat="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:110" s="9" customFormat="1">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
@@ -9087,45 +10017,81 @@
       <c r="CH5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CI5" s="59" t="s">
+      <c r="CI5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="CJ5" s="60" t="s">
+      <c r="CJ5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="CK5" s="60" t="s">
+      <c r="CK5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="CL5" s="60" t="s">
+      <c r="CL5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="CM5" s="60" t="s">
+      <c r="CM5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="CN5" s="60" t="s">
+      <c r="CN5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="CO5" s="60" t="s">
+      <c r="CO5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="CP5" s="60" t="s">
+      <c r="CP5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="CQ5" s="60" t="s">
+      <c r="CQ5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="CR5" s="60" t="s">
+      <c r="CR5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="CS5" s="60" t="s">
+      <c r="CS5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="CT5" s="60" t="s">
+      <c r="CT5" s="47" t="s">
         <v>21</v>
       </c>
+      <c r="CU5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="CX5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="CZ5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="DA5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="DB5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="DC5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="DD5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="DE5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="DF5" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:98">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:110">
+      <c r="A6" s="49" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -9227,9 +10193,21 @@
       <c r="CR6" s="33"/>
       <c r="CS6" s="33"/>
       <c r="CT6" s="33"/>
+      <c r="CU6" s="33"/>
+      <c r="CV6" s="33"/>
+      <c r="CW6" s="33"/>
+      <c r="CX6" s="33"/>
+      <c r="CY6" s="33"/>
+      <c r="CZ6" s="33"/>
+      <c r="DA6" s="33"/>
+      <c r="DB6" s="33"/>
+      <c r="DC6" s="33"/>
+      <c r="DD6" s="33"/>
+      <c r="DE6" s="33"/>
+      <c r="DF6" s="33"/>
     </row>
-    <row r="7" spans="1:98">
-      <c r="A7" s="54"/>
+    <row r="7" spans="1:110">
+      <c r="A7" s="50"/>
       <c r="B7" s="31" t="s">
         <v>23</v>
       </c>
@@ -9329,9 +10307,21 @@
       <c r="CR7" s="33"/>
       <c r="CS7" s="33"/>
       <c r="CT7" s="33"/>
+      <c r="CU7" s="33"/>
+      <c r="CV7" s="33"/>
+      <c r="CW7" s="33"/>
+      <c r="CX7" s="33"/>
+      <c r="CY7" s="33"/>
+      <c r="CZ7" s="33"/>
+      <c r="DA7" s="33"/>
+      <c r="DB7" s="33"/>
+      <c r="DC7" s="33"/>
+      <c r="DD7" s="33"/>
+      <c r="DE7" s="33"/>
+      <c r="DF7" s="33"/>
     </row>
-    <row r="8" spans="1:98">
-      <c r="A8" s="55"/>
+    <row r="8" spans="1:110">
+      <c r="A8" s="51"/>
       <c r="B8" s="31" t="s">
         <v>24</v>
       </c>
@@ -9431,9 +10421,21 @@
       <c r="CR8" s="33"/>
       <c r="CS8" s="33"/>
       <c r="CT8" s="33"/>
+      <c r="CU8" s="33"/>
+      <c r="CV8" s="33"/>
+      <c r="CW8" s="33"/>
+      <c r="CX8" s="33"/>
+      <c r="CY8" s="33"/>
+      <c r="CZ8" s="33"/>
+      <c r="DA8" s="33"/>
+      <c r="DB8" s="33"/>
+      <c r="DC8" s="33"/>
+      <c r="DD8" s="33"/>
+      <c r="DE8" s="33"/>
+      <c r="DF8" s="33"/>
     </row>
-    <row r="9" spans="1:98">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:110">
+      <c r="A9" s="49"/>
       <c r="B9" s="31" t="s">
         <v>22</v>
       </c>
@@ -9533,9 +10535,21 @@
       <c r="CR9" s="33"/>
       <c r="CS9" s="33"/>
       <c r="CT9" s="33"/>
+      <c r="CU9" s="33"/>
+      <c r="CV9" s="33"/>
+      <c r="CW9" s="33"/>
+      <c r="CX9" s="33"/>
+      <c r="CY9" s="33"/>
+      <c r="CZ9" s="33"/>
+      <c r="DA9" s="33"/>
+      <c r="DB9" s="33"/>
+      <c r="DC9" s="33"/>
+      <c r="DD9" s="33"/>
+      <c r="DE9" s="33"/>
+      <c r="DF9" s="33"/>
     </row>
-    <row r="10" spans="1:98">
-      <c r="A10" s="54"/>
+    <row r="10" spans="1:110">
+      <c r="A10" s="50"/>
       <c r="B10" s="31" t="s">
         <v>23</v>
       </c>
@@ -9635,9 +10649,21 @@
       <c r="CR10" s="33"/>
       <c r="CS10" s="33"/>
       <c r="CT10" s="33"/>
+      <c r="CU10" s="33"/>
+      <c r="CV10" s="33"/>
+      <c r="CW10" s="33"/>
+      <c r="CX10" s="33"/>
+      <c r="CY10" s="33"/>
+      <c r="CZ10" s="33"/>
+      <c r="DA10" s="33"/>
+      <c r="DB10" s="33"/>
+      <c r="DC10" s="33"/>
+      <c r="DD10" s="33"/>
+      <c r="DE10" s="33"/>
+      <c r="DF10" s="33"/>
     </row>
-    <row r="11" spans="1:98">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:110">
+      <c r="A11" s="51"/>
       <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
@@ -9737,9 +10763,21 @@
       <c r="CR11" s="33"/>
       <c r="CS11" s="33"/>
       <c r="CT11" s="33"/>
+      <c r="CU11" s="33"/>
+      <c r="CV11" s="33"/>
+      <c r="CW11" s="33"/>
+      <c r="CX11" s="33"/>
+      <c r="CY11" s="33"/>
+      <c r="CZ11" s="33"/>
+      <c r="DA11" s="33"/>
+      <c r="DB11" s="33"/>
+      <c r="DC11" s="33"/>
+      <c r="DD11" s="33"/>
+      <c r="DE11" s="33"/>
+      <c r="DF11" s="33"/>
     </row>
-    <row r="12" spans="1:98">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:110">
+      <c r="A12" s="49"/>
       <c r="B12" s="31" t="s">
         <v>22</v>
       </c>
@@ -9839,9 +10877,21 @@
       <c r="CR12" s="33"/>
       <c r="CS12" s="33"/>
       <c r="CT12" s="33"/>
+      <c r="CU12" s="33"/>
+      <c r="CV12" s="33"/>
+      <c r="CW12" s="33"/>
+      <c r="CX12" s="33"/>
+      <c r="CY12" s="33"/>
+      <c r="CZ12" s="33"/>
+      <c r="DA12" s="33"/>
+      <c r="DB12" s="33"/>
+      <c r="DC12" s="33"/>
+      <c r="DD12" s="33"/>
+      <c r="DE12" s="33"/>
+      <c r="DF12" s="33"/>
     </row>
-    <row r="13" spans="1:98">
-      <c r="A13" s="54"/>
+    <row r="13" spans="1:110">
+      <c r="A13" s="50"/>
       <c r="B13" s="31" t="s">
         <v>23</v>
       </c>
@@ -9941,9 +10991,21 @@
       <c r="CR13" s="33"/>
       <c r="CS13" s="33"/>
       <c r="CT13" s="33"/>
+      <c r="CU13" s="33"/>
+      <c r="CV13" s="33"/>
+      <c r="CW13" s="33"/>
+      <c r="CX13" s="33"/>
+      <c r="CY13" s="33"/>
+      <c r="CZ13" s="33"/>
+      <c r="DA13" s="33"/>
+      <c r="DB13" s="33"/>
+      <c r="DC13" s="33"/>
+      <c r="DD13" s="33"/>
+      <c r="DE13" s="33"/>
+      <c r="DF13" s="33"/>
     </row>
-    <row r="14" spans="1:98">
-      <c r="A14" s="55"/>
+    <row r="14" spans="1:110">
+      <c r="A14" s="51"/>
       <c r="B14" s="31" t="s">
         <v>24</v>
       </c>
@@ -10043,9 +11105,21 @@
       <c r="CR14" s="33"/>
       <c r="CS14" s="33"/>
       <c r="CT14" s="33"/>
+      <c r="CU14" s="33"/>
+      <c r="CV14" s="33"/>
+      <c r="CW14" s="33"/>
+      <c r="CX14" s="33"/>
+      <c r="CY14" s="33"/>
+      <c r="CZ14" s="33"/>
+      <c r="DA14" s="33"/>
+      <c r="DB14" s="33"/>
+      <c r="DC14" s="33"/>
+      <c r="DD14" s="33"/>
+      <c r="DE14" s="33"/>
+      <c r="DF14" s="33"/>
     </row>
-    <row r="15" spans="1:98">
-      <c r="A15" s="53"/>
+    <row r="15" spans="1:110">
+      <c r="A15" s="49"/>
       <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
@@ -10145,9 +11219,21 @@
       <c r="CR15" s="33"/>
       <c r="CS15" s="33"/>
       <c r="CT15" s="33"/>
+      <c r="CU15" s="33"/>
+      <c r="CV15" s="33"/>
+      <c r="CW15" s="33"/>
+      <c r="CX15" s="33"/>
+      <c r="CY15" s="33"/>
+      <c r="CZ15" s="33"/>
+      <c r="DA15" s="33"/>
+      <c r="DB15" s="33"/>
+      <c r="DC15" s="33"/>
+      <c r="DD15" s="33"/>
+      <c r="DE15" s="33"/>
+      <c r="DF15" s="33"/>
     </row>
-    <row r="16" spans="1:98">
-      <c r="A16" s="54"/>
+    <row r="16" spans="1:110">
+      <c r="A16" s="50"/>
       <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
@@ -10247,9 +11333,21 @@
       <c r="CR16" s="33"/>
       <c r="CS16" s="33"/>
       <c r="CT16" s="33"/>
+      <c r="CU16" s="33"/>
+      <c r="CV16" s="33"/>
+      <c r="CW16" s="33"/>
+      <c r="CX16" s="33"/>
+      <c r="CY16" s="33"/>
+      <c r="CZ16" s="33"/>
+      <c r="DA16" s="33"/>
+      <c r="DB16" s="33"/>
+      <c r="DC16" s="33"/>
+      <c r="DD16" s="33"/>
+      <c r="DE16" s="33"/>
+      <c r="DF16" s="33"/>
     </row>
-    <row r="17" spans="1:98">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:110">
+      <c r="A17" s="51"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
       </c>
@@ -10349,9 +11447,21 @@
       <c r="CR17" s="33"/>
       <c r="CS17" s="33"/>
       <c r="CT17" s="33"/>
+      <c r="CU17" s="33"/>
+      <c r="CV17" s="33"/>
+      <c r="CW17" s="33"/>
+      <c r="CX17" s="33"/>
+      <c r="CY17" s="33"/>
+      <c r="CZ17" s="33"/>
+      <c r="DA17" s="33"/>
+      <c r="DB17" s="33"/>
+      <c r="DC17" s="33"/>
+      <c r="DD17" s="33"/>
+      <c r="DE17" s="33"/>
+      <c r="DF17" s="33"/>
     </row>
-    <row r="18" spans="1:98">
-      <c r="A18" s="53"/>
+    <row r="18" spans="1:110">
+      <c r="A18" s="49"/>
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
@@ -10451,9 +11561,21 @@
       <c r="CR18" s="33"/>
       <c r="CS18" s="33"/>
       <c r="CT18" s="33"/>
+      <c r="CU18" s="33"/>
+      <c r="CV18" s="33"/>
+      <c r="CW18" s="33"/>
+      <c r="CX18" s="33"/>
+      <c r="CY18" s="33"/>
+      <c r="CZ18" s="33"/>
+      <c r="DA18" s="33"/>
+      <c r="DB18" s="33"/>
+      <c r="DC18" s="33"/>
+      <c r="DD18" s="33"/>
+      <c r="DE18" s="33"/>
+      <c r="DF18" s="33"/>
     </row>
-    <row r="19" spans="1:98">
-      <c r="A19" s="54"/>
+    <row r="19" spans="1:110">
+      <c r="A19" s="50"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
@@ -10553,9 +11675,21 @@
       <c r="CR19" s="33"/>
       <c r="CS19" s="33"/>
       <c r="CT19" s="33"/>
+      <c r="CU19" s="33"/>
+      <c r="CV19" s="33"/>
+      <c r="CW19" s="33"/>
+      <c r="CX19" s="33"/>
+      <c r="CY19" s="33"/>
+      <c r="CZ19" s="33"/>
+      <c r="DA19" s="33"/>
+      <c r="DB19" s="33"/>
+      <c r="DC19" s="33"/>
+      <c r="DD19" s="33"/>
+      <c r="DE19" s="33"/>
+      <c r="DF19" s="33"/>
     </row>
-    <row r="20" spans="1:98">
-      <c r="A20" s="55"/>
+    <row r="20" spans="1:110">
+      <c r="A20" s="51"/>
       <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
@@ -10655,9 +11789,21 @@
       <c r="CR20" s="33"/>
       <c r="CS20" s="33"/>
       <c r="CT20" s="33"/>
+      <c r="CU20" s="33"/>
+      <c r="CV20" s="33"/>
+      <c r="CW20" s="33"/>
+      <c r="CX20" s="33"/>
+      <c r="CY20" s="33"/>
+      <c r="CZ20" s="33"/>
+      <c r="DA20" s="33"/>
+      <c r="DB20" s="33"/>
+      <c r="DC20" s="33"/>
+      <c r="DD20" s="33"/>
+      <c r="DE20" s="33"/>
+      <c r="DF20" s="33"/>
     </row>
-    <row r="21" spans="1:98">
-      <c r="A21" s="53"/>
+    <row r="21" spans="1:110">
+      <c r="A21" s="49"/>
       <c r="B21" s="31" t="s">
         <v>22</v>
       </c>
@@ -10757,9 +11903,21 @@
       <c r="CR21" s="33"/>
       <c r="CS21" s="33"/>
       <c r="CT21" s="33"/>
+      <c r="CU21" s="33"/>
+      <c r="CV21" s="33"/>
+      <c r="CW21" s="33"/>
+      <c r="CX21" s="33"/>
+      <c r="CY21" s="33"/>
+      <c r="CZ21" s="33"/>
+      <c r="DA21" s="33"/>
+      <c r="DB21" s="33"/>
+      <c r="DC21" s="33"/>
+      <c r="DD21" s="33"/>
+      <c r="DE21" s="33"/>
+      <c r="DF21" s="33"/>
     </row>
-    <row r="22" spans="1:98">
-      <c r="A22" s="54"/>
+    <row r="22" spans="1:110">
+      <c r="A22" s="50"/>
       <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
@@ -10859,9 +12017,21 @@
       <c r="CR22" s="33"/>
       <c r="CS22" s="33"/>
       <c r="CT22" s="33"/>
+      <c r="CU22" s="33"/>
+      <c r="CV22" s="33"/>
+      <c r="CW22" s="33"/>
+      <c r="CX22" s="33"/>
+      <c r="CY22" s="33"/>
+      <c r="CZ22" s="33"/>
+      <c r="DA22" s="33"/>
+      <c r="DB22" s="33"/>
+      <c r="DC22" s="33"/>
+      <c r="DD22" s="33"/>
+      <c r="DE22" s="33"/>
+      <c r="DF22" s="33"/>
     </row>
-    <row r="23" spans="1:98">
-      <c r="A23" s="55"/>
+    <row r="23" spans="1:110">
+      <c r="A23" s="51"/>
       <c r="B23" s="31" t="s">
         <v>24</v>
       </c>
@@ -10961,9 +12131,21 @@
       <c r="CR23" s="33"/>
       <c r="CS23" s="33"/>
       <c r="CT23" s="33"/>
+      <c r="CU23" s="33"/>
+      <c r="CV23" s="33"/>
+      <c r="CW23" s="33"/>
+      <c r="CX23" s="33"/>
+      <c r="CY23" s="33"/>
+      <c r="CZ23" s="33"/>
+      <c r="DA23" s="33"/>
+      <c r="DB23" s="33"/>
+      <c r="DC23" s="33"/>
+      <c r="DD23" s="33"/>
+      <c r="DE23" s="33"/>
+      <c r="DF23" s="33"/>
     </row>
-    <row r="24" spans="1:98">
-      <c r="A24" s="53"/>
+    <row r="24" spans="1:110">
+      <c r="A24" s="49"/>
       <c r="B24" s="31" t="s">
         <v>22</v>
       </c>
@@ -11063,9 +12245,21 @@
       <c r="CR24" s="33"/>
       <c r="CS24" s="33"/>
       <c r="CT24" s="33"/>
+      <c r="CU24" s="33"/>
+      <c r="CV24" s="33"/>
+      <c r="CW24" s="33"/>
+      <c r="CX24" s="33"/>
+      <c r="CY24" s="33"/>
+      <c r="CZ24" s="33"/>
+      <c r="DA24" s="33"/>
+      <c r="DB24" s="33"/>
+      <c r="DC24" s="33"/>
+      <c r="DD24" s="33"/>
+      <c r="DE24" s="33"/>
+      <c r="DF24" s="33"/>
     </row>
-    <row r="25" spans="1:98">
-      <c r="A25" s="54"/>
+    <row r="25" spans="1:110">
+      <c r="A25" s="50"/>
       <c r="B25" s="31" t="s">
         <v>23</v>
       </c>
@@ -11165,9 +12359,21 @@
       <c r="CR25" s="33"/>
       <c r="CS25" s="33"/>
       <c r="CT25" s="33"/>
+      <c r="CU25" s="33"/>
+      <c r="CV25" s="33"/>
+      <c r="CW25" s="33"/>
+      <c r="CX25" s="33"/>
+      <c r="CY25" s="33"/>
+      <c r="CZ25" s="33"/>
+      <c r="DA25" s="33"/>
+      <c r="DB25" s="33"/>
+      <c r="DC25" s="33"/>
+      <c r="DD25" s="33"/>
+      <c r="DE25" s="33"/>
+      <c r="DF25" s="33"/>
     </row>
-    <row r="26" spans="1:98">
-      <c r="A26" s="55"/>
+    <row r="26" spans="1:110">
+      <c r="A26" s="51"/>
       <c r="B26" s="31" t="s">
         <v>24</v>
       </c>
@@ -11267,9 +12473,21 @@
       <c r="CR26" s="33"/>
       <c r="CS26" s="33"/>
       <c r="CT26" s="33"/>
+      <c r="CU26" s="33"/>
+      <c r="CV26" s="33"/>
+      <c r="CW26" s="33"/>
+      <c r="CX26" s="33"/>
+      <c r="CY26" s="33"/>
+      <c r="CZ26" s="33"/>
+      <c r="DA26" s="33"/>
+      <c r="DB26" s="33"/>
+      <c r="DC26" s="33"/>
+      <c r="DD26" s="33"/>
+      <c r="DE26" s="33"/>
+      <c r="DF26" s="33"/>
     </row>
-    <row r="27" spans="1:98">
-      <c r="A27" s="53"/>
+    <row r="27" spans="1:110">
+      <c r="A27" s="49"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
       </c>
@@ -11369,9 +12587,21 @@
       <c r="CR27" s="33"/>
       <c r="CS27" s="33"/>
       <c r="CT27" s="33"/>
+      <c r="CU27" s="33"/>
+      <c r="CV27" s="33"/>
+      <c r="CW27" s="33"/>
+      <c r="CX27" s="33"/>
+      <c r="CY27" s="33"/>
+      <c r="CZ27" s="33"/>
+      <c r="DA27" s="33"/>
+      <c r="DB27" s="33"/>
+      <c r="DC27" s="33"/>
+      <c r="DD27" s="33"/>
+      <c r="DE27" s="33"/>
+      <c r="DF27" s="33"/>
     </row>
-    <row r="28" spans="1:98">
-      <c r="A28" s="54"/>
+    <row r="28" spans="1:110">
+      <c r="A28" s="50"/>
       <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
@@ -11471,9 +12701,21 @@
       <c r="CR28" s="33"/>
       <c r="CS28" s="33"/>
       <c r="CT28" s="33"/>
+      <c r="CU28" s="33"/>
+      <c r="CV28" s="33"/>
+      <c r="CW28" s="33"/>
+      <c r="CX28" s="33"/>
+      <c r="CY28" s="33"/>
+      <c r="CZ28" s="33"/>
+      <c r="DA28" s="33"/>
+      <c r="DB28" s="33"/>
+      <c r="DC28" s="33"/>
+      <c r="DD28" s="33"/>
+      <c r="DE28" s="33"/>
+      <c r="DF28" s="33"/>
     </row>
-    <row r="29" spans="1:98">
-      <c r="A29" s="55"/>
+    <row r="29" spans="1:110">
+      <c r="A29" s="51"/>
       <c r="B29" s="31" t="s">
         <v>24</v>
       </c>
@@ -11573,9 +12815,21 @@
       <c r="CR29" s="33"/>
       <c r="CS29" s="33"/>
       <c r="CT29" s="33"/>
+      <c r="CU29" s="33"/>
+      <c r="CV29" s="33"/>
+      <c r="CW29" s="33"/>
+      <c r="CX29" s="33"/>
+      <c r="CY29" s="33"/>
+      <c r="CZ29" s="33"/>
+      <c r="DA29" s="33"/>
+      <c r="DB29" s="33"/>
+      <c r="DC29" s="33"/>
+      <c r="DD29" s="33"/>
+      <c r="DE29" s="33"/>
+      <c r="DF29" s="33"/>
     </row>
-    <row r="30" spans="1:98">
-      <c r="A30" s="53"/>
+    <row r="30" spans="1:110">
+      <c r="A30" s="49"/>
       <c r="B30" s="31" t="s">
         <v>22</v>
       </c>
@@ -11675,9 +12929,21 @@
       <c r="CR30" s="33"/>
       <c r="CS30" s="33"/>
       <c r="CT30" s="33"/>
+      <c r="CU30" s="33"/>
+      <c r="CV30" s="33"/>
+      <c r="CW30" s="33"/>
+      <c r="CX30" s="33"/>
+      <c r="CY30" s="33"/>
+      <c r="CZ30" s="33"/>
+      <c r="DA30" s="33"/>
+      <c r="DB30" s="33"/>
+      <c r="DC30" s="33"/>
+      <c r="DD30" s="33"/>
+      <c r="DE30" s="33"/>
+      <c r="DF30" s="33"/>
     </row>
-    <row r="31" spans="1:98">
-      <c r="A31" s="54"/>
+    <row r="31" spans="1:110">
+      <c r="A31" s="50"/>
       <c r="B31" s="31" t="s">
         <v>23</v>
       </c>
@@ -11777,9 +13043,21 @@
       <c r="CR31" s="33"/>
       <c r="CS31" s="33"/>
       <c r="CT31" s="33"/>
+      <c r="CU31" s="33"/>
+      <c r="CV31" s="33"/>
+      <c r="CW31" s="33"/>
+      <c r="CX31" s="33"/>
+      <c r="CY31" s="33"/>
+      <c r="CZ31" s="33"/>
+      <c r="DA31" s="33"/>
+      <c r="DB31" s="33"/>
+      <c r="DC31" s="33"/>
+      <c r="DD31" s="33"/>
+      <c r="DE31" s="33"/>
+      <c r="DF31" s="33"/>
     </row>
-    <row r="32" spans="1:98">
-      <c r="A32" s="55"/>
+    <row r="32" spans="1:110">
+      <c r="A32" s="51"/>
       <c r="B32" s="31" t="s">
         <v>24</v>
       </c>
@@ -11879,9 +13157,21 @@
       <c r="CR32" s="33"/>
       <c r="CS32" s="33"/>
       <c r="CT32" s="33"/>
+      <c r="CU32" s="33"/>
+      <c r="CV32" s="33"/>
+      <c r="CW32" s="33"/>
+      <c r="CX32" s="33"/>
+      <c r="CY32" s="33"/>
+      <c r="CZ32" s="33"/>
+      <c r="DA32" s="33"/>
+      <c r="DB32" s="33"/>
+      <c r="DC32" s="33"/>
+      <c r="DD32" s="33"/>
+      <c r="DE32" s="33"/>
+      <c r="DF32" s="33"/>
     </row>
-    <row r="33" spans="1:98">
-      <c r="A33" s="53"/>
+    <row r="33" spans="1:110">
+      <c r="A33" s="49"/>
       <c r="B33" s="31" t="s">
         <v>22</v>
       </c>
@@ -11981,9 +13271,21 @@
       <c r="CR33" s="33"/>
       <c r="CS33" s="33"/>
       <c r="CT33" s="33"/>
+      <c r="CU33" s="33"/>
+      <c r="CV33" s="33"/>
+      <c r="CW33" s="33"/>
+      <c r="CX33" s="33"/>
+      <c r="CY33" s="33"/>
+      <c r="CZ33" s="33"/>
+      <c r="DA33" s="33"/>
+      <c r="DB33" s="33"/>
+      <c r="DC33" s="33"/>
+      <c r="DD33" s="33"/>
+      <c r="DE33" s="33"/>
+      <c r="DF33" s="33"/>
     </row>
-    <row r="34" spans="1:98">
-      <c r="A34" s="54"/>
+    <row r="34" spans="1:110">
+      <c r="A34" s="50"/>
       <c r="B34" s="31" t="s">
         <v>23</v>
       </c>
@@ -12083,9 +13385,21 @@
       <c r="CR34" s="33"/>
       <c r="CS34" s="33"/>
       <c r="CT34" s="33"/>
+      <c r="CU34" s="33"/>
+      <c r="CV34" s="33"/>
+      <c r="CW34" s="33"/>
+      <c r="CX34" s="33"/>
+      <c r="CY34" s="33"/>
+      <c r="CZ34" s="33"/>
+      <c r="DA34" s="33"/>
+      <c r="DB34" s="33"/>
+      <c r="DC34" s="33"/>
+      <c r="DD34" s="33"/>
+      <c r="DE34" s="33"/>
+      <c r="DF34" s="33"/>
     </row>
-    <row r="35" spans="1:98">
-      <c r="A35" s="55"/>
+    <row r="35" spans="1:110">
+      <c r="A35" s="51"/>
       <c r="B35" s="31" t="s">
         <v>24</v>
       </c>
@@ -12185,9 +13499,21 @@
       <c r="CR35" s="33"/>
       <c r="CS35" s="33"/>
       <c r="CT35" s="33"/>
+      <c r="CU35" s="33"/>
+      <c r="CV35" s="33"/>
+      <c r="CW35" s="33"/>
+      <c r="CX35" s="33"/>
+      <c r="CY35" s="33"/>
+      <c r="CZ35" s="33"/>
+      <c r="DA35" s="33"/>
+      <c r="DB35" s="33"/>
+      <c r="DC35" s="33"/>
+      <c r="DD35" s="33"/>
+      <c r="DE35" s="33"/>
+      <c r="DF35" s="33"/>
     </row>
-    <row r="36" spans="1:98">
-      <c r="A36" s="53"/>
+    <row r="36" spans="1:110">
+      <c r="A36" s="49"/>
       <c r="B36" s="31" t="s">
         <v>22</v>
       </c>
@@ -12287,9 +13613,21 @@
       <c r="CR36" s="33"/>
       <c r="CS36" s="33"/>
       <c r="CT36" s="33"/>
+      <c r="CU36" s="33"/>
+      <c r="CV36" s="33"/>
+      <c r="CW36" s="33"/>
+      <c r="CX36" s="33"/>
+      <c r="CY36" s="33"/>
+      <c r="CZ36" s="33"/>
+      <c r="DA36" s="33"/>
+      <c r="DB36" s="33"/>
+      <c r="DC36" s="33"/>
+      <c r="DD36" s="33"/>
+      <c r="DE36" s="33"/>
+      <c r="DF36" s="33"/>
     </row>
-    <row r="37" spans="1:98">
-      <c r="A37" s="54"/>
+    <row r="37" spans="1:110">
+      <c r="A37" s="50"/>
       <c r="B37" s="31" t="s">
         <v>23</v>
       </c>
@@ -12389,9 +13727,21 @@
       <c r="CR37" s="33"/>
       <c r="CS37" s="33"/>
       <c r="CT37" s="33"/>
+      <c r="CU37" s="33"/>
+      <c r="CV37" s="33"/>
+      <c r="CW37" s="33"/>
+      <c r="CX37" s="33"/>
+      <c r="CY37" s="33"/>
+      <c r="CZ37" s="33"/>
+      <c r="DA37" s="33"/>
+      <c r="DB37" s="33"/>
+      <c r="DC37" s="33"/>
+      <c r="DD37" s="33"/>
+      <c r="DE37" s="33"/>
+      <c r="DF37" s="33"/>
     </row>
-    <row r="38" spans="1:98">
-      <c r="A38" s="55"/>
+    <row r="38" spans="1:110">
+      <c r="A38" s="51"/>
       <c r="B38" s="31" t="s">
         <v>24</v>
       </c>
@@ -12491,9 +13841,21 @@
       <c r="CR38" s="33"/>
       <c r="CS38" s="33"/>
       <c r="CT38" s="33"/>
+      <c r="CU38" s="33"/>
+      <c r="CV38" s="33"/>
+      <c r="CW38" s="33"/>
+      <c r="CX38" s="33"/>
+      <c r="CY38" s="33"/>
+      <c r="CZ38" s="33"/>
+      <c r="DA38" s="33"/>
+      <c r="DB38" s="33"/>
+      <c r="DC38" s="33"/>
+      <c r="DD38" s="33"/>
+      <c r="DE38" s="33"/>
+      <c r="DF38" s="33"/>
     </row>
-    <row r="39" spans="1:98">
-      <c r="A39" s="53"/>
+    <row r="39" spans="1:110">
+      <c r="A39" s="49"/>
       <c r="B39" s="31" t="s">
         <v>22</v>
       </c>
@@ -12593,9 +13955,21 @@
       <c r="CR39" s="33"/>
       <c r="CS39" s="33"/>
       <c r="CT39" s="33"/>
+      <c r="CU39" s="33"/>
+      <c r="CV39" s="33"/>
+      <c r="CW39" s="33"/>
+      <c r="CX39" s="33"/>
+      <c r="CY39" s="33"/>
+      <c r="CZ39" s="33"/>
+      <c r="DA39" s="33"/>
+      <c r="DB39" s="33"/>
+      <c r="DC39" s="33"/>
+      <c r="DD39" s="33"/>
+      <c r="DE39" s="33"/>
+      <c r="DF39" s="33"/>
     </row>
-    <row r="40" spans="1:98">
-      <c r="A40" s="54"/>
+    <row r="40" spans="1:110">
+      <c r="A40" s="50"/>
       <c r="B40" s="31" t="s">
         <v>23</v>
       </c>
@@ -12695,9 +14069,21 @@
       <c r="CR40" s="33"/>
       <c r="CS40" s="33"/>
       <c r="CT40" s="33"/>
+      <c r="CU40" s="33"/>
+      <c r="CV40" s="33"/>
+      <c r="CW40" s="33"/>
+      <c r="CX40" s="33"/>
+      <c r="CY40" s="33"/>
+      <c r="CZ40" s="33"/>
+      <c r="DA40" s="33"/>
+      <c r="DB40" s="33"/>
+      <c r="DC40" s="33"/>
+      <c r="DD40" s="33"/>
+      <c r="DE40" s="33"/>
+      <c r="DF40" s="33"/>
     </row>
-    <row r="41" spans="1:98">
-      <c r="A41" s="55"/>
+    <row r="41" spans="1:110">
+      <c r="A41" s="51"/>
       <c r="B41" s="31" t="s">
         <v>24</v>
       </c>
@@ -12797,9 +14183,21 @@
       <c r="CR41" s="33"/>
       <c r="CS41" s="33"/>
       <c r="CT41" s="33"/>
+      <c r="CU41" s="33"/>
+      <c r="CV41" s="33"/>
+      <c r="CW41" s="33"/>
+      <c r="CX41" s="33"/>
+      <c r="CY41" s="33"/>
+      <c r="CZ41" s="33"/>
+      <c r="DA41" s="33"/>
+      <c r="DB41" s="33"/>
+      <c r="DC41" s="33"/>
+      <c r="DD41" s="33"/>
+      <c r="DE41" s="33"/>
+      <c r="DF41" s="33"/>
     </row>
-    <row r="42" spans="1:98">
-      <c r="A42" s="53"/>
+    <row r="42" spans="1:110">
+      <c r="A42" s="49"/>
       <c r="B42" s="31" t="s">
         <v>22</v>
       </c>
@@ -12899,9 +14297,21 @@
       <c r="CR42" s="33"/>
       <c r="CS42" s="33"/>
       <c r="CT42" s="33"/>
+      <c r="CU42" s="33"/>
+      <c r="CV42" s="33"/>
+      <c r="CW42" s="33"/>
+      <c r="CX42" s="33"/>
+      <c r="CY42" s="33"/>
+      <c r="CZ42" s="33"/>
+      <c r="DA42" s="33"/>
+      <c r="DB42" s="33"/>
+      <c r="DC42" s="33"/>
+      <c r="DD42" s="33"/>
+      <c r="DE42" s="33"/>
+      <c r="DF42" s="33"/>
     </row>
-    <row r="43" spans="1:98">
-      <c r="A43" s="54"/>
+    <row r="43" spans="1:110">
+      <c r="A43" s="50"/>
       <c r="B43" s="31" t="s">
         <v>23</v>
       </c>
@@ -13001,9 +14411,21 @@
       <c r="CR43" s="33"/>
       <c r="CS43" s="33"/>
       <c r="CT43" s="33"/>
+      <c r="CU43" s="33"/>
+      <c r="CV43" s="33"/>
+      <c r="CW43" s="33"/>
+      <c r="CX43" s="33"/>
+      <c r="CY43" s="33"/>
+      <c r="CZ43" s="33"/>
+      <c r="DA43" s="33"/>
+      <c r="DB43" s="33"/>
+      <c r="DC43" s="33"/>
+      <c r="DD43" s="33"/>
+      <c r="DE43" s="33"/>
+      <c r="DF43" s="33"/>
     </row>
-    <row r="44" spans="1:98">
-      <c r="A44" s="55"/>
+    <row r="44" spans="1:110">
+      <c r="A44" s="51"/>
       <c r="B44" s="31" t="s">
         <v>24</v>
       </c>
@@ -13103,9 +14525,21 @@
       <c r="CR44" s="33"/>
       <c r="CS44" s="33"/>
       <c r="CT44" s="33"/>
+      <c r="CU44" s="33"/>
+      <c r="CV44" s="33"/>
+      <c r="CW44" s="33"/>
+      <c r="CX44" s="33"/>
+      <c r="CY44" s="33"/>
+      <c r="CZ44" s="33"/>
+      <c r="DA44" s="33"/>
+      <c r="DB44" s="33"/>
+      <c r="DC44" s="33"/>
+      <c r="DD44" s="33"/>
+      <c r="DE44" s="33"/>
+      <c r="DF44" s="33"/>
     </row>
-    <row r="45" spans="1:98">
-      <c r="A45" s="53"/>
+    <row r="45" spans="1:110">
+      <c r="A45" s="49"/>
       <c r="B45" s="31" t="s">
         <v>22</v>
       </c>
@@ -13205,9 +14639,21 @@
       <c r="CR45" s="33"/>
       <c r="CS45" s="33"/>
       <c r="CT45" s="33"/>
+      <c r="CU45" s="33"/>
+      <c r="CV45" s="33"/>
+      <c r="CW45" s="33"/>
+      <c r="CX45" s="33"/>
+      <c r="CY45" s="33"/>
+      <c r="CZ45" s="33"/>
+      <c r="DA45" s="33"/>
+      <c r="DB45" s="33"/>
+      <c r="DC45" s="33"/>
+      <c r="DD45" s="33"/>
+      <c r="DE45" s="33"/>
+      <c r="DF45" s="33"/>
     </row>
-    <row r="46" spans="1:98">
-      <c r="A46" s="54"/>
+    <row r="46" spans="1:110">
+      <c r="A46" s="50"/>
       <c r="B46" s="31" t="s">
         <v>23</v>
       </c>
@@ -13307,9 +14753,21 @@
       <c r="CR46" s="33"/>
       <c r="CS46" s="33"/>
       <c r="CT46" s="33"/>
+      <c r="CU46" s="33"/>
+      <c r="CV46" s="33"/>
+      <c r="CW46" s="33"/>
+      <c r="CX46" s="33"/>
+      <c r="CY46" s="33"/>
+      <c r="CZ46" s="33"/>
+      <c r="DA46" s="33"/>
+      <c r="DB46" s="33"/>
+      <c r="DC46" s="33"/>
+      <c r="DD46" s="33"/>
+      <c r="DE46" s="33"/>
+      <c r="DF46" s="33"/>
     </row>
-    <row r="47" spans="1:98">
-      <c r="A47" s="55"/>
+    <row r="47" spans="1:110">
+      <c r="A47" s="51"/>
       <c r="B47" s="31" t="s">
         <v>24</v>
       </c>
@@ -13409,9 +14867,21 @@
       <c r="CR47" s="33"/>
       <c r="CS47" s="33"/>
       <c r="CT47" s="33"/>
+      <c r="CU47" s="33"/>
+      <c r="CV47" s="33"/>
+      <c r="CW47" s="33"/>
+      <c r="CX47" s="33"/>
+      <c r="CY47" s="33"/>
+      <c r="CZ47" s="33"/>
+      <c r="DA47" s="33"/>
+      <c r="DB47" s="33"/>
+      <c r="DC47" s="33"/>
+      <c r="DD47" s="33"/>
+      <c r="DE47" s="33"/>
+      <c r="DF47" s="33"/>
     </row>
-    <row r="48" spans="1:98">
-      <c r="A48" s="53"/>
+    <row r="48" spans="1:110">
+      <c r="A48" s="49"/>
       <c r="B48" s="31" t="s">
         <v>22</v>
       </c>
@@ -13511,9 +14981,21 @@
       <c r="CR48" s="33"/>
       <c r="CS48" s="33"/>
       <c r="CT48" s="33"/>
+      <c r="CU48" s="33"/>
+      <c r="CV48" s="33"/>
+      <c r="CW48" s="33"/>
+      <c r="CX48" s="33"/>
+      <c r="CY48" s="33"/>
+      <c r="CZ48" s="33"/>
+      <c r="DA48" s="33"/>
+      <c r="DB48" s="33"/>
+      <c r="DC48" s="33"/>
+      <c r="DD48" s="33"/>
+      <c r="DE48" s="33"/>
+      <c r="DF48" s="33"/>
     </row>
-    <row r="49" spans="1:98">
-      <c r="A49" s="54"/>
+    <row r="49" spans="1:110">
+      <c r="A49" s="50"/>
       <c r="B49" s="31" t="s">
         <v>23</v>
       </c>
@@ -13613,9 +15095,21 @@
       <c r="CR49" s="33"/>
       <c r="CS49" s="33"/>
       <c r="CT49" s="33"/>
+      <c r="CU49" s="33"/>
+      <c r="CV49" s="33"/>
+      <c r="CW49" s="33"/>
+      <c r="CX49" s="33"/>
+      <c r="CY49" s="33"/>
+      <c r="CZ49" s="33"/>
+      <c r="DA49" s="33"/>
+      <c r="DB49" s="33"/>
+      <c r="DC49" s="33"/>
+      <c r="DD49" s="33"/>
+      <c r="DE49" s="33"/>
+      <c r="DF49" s="33"/>
     </row>
-    <row r="50" spans="1:98">
-      <c r="A50" s="55"/>
+    <row r="50" spans="1:110">
+      <c r="A50" s="51"/>
       <c r="B50" s="31" t="s">
         <v>24</v>
       </c>
@@ -13715,9 +15209,21 @@
       <c r="CR50" s="33"/>
       <c r="CS50" s="33"/>
       <c r="CT50" s="33"/>
+      <c r="CU50" s="33"/>
+      <c r="CV50" s="33"/>
+      <c r="CW50" s="33"/>
+      <c r="CX50" s="33"/>
+      <c r="CY50" s="33"/>
+      <c r="CZ50" s="33"/>
+      <c r="DA50" s="33"/>
+      <c r="DB50" s="33"/>
+      <c r="DC50" s="33"/>
+      <c r="DD50" s="33"/>
+      <c r="DE50" s="33"/>
+      <c r="DF50" s="33"/>
     </row>
-    <row r="51" spans="1:98">
-      <c r="A51" s="53"/>
+    <row r="51" spans="1:110">
+      <c r="A51" s="49"/>
       <c r="B51" s="31" t="s">
         <v>22</v>
       </c>
@@ -13817,9 +15323,21 @@
       <c r="CR51" s="33"/>
       <c r="CS51" s="33"/>
       <c r="CT51" s="33"/>
+      <c r="CU51" s="33"/>
+      <c r="CV51" s="33"/>
+      <c r="CW51" s="33"/>
+      <c r="CX51" s="33"/>
+      <c r="CY51" s="33"/>
+      <c r="CZ51" s="33"/>
+      <c r="DA51" s="33"/>
+      <c r="DB51" s="33"/>
+      <c r="DC51" s="33"/>
+      <c r="DD51" s="33"/>
+      <c r="DE51" s="33"/>
+      <c r="DF51" s="33"/>
     </row>
-    <row r="52" spans="1:98">
-      <c r="A52" s="54"/>
+    <row r="52" spans="1:110">
+      <c r="A52" s="50"/>
       <c r="B52" s="31" t="s">
         <v>23</v>
       </c>
@@ -13919,9 +15437,21 @@
       <c r="CR52" s="33"/>
       <c r="CS52" s="33"/>
       <c r="CT52" s="33"/>
+      <c r="CU52" s="33"/>
+      <c r="CV52" s="33"/>
+      <c r="CW52" s="33"/>
+      <c r="CX52" s="33"/>
+      <c r="CY52" s="33"/>
+      <c r="CZ52" s="33"/>
+      <c r="DA52" s="33"/>
+      <c r="DB52" s="33"/>
+      <c r="DC52" s="33"/>
+      <c r="DD52" s="33"/>
+      <c r="DE52" s="33"/>
+      <c r="DF52" s="33"/>
     </row>
-    <row r="53" spans="1:98">
-      <c r="A53" s="55"/>
+    <row r="53" spans="1:110">
+      <c r="A53" s="51"/>
       <c r="B53" s="31" t="s">
         <v>24</v>
       </c>
@@ -14021,9 +15551,21 @@
       <c r="CR53" s="33"/>
       <c r="CS53" s="33"/>
       <c r="CT53" s="33"/>
+      <c r="CU53" s="33"/>
+      <c r="CV53" s="33"/>
+      <c r="CW53" s="33"/>
+      <c r="CX53" s="33"/>
+      <c r="CY53" s="33"/>
+      <c r="CZ53" s="33"/>
+      <c r="DA53" s="33"/>
+      <c r="DB53" s="33"/>
+      <c r="DC53" s="33"/>
+      <c r="DD53" s="33"/>
+      <c r="DE53" s="33"/>
+      <c r="DF53" s="33"/>
     </row>
-    <row r="54" spans="1:98">
-      <c r="A54" s="53"/>
+    <row r="54" spans="1:110">
+      <c r="A54" s="49"/>
       <c r="B54" s="31" t="s">
         <v>22</v>
       </c>
@@ -14123,9 +15665,21 @@
       <c r="CR54" s="33"/>
       <c r="CS54" s="33"/>
       <c r="CT54" s="33"/>
+      <c r="CU54" s="33"/>
+      <c r="CV54" s="33"/>
+      <c r="CW54" s="33"/>
+      <c r="CX54" s="33"/>
+      <c r="CY54" s="33"/>
+      <c r="CZ54" s="33"/>
+      <c r="DA54" s="33"/>
+      <c r="DB54" s="33"/>
+      <c r="DC54" s="33"/>
+      <c r="DD54" s="33"/>
+      <c r="DE54" s="33"/>
+      <c r="DF54" s="33"/>
     </row>
-    <row r="55" spans="1:98">
-      <c r="A55" s="54"/>
+    <row r="55" spans="1:110">
+      <c r="A55" s="50"/>
       <c r="B55" s="31" t="s">
         <v>23</v>
       </c>
@@ -14225,9 +15779,21 @@
       <c r="CR55" s="33"/>
       <c r="CS55" s="33"/>
       <c r="CT55" s="33"/>
+      <c r="CU55" s="33"/>
+      <c r="CV55" s="33"/>
+      <c r="CW55" s="33"/>
+      <c r="CX55" s="33"/>
+      <c r="CY55" s="33"/>
+      <c r="CZ55" s="33"/>
+      <c r="DA55" s="33"/>
+      <c r="DB55" s="33"/>
+      <c r="DC55" s="33"/>
+      <c r="DD55" s="33"/>
+      <c r="DE55" s="33"/>
+      <c r="DF55" s="33"/>
     </row>
-    <row r="56" spans="1:98">
-      <c r="A56" s="55"/>
+    <row r="56" spans="1:110">
+      <c r="A56" s="51"/>
       <c r="B56" s="31" t="s">
         <v>24</v>
       </c>
@@ -14327,9 +15893,21 @@
       <c r="CR56" s="33"/>
       <c r="CS56" s="33"/>
       <c r="CT56" s="33"/>
+      <c r="CU56" s="33"/>
+      <c r="CV56" s="33"/>
+      <c r="CW56" s="33"/>
+      <c r="CX56" s="33"/>
+      <c r="CY56" s="33"/>
+      <c r="CZ56" s="33"/>
+      <c r="DA56" s="33"/>
+      <c r="DB56" s="33"/>
+      <c r="DC56" s="33"/>
+      <c r="DD56" s="33"/>
+      <c r="DE56" s="33"/>
+      <c r="DF56" s="33"/>
     </row>
-    <row r="57" spans="1:98">
-      <c r="A57" s="53"/>
+    <row r="57" spans="1:110">
+      <c r="A57" s="49"/>
       <c r="B57" s="31" t="s">
         <v>22</v>
       </c>
@@ -14429,9 +16007,21 @@
       <c r="CR57" s="33"/>
       <c r="CS57" s="33"/>
       <c r="CT57" s="33"/>
+      <c r="CU57" s="33"/>
+      <c r="CV57" s="33"/>
+      <c r="CW57" s="33"/>
+      <c r="CX57" s="33"/>
+      <c r="CY57" s="33"/>
+      <c r="CZ57" s="33"/>
+      <c r="DA57" s="33"/>
+      <c r="DB57" s="33"/>
+      <c r="DC57" s="33"/>
+      <c r="DD57" s="33"/>
+      <c r="DE57" s="33"/>
+      <c r="DF57" s="33"/>
     </row>
-    <row r="58" spans="1:98">
-      <c r="A58" s="54"/>
+    <row r="58" spans="1:110">
+      <c r="A58" s="50"/>
       <c r="B58" s="31" t="s">
         <v>23</v>
       </c>
@@ -14531,9 +16121,21 @@
       <c r="CR58" s="33"/>
       <c r="CS58" s="33"/>
       <c r="CT58" s="33"/>
+      <c r="CU58" s="33"/>
+      <c r="CV58" s="33"/>
+      <c r="CW58" s="33"/>
+      <c r="CX58" s="33"/>
+      <c r="CY58" s="33"/>
+      <c r="CZ58" s="33"/>
+      <c r="DA58" s="33"/>
+      <c r="DB58" s="33"/>
+      <c r="DC58" s="33"/>
+      <c r="DD58" s="33"/>
+      <c r="DE58" s="33"/>
+      <c r="DF58" s="33"/>
     </row>
-    <row r="59" spans="1:98">
-      <c r="A59" s="55"/>
+    <row r="59" spans="1:110">
+      <c r="A59" s="51"/>
       <c r="B59" s="31" t="s">
         <v>24</v>
       </c>
@@ -14633,9 +16235,21 @@
       <c r="CR59" s="33"/>
       <c r="CS59" s="33"/>
       <c r="CT59" s="33"/>
+      <c r="CU59" s="33"/>
+      <c r="CV59" s="33"/>
+      <c r="CW59" s="33"/>
+      <c r="CX59" s="33"/>
+      <c r="CY59" s="33"/>
+      <c r="CZ59" s="33"/>
+      <c r="DA59" s="33"/>
+      <c r="DB59" s="33"/>
+      <c r="DC59" s="33"/>
+      <c r="DD59" s="33"/>
+      <c r="DE59" s="33"/>
+      <c r="DF59" s="33"/>
     </row>
-    <row r="60" spans="1:98">
-      <c r="A60" s="53"/>
+    <row r="60" spans="1:110">
+      <c r="A60" s="49"/>
       <c r="B60" s="31" t="s">
         <v>22</v>
       </c>
@@ -14735,9 +16349,21 @@
       <c r="CR60" s="33"/>
       <c r="CS60" s="33"/>
       <c r="CT60" s="33"/>
+      <c r="CU60" s="33"/>
+      <c r="CV60" s="33"/>
+      <c r="CW60" s="33"/>
+      <c r="CX60" s="33"/>
+      <c r="CY60" s="33"/>
+      <c r="CZ60" s="33"/>
+      <c r="DA60" s="33"/>
+      <c r="DB60" s="33"/>
+      <c r="DC60" s="33"/>
+      <c r="DD60" s="33"/>
+      <c r="DE60" s="33"/>
+      <c r="DF60" s="33"/>
     </row>
-    <row r="61" spans="1:98">
-      <c r="A61" s="54"/>
+    <row r="61" spans="1:110">
+      <c r="A61" s="50"/>
       <c r="B61" s="31" t="s">
         <v>23</v>
       </c>
@@ -14837,9 +16463,21 @@
       <c r="CR61" s="33"/>
       <c r="CS61" s="33"/>
       <c r="CT61" s="33"/>
+      <c r="CU61" s="33"/>
+      <c r="CV61" s="33"/>
+      <c r="CW61" s="33"/>
+      <c r="CX61" s="33"/>
+      <c r="CY61" s="33"/>
+      <c r="CZ61" s="33"/>
+      <c r="DA61" s="33"/>
+      <c r="DB61" s="33"/>
+      <c r="DC61" s="33"/>
+      <c r="DD61" s="33"/>
+      <c r="DE61" s="33"/>
+      <c r="DF61" s="33"/>
     </row>
-    <row r="62" spans="1:98">
-      <c r="A62" s="55"/>
+    <row r="62" spans="1:110">
+      <c r="A62" s="51"/>
       <c r="B62" s="31" t="s">
         <v>24</v>
       </c>
@@ -14939,9 +16577,44 @@
       <c r="CR62" s="33"/>
       <c r="CS62" s="33"/>
       <c r="CT62" s="33"/>
+      <c r="CU62" s="33"/>
+      <c r="CV62" s="33"/>
+      <c r="CW62" s="33"/>
+      <c r="CX62" s="33"/>
+      <c r="CY62" s="33"/>
+      <c r="CZ62" s="33"/>
+      <c r="DA62" s="33"/>
+      <c r="DB62" s="33"/>
+      <c r="DC62" s="33"/>
+      <c r="DD62" s="33"/>
+      <c r="DE62" s="33"/>
+      <c r="DF62" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="CU1:DF1"/>
+    <mergeCell ref="CU3:DF3"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="BW3:CH3"/>
+    <mergeCell ref="AM1:AX1"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="CI1:CT1"/>
     <mergeCell ref="CI3:CT3"/>
     <mergeCell ref="A1:A5"/>
@@ -14958,27 +16631,6 @@
     <mergeCell ref="AM3:AX3"/>
     <mergeCell ref="AY3:BJ3"/>
     <mergeCell ref="BK3:BV3"/>
-    <mergeCell ref="BW3:CH3"/>
-    <mergeCell ref="AM1:AX1"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -14989,142 +16641,156 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDFB917-6F1C-492B-9094-7E004BFA20C9}">
-  <dimension ref="A1:CT62"/>
+  <dimension ref="A1:DF62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CN18" sqref="CN18"/>
+    <sheetView topLeftCell="BU1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CU2" sqref="CU1:DF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.46484375" style="9" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:110">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="48" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="52" t="s">
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="49" t="s">
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="50" t="s">
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
+      <c r="BF1" s="52"/>
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50"/>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="50"/>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="50"/>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="51" t="s">
+      <c r="BL1" s="53"/>
+      <c r="BM1" s="53"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="53"/>
+      <c r="BW1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="BX1" s="51"/>
-      <c r="BY1" s="51"/>
-      <c r="BZ1" s="51"/>
-      <c r="CA1" s="51"/>
-      <c r="CB1" s="51"/>
-      <c r="CC1" s="51"/>
-      <c r="CD1" s="51"/>
-      <c r="CE1" s="51"/>
-      <c r="CF1" s="51"/>
-      <c r="CG1" s="51"/>
-      <c r="CH1" s="51"/>
-      <c r="CI1" s="56" t="s">
+      <c r="BX1" s="54"/>
+      <c r="BY1" s="54"/>
+      <c r="BZ1" s="54"/>
+      <c r="CA1" s="54"/>
+      <c r="CB1" s="54"/>
+      <c r="CC1" s="54"/>
+      <c r="CD1" s="54"/>
+      <c r="CE1" s="54"/>
+      <c r="CF1" s="54"/>
+      <c r="CG1" s="54"/>
+      <c r="CH1" s="54"/>
+      <c r="CI1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="CJ1" s="56"/>
-      <c r="CK1" s="56"/>
-      <c r="CL1" s="56"/>
-      <c r="CM1" s="56"/>
-      <c r="CN1" s="56"/>
-      <c r="CO1" s="56"/>
-      <c r="CP1" s="56"/>
-      <c r="CQ1" s="56"/>
-      <c r="CR1" s="56"/>
-      <c r="CS1" s="56"/>
-      <c r="CT1" s="56"/>
+      <c r="CJ1" s="48"/>
+      <c r="CK1" s="48"/>
+      <c r="CL1" s="48"/>
+      <c r="CM1" s="48"/>
+      <c r="CN1" s="48"/>
+      <c r="CO1" s="48"/>
+      <c r="CP1" s="48"/>
+      <c r="CQ1" s="48"/>
+      <c r="CR1" s="48"/>
+      <c r="CS1" s="48"/>
+      <c r="CT1" s="48"/>
+      <c r="CU1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="CV1" s="58"/>
+      <c r="CW1" s="58"/>
+      <c r="CX1" s="58"/>
+      <c r="CY1" s="58"/>
+      <c r="CZ1" s="58"/>
+      <c r="DA1" s="58"/>
+      <c r="DB1" s="58"/>
+      <c r="DC1" s="58"/>
+      <c r="DD1" s="58"/>
+      <c r="DE1" s="58"/>
+      <c r="DF1" s="58"/>
     </row>
-    <row r="2" spans="1:98">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+    <row r="2" spans="1:110">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="34">
         <v>2015</v>
       </c>
@@ -15377,162 +17043,212 @@
       <c r="CH2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="CI2" s="57" t="s">
+      <c r="CI2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CJ2" s="57" t="s">
+      <c r="CJ2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CK2" s="57" t="s">
+      <c r="CK2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CL2" s="57" t="s">
+      <c r="CL2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CM2" s="57" t="s">
+      <c r="CM2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CN2" s="57" t="s">
+      <c r="CN2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CO2" s="57" t="s">
+      <c r="CO2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CP2" s="57" t="s">
+      <c r="CP2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CQ2" s="57" t="s">
+      <c r="CQ2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CR2" s="57" t="s">
+      <c r="CR2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CS2" s="57" t="s">
+      <c r="CS2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="CT2" s="57" t="s">
+      <c r="CT2" s="44" t="s">
         <v>30</v>
       </c>
+      <c r="CU2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CX2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CY2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DD2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DE2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DF2" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:98" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+    <row r="3" spans="1:110" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="48" t="s">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="52" t="s">
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="49" t="s">
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="50" t="s">
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52"/>
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="BL3" s="50"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="50"/>
-      <c r="BO3" s="50"/>
-      <c r="BP3" s="50"/>
-      <c r="BQ3" s="50"/>
-      <c r="BR3" s="50"/>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="50"/>
-      <c r="BU3" s="50"/>
-      <c r="BV3" s="50"/>
-      <c r="BW3" s="51" t="s">
+      <c r="BL3" s="53"/>
+      <c r="BM3" s="53"/>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="53"/>
+      <c r="BP3" s="53"/>
+      <c r="BQ3" s="53"/>
+      <c r="BR3" s="53"/>
+      <c r="BS3" s="53"/>
+      <c r="BT3" s="53"/>
+      <c r="BU3" s="53"/>
+      <c r="BV3" s="53"/>
+      <c r="BW3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="BX3" s="51"/>
-      <c r="BY3" s="51"/>
-      <c r="BZ3" s="51"/>
-      <c r="CA3" s="51"/>
-      <c r="CB3" s="51"/>
-      <c r="CC3" s="51"/>
-      <c r="CD3" s="51"/>
-      <c r="CE3" s="51"/>
-      <c r="CF3" s="51"/>
-      <c r="CG3" s="51"/>
-      <c r="CH3" s="51"/>
-      <c r="CI3" s="56" t="s">
+      <c r="BX3" s="54"/>
+      <c r="BY3" s="54"/>
+      <c r="BZ3" s="54"/>
+      <c r="CA3" s="54"/>
+      <c r="CB3" s="54"/>
+      <c r="CC3" s="54"/>
+      <c r="CD3" s="54"/>
+      <c r="CE3" s="54"/>
+      <c r="CF3" s="54"/>
+      <c r="CG3" s="54"/>
+      <c r="CH3" s="54"/>
+      <c r="CI3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="CJ3" s="56"/>
-      <c r="CK3" s="56"/>
-      <c r="CL3" s="56"/>
-      <c r="CM3" s="56"/>
-      <c r="CN3" s="56"/>
-      <c r="CO3" s="56"/>
-      <c r="CP3" s="56"/>
-      <c r="CQ3" s="56"/>
-      <c r="CR3" s="56"/>
-      <c r="CS3" s="56"/>
-      <c r="CT3" s="56"/>
+      <c r="CJ3" s="48"/>
+      <c r="CK3" s="48"/>
+      <c r="CL3" s="48"/>
+      <c r="CM3" s="48"/>
+      <c r="CN3" s="48"/>
+      <c r="CO3" s="48"/>
+      <c r="CP3" s="48"/>
+      <c r="CQ3" s="48"/>
+      <c r="CR3" s="48"/>
+      <c r="CS3" s="48"/>
+      <c r="CT3" s="48"/>
+      <c r="CU3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV3" s="58"/>
+      <c r="CW3" s="58"/>
+      <c r="CX3" s="58"/>
+      <c r="CY3" s="58"/>
+      <c r="CZ3" s="58"/>
+      <c r="DA3" s="58"/>
+      <c r="DB3" s="58"/>
+      <c r="DC3" s="58"/>
+      <c r="DD3" s="58"/>
+      <c r="DE3" s="58"/>
+      <c r="DF3" s="58"/>
     </row>
-    <row r="4" spans="1:98" s="9" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:110" s="9" customFormat="1">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -15785,46 +17501,82 @@
       <c r="CH4" s="16">
         <v>12</v>
       </c>
-      <c r="CI4" s="57">
+      <c r="CI4" s="44">
         <v>1</v>
       </c>
-      <c r="CJ4" s="58">
+      <c r="CJ4" s="45">
         <v>2</v>
       </c>
-      <c r="CK4" s="58">
+      <c r="CK4" s="45">
         <v>3</v>
       </c>
-      <c r="CL4" s="58">
+      <c r="CL4" s="45">
         <v>4</v>
       </c>
-      <c r="CM4" s="58">
+      <c r="CM4" s="45">
         <v>5</v>
       </c>
-      <c r="CN4" s="58">
+      <c r="CN4" s="45">
         <v>6</v>
       </c>
-      <c r="CO4" s="58">
+      <c r="CO4" s="45">
         <v>7</v>
       </c>
-      <c r="CP4" s="58">
+      <c r="CP4" s="45">
         <v>8</v>
       </c>
-      <c r="CQ4" s="58">
+      <c r="CQ4" s="45">
         <v>9</v>
       </c>
-      <c r="CR4" s="58">
+      <c r="CR4" s="45">
         <v>10</v>
       </c>
-      <c r="CS4" s="58">
+      <c r="CS4" s="45">
         <v>11</v>
       </c>
-      <c r="CT4" s="58">
+      <c r="CT4" s="45">
         <v>12</v>
       </c>
+      <c r="CU4" s="5">
+        <v>1</v>
+      </c>
+      <c r="CV4" s="13">
+        <v>2</v>
+      </c>
+      <c r="CW4" s="13">
+        <v>3</v>
+      </c>
+      <c r="CX4" s="13">
+        <v>4</v>
+      </c>
+      <c r="CY4" s="13">
+        <v>5</v>
+      </c>
+      <c r="CZ4" s="13">
+        <v>6</v>
+      </c>
+      <c r="DA4" s="13">
+        <v>7</v>
+      </c>
+      <c r="DB4" s="13">
+        <v>8</v>
+      </c>
+      <c r="DC4" s="13">
+        <v>9</v>
+      </c>
+      <c r="DD4" s="13">
+        <v>10</v>
+      </c>
+      <c r="DE4" s="13">
+        <v>11</v>
+      </c>
+      <c r="DF4" s="13">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:98" s="9" customFormat="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:110" s="9" customFormat="1">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
@@ -16077,45 +17829,81 @@
       <c r="CH5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CI5" s="59" t="s">
+      <c r="CI5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="CJ5" s="60" t="s">
+      <c r="CJ5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="CK5" s="60" t="s">
+      <c r="CK5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="CL5" s="60" t="s">
+      <c r="CL5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="CM5" s="60" t="s">
+      <c r="CM5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="CN5" s="60" t="s">
+      <c r="CN5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="CO5" s="60" t="s">
+      <c r="CO5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="CP5" s="60" t="s">
+      <c r="CP5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="CQ5" s="60" t="s">
+      <c r="CQ5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="CR5" s="60" t="s">
+      <c r="CR5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="CS5" s="60" t="s">
+      <c r="CS5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="CT5" s="60" t="s">
+      <c r="CT5" s="47" t="s">
         <v>21</v>
       </c>
+      <c r="CU5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="CX5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="CZ5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="DA5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="DB5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="DC5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="DD5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="DE5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="DF5" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:98">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:110">
+      <c r="A6" s="49" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -16217,9 +18005,21 @@
       <c r="CR6" s="33"/>
       <c r="CS6" s="33"/>
       <c r="CT6" s="33"/>
+      <c r="CU6" s="33"/>
+      <c r="CV6" s="33"/>
+      <c r="CW6" s="33"/>
+      <c r="CX6" s="33"/>
+      <c r="CY6" s="33"/>
+      <c r="CZ6" s="33"/>
+      <c r="DA6" s="33"/>
+      <c r="DB6" s="33"/>
+      <c r="DC6" s="33"/>
+      <c r="DD6" s="33"/>
+      <c r="DE6" s="33"/>
+      <c r="DF6" s="33"/>
     </row>
-    <row r="7" spans="1:98">
-      <c r="A7" s="54"/>
+    <row r="7" spans="1:110">
+      <c r="A7" s="50"/>
       <c r="B7" s="31" t="s">
         <v>23</v>
       </c>
@@ -16319,9 +18119,21 @@
       <c r="CR7" s="33"/>
       <c r="CS7" s="33"/>
       <c r="CT7" s="33"/>
+      <c r="CU7" s="33"/>
+      <c r="CV7" s="33"/>
+      <c r="CW7" s="33"/>
+      <c r="CX7" s="33"/>
+      <c r="CY7" s="33"/>
+      <c r="CZ7" s="33"/>
+      <c r="DA7" s="33"/>
+      <c r="DB7" s="33"/>
+      <c r="DC7" s="33"/>
+      <c r="DD7" s="33"/>
+      <c r="DE7" s="33"/>
+      <c r="DF7" s="33"/>
     </row>
-    <row r="8" spans="1:98">
-      <c r="A8" s="55"/>
+    <row r="8" spans="1:110">
+      <c r="A8" s="51"/>
       <c r="B8" s="31" t="s">
         <v>24</v>
       </c>
@@ -16421,9 +18233,21 @@
       <c r="CR8" s="33"/>
       <c r="CS8" s="33"/>
       <c r="CT8" s="33"/>
+      <c r="CU8" s="33"/>
+      <c r="CV8" s="33"/>
+      <c r="CW8" s="33"/>
+      <c r="CX8" s="33"/>
+      <c r="CY8" s="33"/>
+      <c r="CZ8" s="33"/>
+      <c r="DA8" s="33"/>
+      <c r="DB8" s="33"/>
+      <c r="DC8" s="33"/>
+      <c r="DD8" s="33"/>
+      <c r="DE8" s="33"/>
+      <c r="DF8" s="33"/>
     </row>
-    <row r="9" spans="1:98">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:110">
+      <c r="A9" s="49"/>
       <c r="B9" s="31" t="s">
         <v>22</v>
       </c>
@@ -16523,9 +18347,21 @@
       <c r="CR9" s="33"/>
       <c r="CS9" s="33"/>
       <c r="CT9" s="33"/>
+      <c r="CU9" s="33"/>
+      <c r="CV9" s="33"/>
+      <c r="CW9" s="33"/>
+      <c r="CX9" s="33"/>
+      <c r="CY9" s="33"/>
+      <c r="CZ9" s="33"/>
+      <c r="DA9" s="33"/>
+      <c r="DB9" s="33"/>
+      <c r="DC9" s="33"/>
+      <c r="DD9" s="33"/>
+      <c r="DE9" s="33"/>
+      <c r="DF9" s="33"/>
     </row>
-    <row r="10" spans="1:98">
-      <c r="A10" s="54"/>
+    <row r="10" spans="1:110">
+      <c r="A10" s="50"/>
       <c r="B10" s="31" t="s">
         <v>23</v>
       </c>
@@ -16625,9 +18461,21 @@
       <c r="CR10" s="33"/>
       <c r="CS10" s="33"/>
       <c r="CT10" s="33"/>
+      <c r="CU10" s="33"/>
+      <c r="CV10" s="33"/>
+      <c r="CW10" s="33"/>
+      <c r="CX10" s="33"/>
+      <c r="CY10" s="33"/>
+      <c r="CZ10" s="33"/>
+      <c r="DA10" s="33"/>
+      <c r="DB10" s="33"/>
+      <c r="DC10" s="33"/>
+      <c r="DD10" s="33"/>
+      <c r="DE10" s="33"/>
+      <c r="DF10" s="33"/>
     </row>
-    <row r="11" spans="1:98">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:110">
+      <c r="A11" s="51"/>
       <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
@@ -16727,9 +18575,21 @@
       <c r="CR11" s="33"/>
       <c r="CS11" s="33"/>
       <c r="CT11" s="33"/>
+      <c r="CU11" s="33"/>
+      <c r="CV11" s="33"/>
+      <c r="CW11" s="33"/>
+      <c r="CX11" s="33"/>
+      <c r="CY11" s="33"/>
+      <c r="CZ11" s="33"/>
+      <c r="DA11" s="33"/>
+      <c r="DB11" s="33"/>
+      <c r="DC11" s="33"/>
+      <c r="DD11" s="33"/>
+      <c r="DE11" s="33"/>
+      <c r="DF11" s="33"/>
     </row>
-    <row r="12" spans="1:98">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:110">
+      <c r="A12" s="49"/>
       <c r="B12" s="31" t="s">
         <v>22</v>
       </c>
@@ -16829,9 +18689,21 @@
       <c r="CR12" s="33"/>
       <c r="CS12" s="33"/>
       <c r="CT12" s="33"/>
+      <c r="CU12" s="33"/>
+      <c r="CV12" s="33"/>
+      <c r="CW12" s="33"/>
+      <c r="CX12" s="33"/>
+      <c r="CY12" s="33"/>
+      <c r="CZ12" s="33"/>
+      <c r="DA12" s="33"/>
+      <c r="DB12" s="33"/>
+      <c r="DC12" s="33"/>
+      <c r="DD12" s="33"/>
+      <c r="DE12" s="33"/>
+      <c r="DF12" s="33"/>
     </row>
-    <row r="13" spans="1:98">
-      <c r="A13" s="54"/>
+    <row r="13" spans="1:110">
+      <c r="A13" s="50"/>
       <c r="B13" s="31" t="s">
         <v>23</v>
       </c>
@@ -16931,9 +18803,21 @@
       <c r="CR13" s="33"/>
       <c r="CS13" s="33"/>
       <c r="CT13" s="33"/>
+      <c r="CU13" s="33"/>
+      <c r="CV13" s="33"/>
+      <c r="CW13" s="33"/>
+      <c r="CX13" s="33"/>
+      <c r="CY13" s="33"/>
+      <c r="CZ13" s="33"/>
+      <c r="DA13" s="33"/>
+      <c r="DB13" s="33"/>
+      <c r="DC13" s="33"/>
+      <c r="DD13" s="33"/>
+      <c r="DE13" s="33"/>
+      <c r="DF13" s="33"/>
     </row>
-    <row r="14" spans="1:98">
-      <c r="A14" s="55"/>
+    <row r="14" spans="1:110">
+      <c r="A14" s="51"/>
       <c r="B14" s="31" t="s">
         <v>24</v>
       </c>
@@ -17033,9 +18917,21 @@
       <c r="CR14" s="33"/>
       <c r="CS14" s="33"/>
       <c r="CT14" s="33"/>
+      <c r="CU14" s="33"/>
+      <c r="CV14" s="33"/>
+      <c r="CW14" s="33"/>
+      <c r="CX14" s="33"/>
+      <c r="CY14" s="33"/>
+      <c r="CZ14" s="33"/>
+      <c r="DA14" s="33"/>
+      <c r="DB14" s="33"/>
+      <c r="DC14" s="33"/>
+      <c r="DD14" s="33"/>
+      <c r="DE14" s="33"/>
+      <c r="DF14" s="33"/>
     </row>
-    <row r="15" spans="1:98">
-      <c r="A15" s="53"/>
+    <row r="15" spans="1:110">
+      <c r="A15" s="49"/>
       <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
@@ -17135,9 +19031,21 @@
       <c r="CR15" s="33"/>
       <c r="CS15" s="33"/>
       <c r="CT15" s="33"/>
+      <c r="CU15" s="33"/>
+      <c r="CV15" s="33"/>
+      <c r="CW15" s="33"/>
+      <c r="CX15" s="33"/>
+      <c r="CY15" s="33"/>
+      <c r="CZ15" s="33"/>
+      <c r="DA15" s="33"/>
+      <c r="DB15" s="33"/>
+      <c r="DC15" s="33"/>
+      <c r="DD15" s="33"/>
+      <c r="DE15" s="33"/>
+      <c r="DF15" s="33"/>
     </row>
-    <row r="16" spans="1:98">
-      <c r="A16" s="54"/>
+    <row r="16" spans="1:110">
+      <c r="A16" s="50"/>
       <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
@@ -17237,9 +19145,21 @@
       <c r="CR16" s="33"/>
       <c r="CS16" s="33"/>
       <c r="CT16" s="33"/>
+      <c r="CU16" s="33"/>
+      <c r="CV16" s="33"/>
+      <c r="CW16" s="33"/>
+      <c r="CX16" s="33"/>
+      <c r="CY16" s="33"/>
+      <c r="CZ16" s="33"/>
+      <c r="DA16" s="33"/>
+      <c r="DB16" s="33"/>
+      <c r="DC16" s="33"/>
+      <c r="DD16" s="33"/>
+      <c r="DE16" s="33"/>
+      <c r="DF16" s="33"/>
     </row>
-    <row r="17" spans="1:98">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:110">
+      <c r="A17" s="51"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
       </c>
@@ -17339,9 +19259,21 @@
       <c r="CR17" s="33"/>
       <c r="CS17" s="33"/>
       <c r="CT17" s="33"/>
+      <c r="CU17" s="33"/>
+      <c r="CV17" s="33"/>
+      <c r="CW17" s="33"/>
+      <c r="CX17" s="33"/>
+      <c r="CY17" s="33"/>
+      <c r="CZ17" s="33"/>
+      <c r="DA17" s="33"/>
+      <c r="DB17" s="33"/>
+      <c r="DC17" s="33"/>
+      <c r="DD17" s="33"/>
+      <c r="DE17" s="33"/>
+      <c r="DF17" s="33"/>
     </row>
-    <row r="18" spans="1:98">
-      <c r="A18" s="53"/>
+    <row r="18" spans="1:110">
+      <c r="A18" s="49"/>
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
@@ -17441,9 +19373,21 @@
       <c r="CR18" s="33"/>
       <c r="CS18" s="33"/>
       <c r="CT18" s="33"/>
+      <c r="CU18" s="33"/>
+      <c r="CV18" s="33"/>
+      <c r="CW18" s="33"/>
+      <c r="CX18" s="33"/>
+      <c r="CY18" s="33"/>
+      <c r="CZ18" s="33"/>
+      <c r="DA18" s="33"/>
+      <c r="DB18" s="33"/>
+      <c r="DC18" s="33"/>
+      <c r="DD18" s="33"/>
+      <c r="DE18" s="33"/>
+      <c r="DF18" s="33"/>
     </row>
-    <row r="19" spans="1:98">
-      <c r="A19" s="54"/>
+    <row r="19" spans="1:110">
+      <c r="A19" s="50"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
@@ -17543,9 +19487,21 @@
       <c r="CR19" s="33"/>
       <c r="CS19" s="33"/>
       <c r="CT19" s="33"/>
+      <c r="CU19" s="33"/>
+      <c r="CV19" s="33"/>
+      <c r="CW19" s="33"/>
+      <c r="CX19" s="33"/>
+      <c r="CY19" s="33"/>
+      <c r="CZ19" s="33"/>
+      <c r="DA19" s="33"/>
+      <c r="DB19" s="33"/>
+      <c r="DC19" s="33"/>
+      <c r="DD19" s="33"/>
+      <c r="DE19" s="33"/>
+      <c r="DF19" s="33"/>
     </row>
-    <row r="20" spans="1:98">
-      <c r="A20" s="55"/>
+    <row r="20" spans="1:110">
+      <c r="A20" s="51"/>
       <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
@@ -17645,9 +19601,21 @@
       <c r="CR20" s="33"/>
       <c r="CS20" s="33"/>
       <c r="CT20" s="33"/>
+      <c r="CU20" s="33"/>
+      <c r="CV20" s="33"/>
+      <c r="CW20" s="33"/>
+      <c r="CX20" s="33"/>
+      <c r="CY20" s="33"/>
+      <c r="CZ20" s="33"/>
+      <c r="DA20" s="33"/>
+      <c r="DB20" s="33"/>
+      <c r="DC20" s="33"/>
+      <c r="DD20" s="33"/>
+      <c r="DE20" s="33"/>
+      <c r="DF20" s="33"/>
     </row>
-    <row r="21" spans="1:98">
-      <c r="A21" s="53"/>
+    <row r="21" spans="1:110">
+      <c r="A21" s="49"/>
       <c r="B21" s="31" t="s">
         <v>22</v>
       </c>
@@ -17747,9 +19715,21 @@
       <c r="CR21" s="33"/>
       <c r="CS21" s="33"/>
       <c r="CT21" s="33"/>
+      <c r="CU21" s="33"/>
+      <c r="CV21" s="33"/>
+      <c r="CW21" s="33"/>
+      <c r="CX21" s="33"/>
+      <c r="CY21" s="33"/>
+      <c r="CZ21" s="33"/>
+      <c r="DA21" s="33"/>
+      <c r="DB21" s="33"/>
+      <c r="DC21" s="33"/>
+      <c r="DD21" s="33"/>
+      <c r="DE21" s="33"/>
+      <c r="DF21" s="33"/>
     </row>
-    <row r="22" spans="1:98">
-      <c r="A22" s="54"/>
+    <row r="22" spans="1:110">
+      <c r="A22" s="50"/>
       <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
@@ -17849,9 +19829,21 @@
       <c r="CR22" s="33"/>
       <c r="CS22" s="33"/>
       <c r="CT22" s="33"/>
+      <c r="CU22" s="33"/>
+      <c r="CV22" s="33"/>
+      <c r="CW22" s="33"/>
+      <c r="CX22" s="33"/>
+      <c r="CY22" s="33"/>
+      <c r="CZ22" s="33"/>
+      <c r="DA22" s="33"/>
+      <c r="DB22" s="33"/>
+      <c r="DC22" s="33"/>
+      <c r="DD22" s="33"/>
+      <c r="DE22" s="33"/>
+      <c r="DF22" s="33"/>
     </row>
-    <row r="23" spans="1:98">
-      <c r="A23" s="55"/>
+    <row r="23" spans="1:110">
+      <c r="A23" s="51"/>
       <c r="B23" s="31" t="s">
         <v>24</v>
       </c>
@@ -17951,9 +19943,21 @@
       <c r="CR23" s="33"/>
       <c r="CS23" s="33"/>
       <c r="CT23" s="33"/>
+      <c r="CU23" s="33"/>
+      <c r="CV23" s="33"/>
+      <c r="CW23" s="33"/>
+      <c r="CX23" s="33"/>
+      <c r="CY23" s="33"/>
+      <c r="CZ23" s="33"/>
+      <c r="DA23" s="33"/>
+      <c r="DB23" s="33"/>
+      <c r="DC23" s="33"/>
+      <c r="DD23" s="33"/>
+      <c r="DE23" s="33"/>
+      <c r="DF23" s="33"/>
     </row>
-    <row r="24" spans="1:98">
-      <c r="A24" s="53"/>
+    <row r="24" spans="1:110">
+      <c r="A24" s="49"/>
       <c r="B24" s="31" t="s">
         <v>22</v>
       </c>
@@ -18053,9 +20057,21 @@
       <c r="CR24" s="33"/>
       <c r="CS24" s="33"/>
       <c r="CT24" s="33"/>
+      <c r="CU24" s="33"/>
+      <c r="CV24" s="33"/>
+      <c r="CW24" s="33"/>
+      <c r="CX24" s="33"/>
+      <c r="CY24" s="33"/>
+      <c r="CZ24" s="33"/>
+      <c r="DA24" s="33"/>
+      <c r="DB24" s="33"/>
+      <c r="DC24" s="33"/>
+      <c r="DD24" s="33"/>
+      <c r="DE24" s="33"/>
+      <c r="DF24" s="33"/>
     </row>
-    <row r="25" spans="1:98">
-      <c r="A25" s="54"/>
+    <row r="25" spans="1:110">
+      <c r="A25" s="50"/>
       <c r="B25" s="31" t="s">
         <v>23</v>
       </c>
@@ -18155,9 +20171,21 @@
       <c r="CR25" s="33"/>
       <c r="CS25" s="33"/>
       <c r="CT25" s="33"/>
+      <c r="CU25" s="33"/>
+      <c r="CV25" s="33"/>
+      <c r="CW25" s="33"/>
+      <c r="CX25" s="33"/>
+      <c r="CY25" s="33"/>
+      <c r="CZ25" s="33"/>
+      <c r="DA25" s="33"/>
+      <c r="DB25" s="33"/>
+      <c r="DC25" s="33"/>
+      <c r="DD25" s="33"/>
+      <c r="DE25" s="33"/>
+      <c r="DF25" s="33"/>
     </row>
-    <row r="26" spans="1:98">
-      <c r="A26" s="55"/>
+    <row r="26" spans="1:110">
+      <c r="A26" s="51"/>
       <c r="B26" s="31" t="s">
         <v>24</v>
       </c>
@@ -18257,9 +20285,21 @@
       <c r="CR26" s="33"/>
       <c r="CS26" s="33"/>
       <c r="CT26" s="33"/>
+      <c r="CU26" s="33"/>
+      <c r="CV26" s="33"/>
+      <c r="CW26" s="33"/>
+      <c r="CX26" s="33"/>
+      <c r="CY26" s="33"/>
+      <c r="CZ26" s="33"/>
+      <c r="DA26" s="33"/>
+      <c r="DB26" s="33"/>
+      <c r="DC26" s="33"/>
+      <c r="DD26" s="33"/>
+      <c r="DE26" s="33"/>
+      <c r="DF26" s="33"/>
     </row>
-    <row r="27" spans="1:98">
-      <c r="A27" s="53"/>
+    <row r="27" spans="1:110">
+      <c r="A27" s="49"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
       </c>
@@ -18359,9 +20399,21 @@
       <c r="CR27" s="33"/>
       <c r="CS27" s="33"/>
       <c r="CT27" s="33"/>
+      <c r="CU27" s="33"/>
+      <c r="CV27" s="33"/>
+      <c r="CW27" s="33"/>
+      <c r="CX27" s="33"/>
+      <c r="CY27" s="33"/>
+      <c r="CZ27" s="33"/>
+      <c r="DA27" s="33"/>
+      <c r="DB27" s="33"/>
+      <c r="DC27" s="33"/>
+      <c r="DD27" s="33"/>
+      <c r="DE27" s="33"/>
+      <c r="DF27" s="33"/>
     </row>
-    <row r="28" spans="1:98">
-      <c r="A28" s="54"/>
+    <row r="28" spans="1:110">
+      <c r="A28" s="50"/>
       <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
@@ -18461,9 +20513,21 @@
       <c r="CR28" s="33"/>
       <c r="CS28" s="33"/>
       <c r="CT28" s="33"/>
+      <c r="CU28" s="33"/>
+      <c r="CV28" s="33"/>
+      <c r="CW28" s="33"/>
+      <c r="CX28" s="33"/>
+      <c r="CY28" s="33"/>
+      <c r="CZ28" s="33"/>
+      <c r="DA28" s="33"/>
+      <c r="DB28" s="33"/>
+      <c r="DC28" s="33"/>
+      <c r="DD28" s="33"/>
+      <c r="DE28" s="33"/>
+      <c r="DF28" s="33"/>
     </row>
-    <row r="29" spans="1:98">
-      <c r="A29" s="55"/>
+    <row r="29" spans="1:110">
+      <c r="A29" s="51"/>
       <c r="B29" s="31" t="s">
         <v>24</v>
       </c>
@@ -18563,9 +20627,21 @@
       <c r="CR29" s="33"/>
       <c r="CS29" s="33"/>
       <c r="CT29" s="33"/>
+      <c r="CU29" s="33"/>
+      <c r="CV29" s="33"/>
+      <c r="CW29" s="33"/>
+      <c r="CX29" s="33"/>
+      <c r="CY29" s="33"/>
+      <c r="CZ29" s="33"/>
+      <c r="DA29" s="33"/>
+      <c r="DB29" s="33"/>
+      <c r="DC29" s="33"/>
+      <c r="DD29" s="33"/>
+      <c r="DE29" s="33"/>
+      <c r="DF29" s="33"/>
     </row>
-    <row r="30" spans="1:98">
-      <c r="A30" s="53"/>
+    <row r="30" spans="1:110">
+      <c r="A30" s="49"/>
       <c r="B30" s="31" t="s">
         <v>22</v>
       </c>
@@ -18665,9 +20741,21 @@
       <c r="CR30" s="33"/>
       <c r="CS30" s="33"/>
       <c r="CT30" s="33"/>
+      <c r="CU30" s="33"/>
+      <c r="CV30" s="33"/>
+      <c r="CW30" s="33"/>
+      <c r="CX30" s="33"/>
+      <c r="CY30" s="33"/>
+      <c r="CZ30" s="33"/>
+      <c r="DA30" s="33"/>
+      <c r="DB30" s="33"/>
+      <c r="DC30" s="33"/>
+      <c r="DD30" s="33"/>
+      <c r="DE30" s="33"/>
+      <c r="DF30" s="33"/>
     </row>
-    <row r="31" spans="1:98">
-      <c r="A31" s="54"/>
+    <row r="31" spans="1:110">
+      <c r="A31" s="50"/>
       <c r="B31" s="31" t="s">
         <v>23</v>
       </c>
@@ -18767,9 +20855,21 @@
       <c r="CR31" s="33"/>
       <c r="CS31" s="33"/>
       <c r="CT31" s="33"/>
+      <c r="CU31" s="33"/>
+      <c r="CV31" s="33"/>
+      <c r="CW31" s="33"/>
+      <c r="CX31" s="33"/>
+      <c r="CY31" s="33"/>
+      <c r="CZ31" s="33"/>
+      <c r="DA31" s="33"/>
+      <c r="DB31" s="33"/>
+      <c r="DC31" s="33"/>
+      <c r="DD31" s="33"/>
+      <c r="DE31" s="33"/>
+      <c r="DF31" s="33"/>
     </row>
-    <row r="32" spans="1:98">
-      <c r="A32" s="55"/>
+    <row r="32" spans="1:110">
+      <c r="A32" s="51"/>
       <c r="B32" s="31" t="s">
         <v>24</v>
       </c>
@@ -18869,9 +20969,21 @@
       <c r="CR32" s="33"/>
       <c r="CS32" s="33"/>
       <c r="CT32" s="33"/>
+      <c r="CU32" s="33"/>
+      <c r="CV32" s="33"/>
+      <c r="CW32" s="33"/>
+      <c r="CX32" s="33"/>
+      <c r="CY32" s="33"/>
+      <c r="CZ32" s="33"/>
+      <c r="DA32" s="33"/>
+      <c r="DB32" s="33"/>
+      <c r="DC32" s="33"/>
+      <c r="DD32" s="33"/>
+      <c r="DE32" s="33"/>
+      <c r="DF32" s="33"/>
     </row>
-    <row r="33" spans="1:98">
-      <c r="A33" s="53"/>
+    <row r="33" spans="1:110">
+      <c r="A33" s="49"/>
       <c r="B33" s="31" t="s">
         <v>22</v>
       </c>
@@ -18971,9 +21083,21 @@
       <c r="CR33" s="33"/>
       <c r="CS33" s="33"/>
       <c r="CT33" s="33"/>
+      <c r="CU33" s="33"/>
+      <c r="CV33" s="33"/>
+      <c r="CW33" s="33"/>
+      <c r="CX33" s="33"/>
+      <c r="CY33" s="33"/>
+      <c r="CZ33" s="33"/>
+      <c r="DA33" s="33"/>
+      <c r="DB33" s="33"/>
+      <c r="DC33" s="33"/>
+      <c r="DD33" s="33"/>
+      <c r="DE33" s="33"/>
+      <c r="DF33" s="33"/>
     </row>
-    <row r="34" spans="1:98">
-      <c r="A34" s="54"/>
+    <row r="34" spans="1:110">
+      <c r="A34" s="50"/>
       <c r="B34" s="31" t="s">
         <v>23</v>
       </c>
@@ -19073,9 +21197,21 @@
       <c r="CR34" s="33"/>
       <c r="CS34" s="33"/>
       <c r="CT34" s="33"/>
+      <c r="CU34" s="33"/>
+      <c r="CV34" s="33"/>
+      <c r="CW34" s="33"/>
+      <c r="CX34" s="33"/>
+      <c r="CY34" s="33"/>
+      <c r="CZ34" s="33"/>
+      <c r="DA34" s="33"/>
+      <c r="DB34" s="33"/>
+      <c r="DC34" s="33"/>
+      <c r="DD34" s="33"/>
+      <c r="DE34" s="33"/>
+      <c r="DF34" s="33"/>
     </row>
-    <row r="35" spans="1:98">
-      <c r="A35" s="55"/>
+    <row r="35" spans="1:110">
+      <c r="A35" s="51"/>
       <c r="B35" s="31" t="s">
         <v>24</v>
       </c>
@@ -19175,9 +21311,21 @@
       <c r="CR35" s="33"/>
       <c r="CS35" s="33"/>
       <c r="CT35" s="33"/>
+      <c r="CU35" s="33"/>
+      <c r="CV35" s="33"/>
+      <c r="CW35" s="33"/>
+      <c r="CX35" s="33"/>
+      <c r="CY35" s="33"/>
+      <c r="CZ35" s="33"/>
+      <c r="DA35" s="33"/>
+      <c r="DB35" s="33"/>
+      <c r="DC35" s="33"/>
+      <c r="DD35" s="33"/>
+      <c r="DE35" s="33"/>
+      <c r="DF35" s="33"/>
     </row>
-    <row r="36" spans="1:98">
-      <c r="A36" s="53"/>
+    <row r="36" spans="1:110">
+      <c r="A36" s="49"/>
       <c r="B36" s="31" t="s">
         <v>22</v>
       </c>
@@ -19277,9 +21425,21 @@
       <c r="CR36" s="33"/>
       <c r="CS36" s="33"/>
       <c r="CT36" s="33"/>
+      <c r="CU36" s="33"/>
+      <c r="CV36" s="33"/>
+      <c r="CW36" s="33"/>
+      <c r="CX36" s="33"/>
+      <c r="CY36" s="33"/>
+      <c r="CZ36" s="33"/>
+      <c r="DA36" s="33"/>
+      <c r="DB36" s="33"/>
+      <c r="DC36" s="33"/>
+      <c r="DD36" s="33"/>
+      <c r="DE36" s="33"/>
+      <c r="DF36" s="33"/>
     </row>
-    <row r="37" spans="1:98">
-      <c r="A37" s="54"/>
+    <row r="37" spans="1:110">
+      <c r="A37" s="50"/>
       <c r="B37" s="31" t="s">
         <v>23</v>
       </c>
@@ -19379,9 +21539,21 @@
       <c r="CR37" s="33"/>
       <c r="CS37" s="33"/>
       <c r="CT37" s="33"/>
+      <c r="CU37" s="33"/>
+      <c r="CV37" s="33"/>
+      <c r="CW37" s="33"/>
+      <c r="CX37" s="33"/>
+      <c r="CY37" s="33"/>
+      <c r="CZ37" s="33"/>
+      <c r="DA37" s="33"/>
+      <c r="DB37" s="33"/>
+      <c r="DC37" s="33"/>
+      <c r="DD37" s="33"/>
+      <c r="DE37" s="33"/>
+      <c r="DF37" s="33"/>
     </row>
-    <row r="38" spans="1:98">
-      <c r="A38" s="55"/>
+    <row r="38" spans="1:110">
+      <c r="A38" s="51"/>
       <c r="B38" s="31" t="s">
         <v>24</v>
       </c>
@@ -19481,9 +21653,21 @@
       <c r="CR38" s="33"/>
       <c r="CS38" s="33"/>
       <c r="CT38" s="33"/>
+      <c r="CU38" s="33"/>
+      <c r="CV38" s="33"/>
+      <c r="CW38" s="33"/>
+      <c r="CX38" s="33"/>
+      <c r="CY38" s="33"/>
+      <c r="CZ38" s="33"/>
+      <c r="DA38" s="33"/>
+      <c r="DB38" s="33"/>
+      <c r="DC38" s="33"/>
+      <c r="DD38" s="33"/>
+      <c r="DE38" s="33"/>
+      <c r="DF38" s="33"/>
     </row>
-    <row r="39" spans="1:98">
-      <c r="A39" s="53"/>
+    <row r="39" spans="1:110">
+      <c r="A39" s="49"/>
       <c r="B39" s="31" t="s">
         <v>22</v>
       </c>
@@ -19583,9 +21767,21 @@
       <c r="CR39" s="33"/>
       <c r="CS39" s="33"/>
       <c r="CT39" s="33"/>
+      <c r="CU39" s="33"/>
+      <c r="CV39" s="33"/>
+      <c r="CW39" s="33"/>
+      <c r="CX39" s="33"/>
+      <c r="CY39" s="33"/>
+      <c r="CZ39" s="33"/>
+      <c r="DA39" s="33"/>
+      <c r="DB39" s="33"/>
+      <c r="DC39" s="33"/>
+      <c r="DD39" s="33"/>
+      <c r="DE39" s="33"/>
+      <c r="DF39" s="33"/>
     </row>
-    <row r="40" spans="1:98">
-      <c r="A40" s="54"/>
+    <row r="40" spans="1:110">
+      <c r="A40" s="50"/>
       <c r="B40" s="31" t="s">
         <v>23</v>
       </c>
@@ -19685,9 +21881,21 @@
       <c r="CR40" s="33"/>
       <c r="CS40" s="33"/>
       <c r="CT40" s="33"/>
+      <c r="CU40" s="33"/>
+      <c r="CV40" s="33"/>
+      <c r="CW40" s="33"/>
+      <c r="CX40" s="33"/>
+      <c r="CY40" s="33"/>
+      <c r="CZ40" s="33"/>
+      <c r="DA40" s="33"/>
+      <c r="DB40" s="33"/>
+      <c r="DC40" s="33"/>
+      <c r="DD40" s="33"/>
+      <c r="DE40" s="33"/>
+      <c r="DF40" s="33"/>
     </row>
-    <row r="41" spans="1:98">
-      <c r="A41" s="55"/>
+    <row r="41" spans="1:110">
+      <c r="A41" s="51"/>
       <c r="B41" s="31" t="s">
         <v>24</v>
       </c>
@@ -19787,9 +21995,21 @@
       <c r="CR41" s="33"/>
       <c r="CS41" s="33"/>
       <c r="CT41" s="33"/>
+      <c r="CU41" s="33"/>
+      <c r="CV41" s="33"/>
+      <c r="CW41" s="33"/>
+      <c r="CX41" s="33"/>
+      <c r="CY41" s="33"/>
+      <c r="CZ41" s="33"/>
+      <c r="DA41" s="33"/>
+      <c r="DB41" s="33"/>
+      <c r="DC41" s="33"/>
+      <c r="DD41" s="33"/>
+      <c r="DE41" s="33"/>
+      <c r="DF41" s="33"/>
     </row>
-    <row r="42" spans="1:98">
-      <c r="A42" s="53"/>
+    <row r="42" spans="1:110">
+      <c r="A42" s="49"/>
       <c r="B42" s="31" t="s">
         <v>22</v>
       </c>
@@ -19889,9 +22109,21 @@
       <c r="CR42" s="33"/>
       <c r="CS42" s="33"/>
       <c r="CT42" s="33"/>
+      <c r="CU42" s="33"/>
+      <c r="CV42" s="33"/>
+      <c r="CW42" s="33"/>
+      <c r="CX42" s="33"/>
+      <c r="CY42" s="33"/>
+      <c r="CZ42" s="33"/>
+      <c r="DA42" s="33"/>
+      <c r="DB42" s="33"/>
+      <c r="DC42" s="33"/>
+      <c r="DD42" s="33"/>
+      <c r="DE42" s="33"/>
+      <c r="DF42" s="33"/>
     </row>
-    <row r="43" spans="1:98">
-      <c r="A43" s="54"/>
+    <row r="43" spans="1:110">
+      <c r="A43" s="50"/>
       <c r="B43" s="31" t="s">
         <v>23</v>
       </c>
@@ -19991,9 +22223,21 @@
       <c r="CR43" s="33"/>
       <c r="CS43" s="33"/>
       <c r="CT43" s="33"/>
+      <c r="CU43" s="33"/>
+      <c r="CV43" s="33"/>
+      <c r="CW43" s="33"/>
+      <c r="CX43" s="33"/>
+      <c r="CY43" s="33"/>
+      <c r="CZ43" s="33"/>
+      <c r="DA43" s="33"/>
+      <c r="DB43" s="33"/>
+      <c r="DC43" s="33"/>
+      <c r="DD43" s="33"/>
+      <c r="DE43" s="33"/>
+      <c r="DF43" s="33"/>
     </row>
-    <row r="44" spans="1:98">
-      <c r="A44" s="55"/>
+    <row r="44" spans="1:110">
+      <c r="A44" s="51"/>
       <c r="B44" s="31" t="s">
         <v>24</v>
       </c>
@@ -20093,9 +22337,21 @@
       <c r="CR44" s="33"/>
       <c r="CS44" s="33"/>
       <c r="CT44" s="33"/>
+      <c r="CU44" s="33"/>
+      <c r="CV44" s="33"/>
+      <c r="CW44" s="33"/>
+      <c r="CX44" s="33"/>
+      <c r="CY44" s="33"/>
+      <c r="CZ44" s="33"/>
+      <c r="DA44" s="33"/>
+      <c r="DB44" s="33"/>
+      <c r="DC44" s="33"/>
+      <c r="DD44" s="33"/>
+      <c r="DE44" s="33"/>
+      <c r="DF44" s="33"/>
     </row>
-    <row r="45" spans="1:98">
-      <c r="A45" s="53"/>
+    <row r="45" spans="1:110">
+      <c r="A45" s="49"/>
       <c r="B45" s="31" t="s">
         <v>22</v>
       </c>
@@ -20195,9 +22451,21 @@
       <c r="CR45" s="33"/>
       <c r="CS45" s="33"/>
       <c r="CT45" s="33"/>
+      <c r="CU45" s="33"/>
+      <c r="CV45" s="33"/>
+      <c r="CW45" s="33"/>
+      <c r="CX45" s="33"/>
+      <c r="CY45" s="33"/>
+      <c r="CZ45" s="33"/>
+      <c r="DA45" s="33"/>
+      <c r="DB45" s="33"/>
+      <c r="DC45" s="33"/>
+      <c r="DD45" s="33"/>
+      <c r="DE45" s="33"/>
+      <c r="DF45" s="33"/>
     </row>
-    <row r="46" spans="1:98">
-      <c r="A46" s="54"/>
+    <row r="46" spans="1:110">
+      <c r="A46" s="50"/>
       <c r="B46" s="31" t="s">
         <v>23</v>
       </c>
@@ -20297,9 +22565,21 @@
       <c r="CR46" s="33"/>
       <c r="CS46" s="33"/>
       <c r="CT46" s="33"/>
+      <c r="CU46" s="33"/>
+      <c r="CV46" s="33"/>
+      <c r="CW46" s="33"/>
+      <c r="CX46" s="33"/>
+      <c r="CY46" s="33"/>
+      <c r="CZ46" s="33"/>
+      <c r="DA46" s="33"/>
+      <c r="DB46" s="33"/>
+      <c r="DC46" s="33"/>
+      <c r="DD46" s="33"/>
+      <c r="DE46" s="33"/>
+      <c r="DF46" s="33"/>
     </row>
-    <row r="47" spans="1:98">
-      <c r="A47" s="55"/>
+    <row r="47" spans="1:110">
+      <c r="A47" s="51"/>
       <c r="B47" s="31" t="s">
         <v>24</v>
       </c>
@@ -20399,9 +22679,21 @@
       <c r="CR47" s="33"/>
       <c r="CS47" s="33"/>
       <c r="CT47" s="33"/>
+      <c r="CU47" s="33"/>
+      <c r="CV47" s="33"/>
+      <c r="CW47" s="33"/>
+      <c r="CX47" s="33"/>
+      <c r="CY47" s="33"/>
+      <c r="CZ47" s="33"/>
+      <c r="DA47" s="33"/>
+      <c r="DB47" s="33"/>
+      <c r="DC47" s="33"/>
+      <c r="DD47" s="33"/>
+      <c r="DE47" s="33"/>
+      <c r="DF47" s="33"/>
     </row>
-    <row r="48" spans="1:98">
-      <c r="A48" s="53"/>
+    <row r="48" spans="1:110">
+      <c r="A48" s="49"/>
       <c r="B48" s="31" t="s">
         <v>22</v>
       </c>
@@ -20501,9 +22793,21 @@
       <c r="CR48" s="33"/>
       <c r="CS48" s="33"/>
       <c r="CT48" s="33"/>
+      <c r="CU48" s="33"/>
+      <c r="CV48" s="33"/>
+      <c r="CW48" s="33"/>
+      <c r="CX48" s="33"/>
+      <c r="CY48" s="33"/>
+      <c r="CZ48" s="33"/>
+      <c r="DA48" s="33"/>
+      <c r="DB48" s="33"/>
+      <c r="DC48" s="33"/>
+      <c r="DD48" s="33"/>
+      <c r="DE48" s="33"/>
+      <c r="DF48" s="33"/>
     </row>
-    <row r="49" spans="1:98">
-      <c r="A49" s="54"/>
+    <row r="49" spans="1:110">
+      <c r="A49" s="50"/>
       <c r="B49" s="31" t="s">
         <v>23</v>
       </c>
@@ -20603,9 +22907,21 @@
       <c r="CR49" s="33"/>
       <c r="CS49" s="33"/>
       <c r="CT49" s="33"/>
+      <c r="CU49" s="33"/>
+      <c r="CV49" s="33"/>
+      <c r="CW49" s="33"/>
+      <c r="CX49" s="33"/>
+      <c r="CY49" s="33"/>
+      <c r="CZ49" s="33"/>
+      <c r="DA49" s="33"/>
+      <c r="DB49" s="33"/>
+      <c r="DC49" s="33"/>
+      <c r="DD49" s="33"/>
+      <c r="DE49" s="33"/>
+      <c r="DF49" s="33"/>
     </row>
-    <row r="50" spans="1:98">
-      <c r="A50" s="55"/>
+    <row r="50" spans="1:110">
+      <c r="A50" s="51"/>
       <c r="B50" s="31" t="s">
         <v>24</v>
       </c>
@@ -20705,9 +23021,21 @@
       <c r="CR50" s="33"/>
       <c r="CS50" s="33"/>
       <c r="CT50" s="33"/>
+      <c r="CU50" s="33"/>
+      <c r="CV50" s="33"/>
+      <c r="CW50" s="33"/>
+      <c r="CX50" s="33"/>
+      <c r="CY50" s="33"/>
+      <c r="CZ50" s="33"/>
+      <c r="DA50" s="33"/>
+      <c r="DB50" s="33"/>
+      <c r="DC50" s="33"/>
+      <c r="DD50" s="33"/>
+      <c r="DE50" s="33"/>
+      <c r="DF50" s="33"/>
     </row>
-    <row r="51" spans="1:98">
-      <c r="A51" s="53"/>
+    <row r="51" spans="1:110">
+      <c r="A51" s="49"/>
       <c r="B51" s="31" t="s">
         <v>22</v>
       </c>
@@ -20807,9 +23135,21 @@
       <c r="CR51" s="33"/>
       <c r="CS51" s="33"/>
       <c r="CT51" s="33"/>
+      <c r="CU51" s="33"/>
+      <c r="CV51" s="33"/>
+      <c r="CW51" s="33"/>
+      <c r="CX51" s="33"/>
+      <c r="CY51" s="33"/>
+      <c r="CZ51" s="33"/>
+      <c r="DA51" s="33"/>
+      <c r="DB51" s="33"/>
+      <c r="DC51" s="33"/>
+      <c r="DD51" s="33"/>
+      <c r="DE51" s="33"/>
+      <c r="DF51" s="33"/>
     </row>
-    <row r="52" spans="1:98">
-      <c r="A52" s="54"/>
+    <row r="52" spans="1:110">
+      <c r="A52" s="50"/>
       <c r="B52" s="31" t="s">
         <v>23</v>
       </c>
@@ -20909,9 +23249,21 @@
       <c r="CR52" s="33"/>
       <c r="CS52" s="33"/>
       <c r="CT52" s="33"/>
+      <c r="CU52" s="33"/>
+      <c r="CV52" s="33"/>
+      <c r="CW52" s="33"/>
+      <c r="CX52" s="33"/>
+      <c r="CY52" s="33"/>
+      <c r="CZ52" s="33"/>
+      <c r="DA52" s="33"/>
+      <c r="DB52" s="33"/>
+      <c r="DC52" s="33"/>
+      <c r="DD52" s="33"/>
+      <c r="DE52" s="33"/>
+      <c r="DF52" s="33"/>
     </row>
-    <row r="53" spans="1:98">
-      <c r="A53" s="55"/>
+    <row r="53" spans="1:110">
+      <c r="A53" s="51"/>
       <c r="B53" s="31" t="s">
         <v>24</v>
       </c>
@@ -21011,9 +23363,21 @@
       <c r="CR53" s="33"/>
       <c r="CS53" s="33"/>
       <c r="CT53" s="33"/>
+      <c r="CU53" s="33"/>
+      <c r="CV53" s="33"/>
+      <c r="CW53" s="33"/>
+      <c r="CX53" s="33"/>
+      <c r="CY53" s="33"/>
+      <c r="CZ53" s="33"/>
+      <c r="DA53" s="33"/>
+      <c r="DB53" s="33"/>
+      <c r="DC53" s="33"/>
+      <c r="DD53" s="33"/>
+      <c r="DE53" s="33"/>
+      <c r="DF53" s="33"/>
     </row>
-    <row r="54" spans="1:98">
-      <c r="A54" s="53"/>
+    <row r="54" spans="1:110">
+      <c r="A54" s="49"/>
       <c r="B54" s="31" t="s">
         <v>22</v>
       </c>
@@ -21113,9 +23477,21 @@
       <c r="CR54" s="33"/>
       <c r="CS54" s="33"/>
       <c r="CT54" s="33"/>
+      <c r="CU54" s="33"/>
+      <c r="CV54" s="33"/>
+      <c r="CW54" s="33"/>
+      <c r="CX54" s="33"/>
+      <c r="CY54" s="33"/>
+      <c r="CZ54" s="33"/>
+      <c r="DA54" s="33"/>
+      <c r="DB54" s="33"/>
+      <c r="DC54" s="33"/>
+      <c r="DD54" s="33"/>
+      <c r="DE54" s="33"/>
+      <c r="DF54" s="33"/>
     </row>
-    <row r="55" spans="1:98">
-      <c r="A55" s="54"/>
+    <row r="55" spans="1:110">
+      <c r="A55" s="50"/>
       <c r="B55" s="31" t="s">
         <v>23</v>
       </c>
@@ -21215,9 +23591,21 @@
       <c r="CR55" s="33"/>
       <c r="CS55" s="33"/>
       <c r="CT55" s="33"/>
+      <c r="CU55" s="33"/>
+      <c r="CV55" s="33"/>
+      <c r="CW55" s="33"/>
+      <c r="CX55" s="33"/>
+      <c r="CY55" s="33"/>
+      <c r="CZ55" s="33"/>
+      <c r="DA55" s="33"/>
+      <c r="DB55" s="33"/>
+      <c r="DC55" s="33"/>
+      <c r="DD55" s="33"/>
+      <c r="DE55" s="33"/>
+      <c r="DF55" s="33"/>
     </row>
-    <row r="56" spans="1:98">
-      <c r="A56" s="55"/>
+    <row r="56" spans="1:110">
+      <c r="A56" s="51"/>
       <c r="B56" s="31" t="s">
         <v>24</v>
       </c>
@@ -21317,9 +23705,21 @@
       <c r="CR56" s="33"/>
       <c r="CS56" s="33"/>
       <c r="CT56" s="33"/>
+      <c r="CU56" s="33"/>
+      <c r="CV56" s="33"/>
+      <c r="CW56" s="33"/>
+      <c r="CX56" s="33"/>
+      <c r="CY56" s="33"/>
+      <c r="CZ56" s="33"/>
+      <c r="DA56" s="33"/>
+      <c r="DB56" s="33"/>
+      <c r="DC56" s="33"/>
+      <c r="DD56" s="33"/>
+      <c r="DE56" s="33"/>
+      <c r="DF56" s="33"/>
     </row>
-    <row r="57" spans="1:98">
-      <c r="A57" s="53"/>
+    <row r="57" spans="1:110">
+      <c r="A57" s="49"/>
       <c r="B57" s="31" t="s">
         <v>22</v>
       </c>
@@ -21419,9 +23819,21 @@
       <c r="CR57" s="33"/>
       <c r="CS57" s="33"/>
       <c r="CT57" s="33"/>
+      <c r="CU57" s="33"/>
+      <c r="CV57" s="33"/>
+      <c r="CW57" s="33"/>
+      <c r="CX57" s="33"/>
+      <c r="CY57" s="33"/>
+      <c r="CZ57" s="33"/>
+      <c r="DA57" s="33"/>
+      <c r="DB57" s="33"/>
+      <c r="DC57" s="33"/>
+      <c r="DD57" s="33"/>
+      <c r="DE57" s="33"/>
+      <c r="DF57" s="33"/>
     </row>
-    <row r="58" spans="1:98">
-      <c r="A58" s="54"/>
+    <row r="58" spans="1:110">
+      <c r="A58" s="50"/>
       <c r="B58" s="31" t="s">
         <v>23</v>
       </c>
@@ -21521,9 +23933,21 @@
       <c r="CR58" s="33"/>
       <c r="CS58" s="33"/>
       <c r="CT58" s="33"/>
+      <c r="CU58" s="33"/>
+      <c r="CV58" s="33"/>
+      <c r="CW58" s="33"/>
+      <c r="CX58" s="33"/>
+      <c r="CY58" s="33"/>
+      <c r="CZ58" s="33"/>
+      <c r="DA58" s="33"/>
+      <c r="DB58" s="33"/>
+      <c r="DC58" s="33"/>
+      <c r="DD58" s="33"/>
+      <c r="DE58" s="33"/>
+      <c r="DF58" s="33"/>
     </row>
-    <row r="59" spans="1:98">
-      <c r="A59" s="55"/>
+    <row r="59" spans="1:110">
+      <c r="A59" s="51"/>
       <c r="B59" s="31" t="s">
         <v>24</v>
       </c>
@@ -21623,9 +24047,21 @@
       <c r="CR59" s="33"/>
       <c r="CS59" s="33"/>
       <c r="CT59" s="33"/>
+      <c r="CU59" s="33"/>
+      <c r="CV59" s="33"/>
+      <c r="CW59" s="33"/>
+      <c r="CX59" s="33"/>
+      <c r="CY59" s="33"/>
+      <c r="CZ59" s="33"/>
+      <c r="DA59" s="33"/>
+      <c r="DB59" s="33"/>
+      <c r="DC59" s="33"/>
+      <c r="DD59" s="33"/>
+      <c r="DE59" s="33"/>
+      <c r="DF59" s="33"/>
     </row>
-    <row r="60" spans="1:98">
-      <c r="A60" s="53"/>
+    <row r="60" spans="1:110">
+      <c r="A60" s="49"/>
       <c r="B60" s="31" t="s">
         <v>22</v>
       </c>
@@ -21725,9 +24161,21 @@
       <c r="CR60" s="33"/>
       <c r="CS60" s="33"/>
       <c r="CT60" s="33"/>
+      <c r="CU60" s="33"/>
+      <c r="CV60" s="33"/>
+      <c r="CW60" s="33"/>
+      <c r="CX60" s="33"/>
+      <c r="CY60" s="33"/>
+      <c r="CZ60" s="33"/>
+      <c r="DA60" s="33"/>
+      <c r="DB60" s="33"/>
+      <c r="DC60" s="33"/>
+      <c r="DD60" s="33"/>
+      <c r="DE60" s="33"/>
+      <c r="DF60" s="33"/>
     </row>
-    <row r="61" spans="1:98">
-      <c r="A61" s="54"/>
+    <row r="61" spans="1:110">
+      <c r="A61" s="50"/>
       <c r="B61" s="31" t="s">
         <v>23</v>
       </c>
@@ -21827,9 +24275,21 @@
       <c r="CR61" s="33"/>
       <c r="CS61" s="33"/>
       <c r="CT61" s="33"/>
+      <c r="CU61" s="33"/>
+      <c r="CV61" s="33"/>
+      <c r="CW61" s="33"/>
+      <c r="CX61" s="33"/>
+      <c r="CY61" s="33"/>
+      <c r="CZ61" s="33"/>
+      <c r="DA61" s="33"/>
+      <c r="DB61" s="33"/>
+      <c r="DC61" s="33"/>
+      <c r="DD61" s="33"/>
+      <c r="DE61" s="33"/>
+      <c r="DF61" s="33"/>
     </row>
-    <row r="62" spans="1:98">
-      <c r="A62" s="55"/>
+    <row r="62" spans="1:110">
+      <c r="A62" s="51"/>
       <c r="B62" s="31" t="s">
         <v>24</v>
       </c>
@@ -21929,9 +24389,44 @@
       <c r="CR62" s="33"/>
       <c r="CS62" s="33"/>
       <c r="CT62" s="33"/>
+      <c r="CU62" s="33"/>
+      <c r="CV62" s="33"/>
+      <c r="CW62" s="33"/>
+      <c r="CX62" s="33"/>
+      <c r="CY62" s="33"/>
+      <c r="CZ62" s="33"/>
+      <c r="DA62" s="33"/>
+      <c r="DB62" s="33"/>
+      <c r="DC62" s="33"/>
+      <c r="DD62" s="33"/>
+      <c r="DE62" s="33"/>
+      <c r="DF62" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="CU1:DF1"/>
+    <mergeCell ref="CU3:DF3"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="BW3:CH3"/>
+    <mergeCell ref="AM1:AX1"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="CI1:CT1"/>
     <mergeCell ref="CI3:CT3"/>
     <mergeCell ref="A1:A5"/>
@@ -21948,55 +24443,13 @@
     <mergeCell ref="AM3:AX3"/>
     <mergeCell ref="AY3:BJ3"/>
     <mergeCell ref="BK3:BV3"/>
-    <mergeCell ref="BW3:CH3"/>
-    <mergeCell ref="AM1:AX1"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="b6aca24e-4444-460a-817a-632af75502ac">Yes</Status>
-    <Items xmlns="b6aca24e-4444-460a-817a-632af75502ac" xsi:nil="true"/>
-    <Flag xmlns="b6aca24e-4444-460a-817a-632af75502ac">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Flag>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BEFC1D0ECDB5F43A88DAD23916790D6" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ea1c83e7babf2415c9abb5a26182c0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b6aca24e-4444-460a-817a-632af75502ac" xmlns:ns3="fa9b16db-5586-4806-8651-c2f325035ff0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="424272155f00c6a6011fb59ff720a639" ns2:_="" ns3:_="">
     <xsd:import namespace="b6aca24e-4444-460a-817a-632af75502ac"/>
@@ -22241,25 +24694,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0403DBA-0434-4C98-9BCE-02F6A6E6BB8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b6aca24e-4444-460a-817a-632af75502ac"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{942C5E80-3160-4097-9E06-E488DC1AA17F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="b6aca24e-4444-460a-817a-632af75502ac">Yes</Status>
+    <Items xmlns="b6aca24e-4444-460a-817a-632af75502ac" xsi:nil="true"/>
+    <Flag xmlns="b6aca24e-4444-460a-817a-632af75502ac">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Flag>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{252E2E9E-DCA3-4458-942B-2E55E7D19DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22276,4 +24733,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{942C5E80-3160-4097-9E06-E488DC1AA17F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0403DBA-0434-4C98-9BCE-02F6A6E6BB8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b6aca24e-4444-460a-817a-632af75502ac"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>